--- a/table_data.xlsx
+++ b/table_data.xlsx
@@ -510,43 +510,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.490658503988659</v>
+        <v>3.577924966588375</v>
       </c>
       <c r="C2" t="n">
-        <v>12.48245903371273</v>
+        <v>12.03061434259685</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.736161146605349</v>
+        <v>-2.648800879147692</v>
       </c>
       <c r="E2" t="n">
-        <v>24.89552760586163</v>
+        <v>34.2022729176887</v>
       </c>
       <c r="F2" t="n">
-        <v>37.45048827690752</v>
+        <v>20.42537420967306</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.48136763463469</v>
+        <v>-31.61983847711524</v>
       </c>
       <c r="H2" t="n">
-        <v>-133.9554980783762</v>
+        <v>-68.50145729493661</v>
       </c>
       <c r="I2" t="n">
-        <v>9.22056577994875</v>
+        <v>15.32585234413326</v>
       </c>
       <c r="J2" t="n">
-        <v>30.87055121366945</v>
+        <v>27.0345153286274</v>
       </c>
       <c r="K2" t="n">
-        <v>-32.15632946054757</v>
+        <v>-50.49625905067067</v>
       </c>
       <c r="L2" t="n">
-        <v>-140.5354351416143</v>
+        <v>-61.89231617598228</v>
       </c>
       <c r="M2" t="n">
-        <v>46.3366728998739</v>
+        <v>-8.833502555246479</v>
       </c>
       <c r="N2" t="n">
-        <v>8.098331496995627</v>
+        <v>-115.3182848205919</v>
       </c>
     </row>
     <row r="3">
@@ -554,43 +554,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.821352467524427</v>
+        <v>3.908618930124143</v>
       </c>
       <c r="C3" t="n">
-        <v>13.77821021085589</v>
+        <v>14.08024633396261</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.028849950008657</v>
+        <v>-5.633970255986544</v>
       </c>
       <c r="E3" t="n">
-        <v>24.80243651917367</v>
+        <v>33.86781393911232</v>
       </c>
       <c r="F3" t="n">
-        <v>37.66954276022924</v>
+        <v>19.51463146004589</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.94498450855227</v>
+        <v>-24.8765273886759</v>
       </c>
       <c r="H3" t="n">
-        <v>-142.327975700793</v>
+        <v>-74.6599113444713</v>
       </c>
       <c r="I3" t="n">
-        <v>9.186087599693952</v>
+        <v>15.20043022716712</v>
       </c>
       <c r="J3" t="n">
-        <v>30.95168250378861</v>
+        <v>26.69298679751721</v>
       </c>
       <c r="K3" t="n">
-        <v>-27.56133342803199</v>
+        <v>-43.5439111006211</v>
       </c>
       <c r="L3" t="n">
-        <v>-149.0458359572336</v>
+        <v>-67.48155600699998</v>
       </c>
       <c r="M3" t="n">
-        <v>49.61837383663018</v>
+        <v>-3.519949698934605</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2740916856464111</v>
+        <v>-122.146004400157</v>
       </c>
     </row>
     <row r="4">
@@ -598,43 +598,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.152046431060194</v>
+        <v>4.23931289365991</v>
       </c>
       <c r="C4" t="n">
-        <v>15.74818885266835</v>
+        <v>16.98810652268319</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.776584830681773</v>
+        <v>-7.791880502336067</v>
       </c>
       <c r="E4" t="n">
-        <v>24.47089055304597</v>
+        <v>33.83022830779321</v>
       </c>
       <c r="F4" t="n">
-        <v>38.40944852045206</v>
+        <v>19.41736303318918</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.604781781546091</v>
+        <v>-16.16982074175215</v>
       </c>
       <c r="H4" t="n">
-        <v>-150.6201111704461</v>
+        <v>-80.77744174609057</v>
       </c>
       <c r="I4" t="n">
-        <v>9.063292797424431</v>
+        <v>15.18633561542245</v>
       </c>
       <c r="J4" t="n">
-        <v>31.22572167424151</v>
+        <v>26.65651113744594</v>
       </c>
       <c r="K4" t="n">
-        <v>-20.01237953716763</v>
+        <v>-34.81371343412291</v>
       </c>
       <c r="L4" t="n">
-        <v>-157.8038380166567</v>
+        <v>-73.5382936418338</v>
       </c>
       <c r="M4" t="n">
-        <v>52.649057894622</v>
+        <v>5.031901954875808</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.233842585238904</v>
+        <v>-128.3328767562604</v>
       </c>
     </row>
     <row r="5">
@@ -642,43 +642,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.482740394595962</v>
+        <v>4.570006857195678</v>
       </c>
       <c r="C5" t="n">
-        <v>18.17891720594165</v>
+        <v>20.43908313721102</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.789971595402941</v>
+        <v>-8.888688559576908</v>
       </c>
       <c r="E5" t="n">
-        <v>23.92999278724766</v>
+        <v>34.07250292319966</v>
       </c>
       <c r="F5" t="n">
-        <v>39.50421709673481</v>
+        <v>20.06178406072782</v>
       </c>
       <c r="G5" t="n">
-        <v>4.759740849560973</v>
+        <v>-6.40171206645411</v>
       </c>
       <c r="H5" t="n">
-        <v>-157.6472956404592</v>
+        <v>-85.94671559152967</v>
       </c>
       <c r="I5" t="n">
-        <v>8.862960291573206</v>
+        <v>15.27718859619987</v>
       </c>
       <c r="J5" t="n">
-        <v>31.63119151730919</v>
+        <v>26.89816902277293</v>
       </c>
       <c r="K5" t="n">
-        <v>-10.30729164611348</v>
+        <v>-25.1970263934539</v>
       </c>
       <c r="L5" t="n">
-        <v>-165.5203212198848</v>
+        <v>-79.11033062948455</v>
       </c>
       <c r="M5" t="n">
-        <v>55.42668692829655</v>
+        <v>15.81816825103324</v>
       </c>
       <c r="N5" t="n">
-        <v>-10.81999133816515</v>
+        <v>-133.0350300972298</v>
       </c>
     </row>
     <row r="6">
@@ -686,43 +686,43 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.81343435813173</v>
+        <v>4.900700820731446</v>
       </c>
       <c r="C6" t="n">
-        <v>20.80698813696214</v>
+        <v>24.05920931394265</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.959194063898829</v>
+        <v>-8.805538255976508</v>
       </c>
       <c r="E6" t="n">
-        <v>23.2015075657003</v>
+        <v>34.53575390651955</v>
       </c>
       <c r="F6" t="n">
-        <v>40.80905669040256</v>
+        <v>21.43089694064923</v>
       </c>
       <c r="G6" t="n">
-        <v>15.21977613657311</v>
+        <v>3.433512147306896</v>
       </c>
       <c r="H6" t="n">
-        <v>-162.5608358476713</v>
+        <v>-89.76441698998266</v>
       </c>
       <c r="I6" t="n">
-        <v>8.593150950259369</v>
+        <v>15.45090771494483</v>
       </c>
       <c r="J6" t="n">
-        <v>32.11446544088984</v>
+        <v>27.41158635274346</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6114195211321807</v>
+        <v>-15.65133404426782</v>
       </c>
       <c r="L6" t="n">
-        <v>-171.255427097184</v>
+        <v>-83.78372757788844</v>
       </c>
       <c r="M6" t="n">
-        <v>57.68548659198716</v>
+        <v>27.75704903886562</v>
       </c>
       <c r="N6" t="n">
-        <v>-13.15514603252106</v>
+        <v>-135.801336928182</v>
       </c>
     </row>
     <row r="7">
@@ -730,43 +730,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5.144128321667497</v>
+        <v>5.231394784267214</v>
       </c>
       <c r="C7" t="n">
-        <v>23.34760938163168</v>
+        <v>27.45618820958397</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.265914355950772</v>
+        <v>-7.551440217139866</v>
       </c>
       <c r="E7" t="n">
-        <v>22.31283921776102</v>
+        <v>35.11324434249723</v>
       </c>
       <c r="F7" t="n">
-        <v>42.20319723092303</v>
+        <v>23.51895552184961</v>
       </c>
       <c r="G7" t="n">
-        <v>25.7620730973299</v>
+        <v>12.381358947911</v>
       </c>
       <c r="H7" t="n">
-        <v>-164.8970386229127</v>
+        <v>-92.240237350125</v>
       </c>
       <c r="I7" t="n">
-        <v>8.264014525096673</v>
+        <v>15.66746662843646</v>
       </c>
       <c r="J7" t="n">
-        <v>32.63081378923075</v>
+        <v>28.1946083206936</v>
       </c>
       <c r="K7" t="n">
-        <v>11.71324840466555</v>
+        <v>-7.064418766149764</v>
       </c>
       <c r="L7" t="n">
-        <v>-174.4694220646049</v>
+        <v>-87.564584551281</v>
       </c>
       <c r="M7" t="n">
-        <v>59.00392172437117</v>
+        <v>39.76413058536391</v>
       </c>
       <c r="N7" t="n">
-        <v>-13.17236622754771</v>
+        <v>-136.5258587385881</v>
       </c>
     </row>
     <row r="8">
@@ -774,43 +774,43 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5.474822285203265</v>
+        <v>5.562088747802981</v>
       </c>
       <c r="C8" t="n">
-        <v>25.52546520628995</v>
+        <v>30.26190445123382</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.785260085257976</v>
+        <v>-5.262295424910971</v>
       </c>
       <c r="E8" t="n">
-        <v>21.30437679235249</v>
+        <v>35.65010605623032</v>
       </c>
       <c r="F8" t="n">
-        <v>43.58684808785179</v>
+        <v>26.28080657004053</v>
       </c>
       <c r="G8" t="n">
-        <v>35.37467150547737</v>
+        <v>19.65388254139695</v>
       </c>
       <c r="H8" t="n">
-        <v>-164.5736939103659</v>
+        <v>-93.64358404751225</v>
       </c>
       <c r="I8" t="n">
-        <v>7.890509923093515</v>
+        <v>15.86878977108637</v>
       </c>
       <c r="J8" t="n">
-        <v>33.14327706957474</v>
+        <v>29.2303024637652</v>
       </c>
       <c r="K8" t="n">
-        <v>21.96080463621839</v>
+        <v>-0.1274337437469981</v>
       </c>
       <c r="L8" t="n">
-        <v>-175.017264928643</v>
+        <v>-90.69408815378758</v>
       </c>
       <c r="M8" t="n">
-        <v>58.93316294204745</v>
+        <v>50.82078707884931</v>
       </c>
       <c r="N8" t="n">
-        <v>-11.04716788031139</v>
+        <v>-135.3527737527142</v>
       </c>
     </row>
     <row r="9">
@@ -818,43 +818,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5.805516248739033</v>
+        <v>5.892782711338749</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1045511394203</v>
+        <v>32.17231514893636</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.677683116768182</v>
+        <v>-2.186168237269002</v>
       </c>
       <c r="E9" t="n">
-        <v>20.2338356042893</v>
+        <v>35.96882475052089</v>
       </c>
       <c r="F9" t="n">
-        <v>44.87713334789991</v>
+        <v>29.58782293231932</v>
       </c>
       <c r="G9" t="n">
-        <v>43.13622072139263</v>
+        <v>24.69793687081681</v>
       </c>
       <c r="H9" t="n">
-        <v>-161.8493882155603</v>
+        <v>-94.32903628471534</v>
       </c>
       <c r="I9" t="n">
-        <v>7.494013186773813</v>
+        <v>15.98830928144533</v>
       </c>
       <c r="J9" t="n">
-        <v>33.62116049922219</v>
+        <v>30.47043359961975</v>
       </c>
       <c r="K9" t="n">
-        <v>30.39639830387715</v>
+        <v>4.717421401741255</v>
       </c>
       <c r="L9" t="n">
-        <v>-173.105361064238</v>
+        <v>-93.44642561741492</v>
       </c>
       <c r="M9" t="n">
-        <v>57.12061859028167</v>
+        <v>60.02140255672634</v>
       </c>
       <c r="N9" t="n">
-        <v>-7.156682085411518</v>
+        <v>-132.5819474974266</v>
       </c>
     </row>
     <row r="10">
@@ -862,43 +862,43 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.136210212274801</v>
+        <v>6.223476674874517</v>
       </c>
       <c r="C10" t="n">
-        <v>27.91374871812526</v>
+        <v>32.98039766051932</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.171572117443374</v>
+        <v>1.343595233973822</v>
       </c>
       <c r="E10" t="n">
-        <v>19.17944554770151</v>
+        <v>35.92373695400884</v>
       </c>
       <c r="F10" t="n">
-        <v>46.00391718785242</v>
+        <v>33.20794449460364</v>
       </c>
       <c r="G10" t="n">
-        <v>48.29378944911402</v>
+        <v>27.18569842646182</v>
       </c>
       <c r="H10" t="n">
-        <v>-157.2516310176527</v>
+        <v>-94.59728686749479</v>
       </c>
       <c r="I10" t="n">
-        <v>7.103498351000558</v>
+        <v>15.97140135775332</v>
       </c>
       <c r="J10" t="n">
-        <v>34.03848784735275</v>
+        <v>31.82797918547637</v>
       </c>
       <c r="K10" t="n">
-        <v>36.21784225241308</v>
+        <v>7.233362830206296</v>
       </c>
       <c r="L10" t="n">
-        <v>-169.2170603581524</v>
+        <v>-95.97725217662207</v>
       </c>
       <c r="M10" t="n">
-        <v>53.41756940079603</v>
+        <v>66.60400335588555</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.012642381966515</v>
+        <v>-128.615365602223</v>
       </c>
     </row>
     <row r="11">
@@ -906,43 +906,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>6.466904175810568</v>
+        <v>6.554170638410285</v>
       </c>
       <c r="C11" t="n">
-        <v>27.86536882875804</v>
+        <v>32.59858370716061</v>
       </c>
       <c r="D11" t="n">
-        <v>1.461496899620853</v>
+        <v>4.94449034678494</v>
       </c>
       <c r="E11" t="n">
-        <v>18.24272048753025</v>
+        <v>35.46709494730285</v>
       </c>
       <c r="F11" t="n">
-        <v>46.90485240371915</v>
+        <v>36.81566295252973</v>
       </c>
       <c r="G11" t="n">
-        <v>50.31821495828956</v>
+        <v>26.95120220313056</v>
       </c>
       <c r="H11" t="n">
-        <v>-151.4778516803277</v>
+        <v>-94.61754367330487</v>
       </c>
       <c r="I11" t="n">
-        <v>6.75656314352972</v>
+        <v>15.80016060523857</v>
       </c>
       <c r="J11" t="n">
-        <v>34.37216755693302</v>
+        <v>33.18087360719865</v>
       </c>
       <c r="K11" t="n">
-        <v>38.83205761428903</v>
+        <v>7.284267861066269</v>
       </c>
       <c r="L11" t="n">
-        <v>-164.0105365271138</v>
+        <v>-98.25233301863595</v>
       </c>
       <c r="M11" t="n">
-        <v>47.96565987120665</v>
+        <v>69.9745723208202</v>
       </c>
       <c r="N11" t="n">
-        <v>3.827853939865818</v>
+        <v>-123.9436765248672</v>
       </c>
     </row>
     <row r="12">
@@ -950,43 +950,43 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6.797598139346336</v>
+        <v>6.884864601946052</v>
       </c>
       <c r="C12" t="n">
-        <v>26.9646541830229</v>
+        <v>31.06824875516055</v>
       </c>
       <c r="D12" t="n">
-        <v>3.936190050150224</v>
+        <v>8.226304242046734</v>
       </c>
       <c r="E12" t="n">
-        <v>17.54997277637889</v>
+        <v>34.70265825173573</v>
       </c>
       <c r="F12" t="n">
-        <v>47.51824689266508</v>
+        <v>40.0192447731018</v>
       </c>
       <c r="G12" t="n">
-        <v>48.93224413185894</v>
+        <v>23.91300505877817</v>
       </c>
       <c r="H12" t="n">
-        <v>-145.2735228083828</v>
+        <v>-94.38529220156971</v>
       </c>
       <c r="I12" t="n">
-        <v>6.499989917177365</v>
+        <v>15.5134968444009</v>
       </c>
       <c r="J12" t="n">
-        <v>34.59935070098707</v>
+        <v>34.38221678991317</v>
       </c>
       <c r="K12" t="n">
-        <v>37.88226127265742</v>
+        <v>4.723843651443339</v>
       </c>
       <c r="L12" t="n">
-        <v>-158.1924190000609</v>
+        <v>-100.0223201847583</v>
       </c>
       <c r="M12" t="n">
-        <v>41.25955453910002</v>
+        <v>69.7228236775241</v>
       </c>
       <c r="N12" t="n">
-        <v>9.860375963088529</v>
+        <v>-119.1338873622813</v>
       </c>
     </row>
     <row r="13">
@@ -994,43 +994,43 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.128292102882104</v>
+        <v>7.21555856548182</v>
       </c>
       <c r="C13" t="n">
-        <v>25.30921118881297</v>
+        <v>28.55522834216172</v>
       </c>
       <c r="D13" t="n">
-        <v>5.984335932464282</v>
+        <v>10.83340146161827</v>
       </c>
       <c r="E13" t="n">
-        <v>17.24845683880617</v>
+        <v>33.90709620337641</v>
       </c>
       <c r="F13" t="n">
-        <v>47.77235510672396</v>
+        <v>42.38268846459343</v>
       </c>
       <c r="G13" t="n">
-        <v>44.11763800549552</v>
+        <v>18.01873849039529</v>
       </c>
       <c r="H13" t="n">
-        <v>-139.2933972475323</v>
+        <v>-93.66194579008251</v>
       </c>
       <c r="I13" t="n">
-        <v>6.388317347705987</v>
+        <v>15.21516107626615</v>
       </c>
       <c r="J13" t="n">
-        <v>34.6934648543422</v>
+        <v>35.26850817422253</v>
       </c>
       <c r="K13" t="n">
-        <v>33.25749851439534</v>
+        <v>-0.6731966367149624</v>
       </c>
       <c r="L13" t="n">
-        <v>-152.372287499914</v>
+        <v>-100.7761260804534</v>
       </c>
       <c r="M13" t="n">
-        <v>34.18022210266811</v>
+        <v>65.61663987102328</v>
       </c>
       <c r="N13" t="n">
-        <v>15.71190743201149</v>
+        <v>-114.7681588201646</v>
       </c>
     </row>
     <row r="14">
@@ -1038,43 +1038,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>7.458986066417872</v>
+        <v>7.546252529017588</v>
       </c>
       <c r="C14" t="n">
-        <v>23.07843278139557</v>
+        <v>25.3318472234419</v>
       </c>
       <c r="D14" t="n">
-        <v>7.383986159956502</v>
+        <v>12.48326256847755</v>
       </c>
       <c r="E14" t="n">
-        <v>17.48616887155555</v>
+        <v>33.48881396829974</v>
       </c>
       <c r="F14" t="n">
-        <v>47.5726492750798</v>
+        <v>43.42617603058198</v>
       </c>
       <c r="G14" t="n">
-        <v>36.12704857102227</v>
+        <v>9.272818944503026</v>
       </c>
       <c r="H14" t="n">
-        <v>-133.9622103837443</v>
+        <v>-91.86177434062252</v>
       </c>
       <c r="I14" t="n">
-        <v>6.47635884131687</v>
+        <v>15.0583052381124</v>
       </c>
       <c r="J14" t="n">
-        <v>34.61949973151104</v>
+        <v>35.65981601146824</v>
       </c>
       <c r="K14" t="n">
-        <v>25.11723854078359</v>
+        <v>-9.157689785684312</v>
       </c>
       <c r="L14" t="n">
-        <v>-146.9153599273131</v>
+        <v>-99.62813435973625</v>
       </c>
       <c r="M14" t="n">
-        <v>27.9726286960302</v>
+        <v>57.58272097783585</v>
       </c>
       <c r="N14" t="n">
-        <v>21.14711283741565</v>
+        <v>-111.2830464369859</v>
       </c>
     </row>
     <row r="15">
@@ -1082,43 +1082,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>7.789680029953638</v>
+        <v>7.876946492553355</v>
       </c>
       <c r="C15" t="n">
-        <v>20.51405841530777</v>
+        <v>21.74740875912575</v>
       </c>
       <c r="D15" t="n">
-        <v>7.983466912667157</v>
+        <v>12.99709951146363</v>
       </c>
       <c r="E15" t="n">
-        <v>18.35546488565216</v>
+        <v>33.80911928307104</v>
       </c>
       <c r="F15" t="n">
-        <v>46.80093201926593</v>
+        <v>42.63685557045554</v>
       </c>
       <c r="G15" t="n">
-        <v>25.55077665117086</v>
+        <v>-1.999083834891529</v>
       </c>
       <c r="H15" t="n">
-        <v>-129.3915503553293</v>
+        <v>-87.99302580013222</v>
       </c>
       <c r="I15" t="n">
-        <v>6.798320328019317</v>
+        <v>15.17841973115164</v>
       </c>
       <c r="J15" t="n">
-        <v>34.33367852565405</v>
+        <v>35.36382083892083</v>
       </c>
       <c r="K15" t="n">
-        <v>13.99363209353802</v>
+        <v>-20.62978338681093</v>
       </c>
       <c r="L15" t="n">
-        <v>-141.8588038489411</v>
+        <v>-95.26606053166692</v>
       </c>
       <c r="M15" t="n">
-        <v>24.08023210828205</v>
+        <v>45.77675640032371</v>
       </c>
       <c r="N15" t="n">
-        <v>25.9250109392453</v>
+        <v>-108.6933044004406</v>
       </c>
     </row>
     <row r="16">
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.120373993489407</v>
+        <v>8.207640456089123</v>
       </c>
       <c r="C16" t="n">
-        <v>17.89397784348321</v>
+        <v>18.19034247511524</v>
       </c>
       <c r="D16" t="n">
-        <v>7.717815149137763</v>
+        <v>12.3192300848023</v>
       </c>
       <c r="E16" t="n">
-        <v>19.79100599045949</v>
+        <v>34.80340248367207</v>
       </c>
       <c r="F16" t="n">
-        <v>45.36616677169182</v>
+        <v>39.66893277335249</v>
       </c>
       <c r="G16" t="n">
-        <v>13.46757883387189</v>
+        <v>-14.51661941673101</v>
       </c>
       <c r="H16" t="n">
-        <v>-125.4945054085135</v>
+        <v>-81.19442985663338</v>
       </c>
       <c r="I16" t="n">
-        <v>7.330002218688698</v>
+        <v>15.55127593137703</v>
       </c>
       <c r="J16" t="n">
-        <v>33.80228398951549</v>
+        <v>34.25084979000719</v>
       </c>
       <c r="K16" t="n">
-        <v>1.006575062101103</v>
+        <v>-33.76874596902606</v>
       </c>
       <c r="L16" t="n">
-        <v>-137.0583881906899</v>
+        <v>-86.61251283997868</v>
       </c>
       <c r="M16" t="n">
-        <v>23.66821866215356</v>
+        <v>31.00832169547896</v>
       </c>
       <c r="N16" t="n">
-        <v>29.4936994998524</v>
+        <v>-106.4632284240566</v>
       </c>
     </row>
     <row r="17">
@@ -1170,43 +1170,43 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.451067957025174</v>
+        <v>8.53833441962489</v>
       </c>
       <c r="C17" t="n">
-        <v>15.50211745061797</v>
+        <v>15.04611169685313</v>
       </c>
       <c r="D17" t="n">
-        <v>6.61581835995855</v>
+        <v>10.52311195910022</v>
       </c>
       <c r="E17" t="n">
-        <v>21.49122829358543</v>
+        <v>35.75964637237279</v>
       </c>
       <c r="F17" t="n">
-        <v>43.34402356927427</v>
+        <v>34.91469823892311</v>
       </c>
       <c r="G17" t="n">
-        <v>1.527525483693907</v>
+        <v>-25.7336596955762</v>
       </c>
       <c r="H17" t="n">
-        <v>-122.4273506977191</v>
+        <v>-72.4125217682242</v>
       </c>
       <c r="I17" t="n">
-        <v>7.959714182809418</v>
+        <v>15.9098673896398</v>
       </c>
       <c r="J17" t="n">
-        <v>33.05334206269417</v>
+        <v>32.46801183959617</v>
       </c>
       <c r="K17" t="n">
-        <v>-12.00398862708211</v>
+        <v>-45.58343867830919</v>
       </c>
       <c r="L17" t="n">
-        <v>-132.7180322042992</v>
+        <v>-74.85920816755115</v>
       </c>
       <c r="M17" t="n">
-        <v>26.82667915355792</v>
+        <v>15.4501616739177</v>
       </c>
       <c r="N17" t="n">
-        <v>30.82195447921335</v>
+        <v>-104.2704140669437</v>
       </c>
     </row>
     <row r="18">
@@ -1214,43 +1214,43 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>8.781761920560943</v>
+        <v>8.869028383160659</v>
       </c>
       <c r="C18" t="n">
-        <v>13.59767242381693</v>
+        <v>12.65544261693139</v>
       </c>
       <c r="D18" t="n">
-        <v>4.796894996479054</v>
+        <v>7.803382402921408</v>
       </c>
       <c r="E18" t="n">
-        <v>23.02516796059725</v>
+        <v>35.9742920546352</v>
       </c>
       <c r="F18" t="n">
-        <v>41.10112195487599</v>
+        <v>29.71756185143602</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.399817162003838</v>
+        <v>-33.25354221354799</v>
       </c>
       <c r="H18" t="n">
-        <v>-121.0140898613231</v>
+        <v>-65.05772023777777</v>
       </c>
       <c r="I18" t="n">
-        <v>8.52783998540639</v>
+        <v>15.9903595204882</v>
       </c>
       <c r="J18" t="n">
-        <v>32.22263776106518</v>
+        <v>30.51908569428851</v>
       </c>
       <c r="K18" t="n">
-        <v>-22.89714513719471</v>
+        <v>-53.23747474769499</v>
       </c>
       <c r="L18" t="n">
-        <v>-129.8925740551339</v>
+        <v>-64.2561963949253</v>
       </c>
       <c r="M18" t="n">
-        <v>32.17465500437554</v>
+        <v>2.22486032153456</v>
       </c>
       <c r="N18" t="n">
-        <v>28.91625704030869</v>
+        <v>-103.1669763033302</v>
       </c>
     </row>
     <row r="19">
@@ -1258,43 +1258,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>9.112455884096709</v>
+        <v>9.199722346696426</v>
       </c>
       <c r="C19" t="n">
-        <v>12.38701893224327</v>
+        <v>11.27740132521236</v>
       </c>
       <c r="D19" t="n">
-        <v>2.458153628636249</v>
+        <v>4.454766314630053</v>
       </c>
       <c r="E19" t="n">
-        <v>24.10375254521677</v>
+        <v>35.5000562378781</v>
       </c>
       <c r="F19" t="n">
-        <v>39.16589960664463</v>
+        <v>25.36560056345691</v>
       </c>
       <c r="G19" t="n">
-        <v>-14.95202616469492</v>
+        <v>-36.4109505340983</v>
       </c>
       <c r="H19" t="n">
-        <v>-122.359153260028</v>
+        <v>-62.07903917620474</v>
       </c>
       <c r="I19" t="n">
-        <v>8.927315757487694</v>
+        <v>15.81252108920429</v>
       </c>
       <c r="J19" t="n">
-        <v>31.50588874320172</v>
+        <v>28.88710021129634</v>
       </c>
       <c r="K19" t="n">
-        <v>-30.128462952424</v>
+        <v>-56.09848568277211</v>
       </c>
       <c r="L19" t="n">
-        <v>-130.0191641234709</v>
+        <v>-58.55753952836531</v>
       </c>
       <c r="M19" t="n">
-        <v>37.77809667624815</v>
+        <v>-6.465825451149636</v>
       </c>
       <c r="N19" t="n">
-        <v>23.73989142816639</v>
+        <v>-104.673897176646</v>
       </c>
     </row>
     <row r="20">
@@ -1302,43 +1302,43 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>9.443149847632478</v>
+        <v>9.530416310232194</v>
       </c>
       <c r="C20" t="n">
-        <v>12.00135006693342</v>
+        <v>11.06131997816756</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1469668270527795</v>
+        <v>0.8401382065246301</v>
       </c>
       <c r="E20" t="n">
-        <v>24.6944600636274</v>
+        <v>34.79566397833382</v>
       </c>
       <c r="F20" t="n">
-        <v>37.9171260946236</v>
+        <v>22.30361683608912</v>
       </c>
       <c r="G20" t="n">
-        <v>-17.61590659201919</v>
+        <v>-35.66566977215976</v>
       </c>
       <c r="H20" t="n">
-        <v>-126.8803097389213</v>
+        <v>-63.71970218151957</v>
       </c>
       <c r="I20" t="n">
-        <v>9.146096319861998</v>
+        <v>15.54837399187518</v>
       </c>
       <c r="J20" t="n">
-        <v>31.04338003504578</v>
+        <v>27.73885631353342</v>
       </c>
       <c r="K20" t="n">
-        <v>-33.16427033578459</v>
+        <v>-54.9129597586184</v>
       </c>
       <c r="L20" t="n">
-        <v>-133.7540557984991</v>
+        <v>-58.28446270407527</v>
       </c>
       <c r="M20" t="n">
-        <v>42.51781663307721</v>
+        <v>-10.04207477628532</v>
       </c>
       <c r="N20" t="n">
-        <v>16.33048609963083</v>
+        <v>-109.0458957543158</v>
       </c>
     </row>
     <row r="21">
@@ -1346,43 +1346,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>9.773843811168245</v>
+        <v>9.861110273767961</v>
       </c>
       <c r="C21" t="n">
-        <v>12.48245903371273</v>
+        <v>12.03061434259685</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.736161146605344</v>
+        <v>-2.648800879147685</v>
       </c>
       <c r="E21" t="n">
-        <v>24.89552760586163</v>
+        <v>34.2022729176887</v>
       </c>
       <c r="F21" t="n">
-        <v>37.45048827690752</v>
+        <v>20.42537420967306</v>
       </c>
       <c r="G21" t="n">
-        <v>-16.4813676346347</v>
+        <v>-31.61983847711525</v>
       </c>
       <c r="H21" t="n">
-        <v>-133.9554980783762</v>
+        <v>-68.50145729493659</v>
       </c>
       <c r="I21" t="n">
-        <v>9.22056577994875</v>
+        <v>15.32585234413326</v>
       </c>
       <c r="J21" t="n">
-        <v>30.87055121366945</v>
+        <v>27.0345153286274</v>
       </c>
       <c r="K21" t="n">
-        <v>-32.15632946054757</v>
+        <v>-50.49625905067069</v>
       </c>
       <c r="L21" t="n">
-        <v>-140.5354351416143</v>
+        <v>-61.89231617598225</v>
       </c>
       <c r="M21" t="n">
-        <v>46.3366728998739</v>
+        <v>-8.833502555246493</v>
       </c>
       <c r="N21" t="n">
-        <v>8.098331496995627</v>
+        <v>-115.3182848205918</v>
       </c>
     </row>
   </sheetData>

--- a/table_data.xlsx
+++ b/table_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,43 +510,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.577924966588375</v>
+        <v>3.447025272688801</v>
       </c>
       <c r="C2" t="n">
-        <v>12.03061434259685</v>
+        <v>9.701259730204788</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.648800879147692</v>
+        <v>-1.931881545166662</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2022729176887</v>
+        <v>25.53534878581116</v>
       </c>
       <c r="F2" t="n">
-        <v>20.42537420967306</v>
+        <v>17.73647181191756</v>
       </c>
       <c r="G2" t="n">
-        <v>-31.61983847711524</v>
+        <v>-32.47072003175676</v>
       </c>
       <c r="H2" t="n">
-        <v>-68.50145729493661</v>
+        <v>-72.05238358535804</v>
       </c>
       <c r="I2" t="n">
-        <v>15.32585234413326</v>
+        <v>6.330021481421864</v>
       </c>
       <c r="J2" t="n">
-        <v>27.0345153286274</v>
+        <v>25.59254609436162</v>
       </c>
       <c r="K2" t="n">
-        <v>-50.49625905067067</v>
+        <v>-51.67604733614606</v>
       </c>
       <c r="L2" t="n">
-        <v>-61.89231617598228</v>
+        <v>-64.19630930291399</v>
       </c>
       <c r="M2" t="n">
-        <v>-8.833502555246479</v>
+        <v>-16.57026598178296</v>
       </c>
       <c r="N2" t="n">
-        <v>-115.3182848205919</v>
+        <v>-125.3184402119656</v>
       </c>
     </row>
     <row r="3">
@@ -554,43 +554,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.908618930124143</v>
+        <v>3.777719236224569</v>
       </c>
       <c r="C3" t="n">
-        <v>14.08024633396261</v>
+        <v>11.1570715082183</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.633970255986544</v>
+        <v>-4.792320145917249</v>
       </c>
       <c r="E3" t="n">
-        <v>33.86781393911232</v>
+        <v>24.93477471535802</v>
       </c>
       <c r="F3" t="n">
-        <v>19.51463146004589</v>
+        <v>16.36748595754155</v>
       </c>
       <c r="G3" t="n">
-        <v>-24.8765273886759</v>
+        <v>-25.53799940980731</v>
       </c>
       <c r="H3" t="n">
-        <v>-74.6599113444713</v>
+        <v>-77.51612136910649</v>
       </c>
       <c r="I3" t="n">
-        <v>15.20043022716712</v>
+        <v>6.148335208007468</v>
       </c>
       <c r="J3" t="n">
-        <v>26.69298679751721</v>
+        <v>25.17839911320585</v>
       </c>
       <c r="K3" t="n">
-        <v>-43.5439111006211</v>
+        <v>-44.32443891715786</v>
       </c>
       <c r="L3" t="n">
-        <v>-67.48155600699998</v>
+        <v>-68.70520821344219</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.519949698934605</v>
+        <v>-12.33337838262858</v>
       </c>
       <c r="N3" t="n">
-        <v>-122.146004400157</v>
+        <v>-131.5136695641207</v>
       </c>
     </row>
     <row r="4">
@@ -598,43 +598,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.23931289365991</v>
+        <v>4.108413199760336</v>
       </c>
       <c r="C4" t="n">
-        <v>16.98810652268319</v>
+        <v>13.46278628389064</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.791880502336067</v>
+        <v>-7.025070981750273</v>
       </c>
       <c r="E4" t="n">
-        <v>33.83022830779321</v>
+        <v>24.58350756153641</v>
       </c>
       <c r="F4" t="n">
-        <v>19.41736303318918</v>
+        <v>15.64411643784896</v>
       </c>
       <c r="G4" t="n">
-        <v>-16.16982074175215</v>
+        <v>-16.15576840607682</v>
       </c>
       <c r="H4" t="n">
-        <v>-80.77744174609057</v>
+        <v>-83.04553807179916</v>
       </c>
       <c r="I4" t="n">
-        <v>15.18633561542245</v>
+        <v>6.042069514414376</v>
       </c>
       <c r="J4" t="n">
-        <v>26.65651113744594</v>
+        <v>24.95956463666019</v>
       </c>
       <c r="K4" t="n">
-        <v>-34.81371343412291</v>
+        <v>-34.69720645319886</v>
       </c>
       <c r="L4" t="n">
-        <v>-73.5382936418338</v>
+        <v>-73.73008987298792</v>
       </c>
       <c r="M4" t="n">
-        <v>5.031901954875808</v>
+        <v>-4.415399442497812</v>
       </c>
       <c r="N4" t="n">
-        <v>-128.3328767562604</v>
+        <v>-137.3802504032666</v>
       </c>
     </row>
     <row r="5">
@@ -642,43 +642,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.570006857195678</v>
+        <v>4.439107163296104</v>
       </c>
       <c r="C5" t="n">
-        <v>20.43908313721102</v>
+        <v>16.36854408442674</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.888688559576908</v>
+        <v>-8.388180854904453</v>
       </c>
       <c r="E5" t="n">
-        <v>34.07250292319966</v>
+        <v>24.51627503200149</v>
       </c>
       <c r="F5" t="n">
-        <v>20.06178406072782</v>
+        <v>15.51112834862551</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.40171206645411</v>
+        <v>-5.331848241292139</v>
       </c>
       <c r="H5" t="n">
-        <v>-85.94671559152967</v>
+        <v>-87.55192480501077</v>
       </c>
       <c r="I5" t="n">
-        <v>15.27718859619987</v>
+        <v>6.021730261781963</v>
       </c>
       <c r="J5" t="n">
-        <v>26.89816902277293</v>
+        <v>24.91933294580268</v>
       </c>
       <c r="K5" t="n">
-        <v>-25.1970263934539</v>
+        <v>-23.82639301151166</v>
       </c>
       <c r="L5" t="n">
-        <v>-79.11033062948455</v>
+        <v>-78.14372020783361</v>
       </c>
       <c r="M5" t="n">
-        <v>15.81816825103324</v>
+        <v>6.136213220836726</v>
       </c>
       <c r="N5" t="n">
-        <v>-133.0350300972298</v>
+        <v>-141.9447625122414</v>
       </c>
     </row>
     <row r="6">
@@ -686,43 +686,43 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.900700820731446</v>
+        <v>4.769801126831871</v>
       </c>
       <c r="C6" t="n">
-        <v>24.05920931394265</v>
+        <v>19.55946096466073</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.805538255976508</v>
+        <v>-8.733935659794598</v>
       </c>
       <c r="E6" t="n">
-        <v>34.53575390651955</v>
+        <v>24.74824388666533</v>
       </c>
       <c r="F6" t="n">
-        <v>21.43089694064923</v>
+        <v>15.97717584471514</v>
       </c>
       <c r="G6" t="n">
-        <v>3.433512147306896</v>
+        <v>5.739831202094024</v>
       </c>
       <c r="H6" t="n">
-        <v>-89.76441698998266</v>
+        <v>-90.52585402642181</v>
       </c>
       <c r="I6" t="n">
-        <v>15.45090771494483</v>
+        <v>6.091905713613039</v>
       </c>
       <c r="J6" t="n">
-        <v>27.41158635274346</v>
+        <v>25.06032210428357</v>
       </c>
       <c r="K6" t="n">
-        <v>-15.65133404426782</v>
+        <v>-12.91650697095826</v>
       </c>
       <c r="L6" t="n">
-        <v>-83.78372757788844</v>
+        <v>-81.44270776685337</v>
       </c>
       <c r="M6" t="n">
-        <v>27.75704903886562</v>
+        <v>18.15790386470075</v>
       </c>
       <c r="N6" t="n">
-        <v>-135.801336928182</v>
+        <v>-144.7096957035354</v>
       </c>
     </row>
     <row r="7">
@@ -730,43 +730,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5.231394784267214</v>
+        <v>5.100495090367639</v>
       </c>
       <c r="C7" t="n">
-        <v>27.45618820958397</v>
+        <v>22.68975156844244</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.551440217139866</v>
+        <v>-8.024867498372293</v>
       </c>
       <c r="E7" t="n">
-        <v>35.11324434249723</v>
+        <v>25.26353752912881</v>
       </c>
       <c r="F7" t="n">
-        <v>23.51895552184961</v>
+        <v>17.09361425965945</v>
       </c>
       <c r="G7" t="n">
-        <v>12.381358947911</v>
+        <v>15.83481668305001</v>
       </c>
       <c r="H7" t="n">
-        <v>-92.240237350125</v>
+        <v>-92.01820049972025</v>
       </c>
       <c r="I7" t="n">
-        <v>15.66746662843646</v>
+        <v>6.247792865954933</v>
       </c>
       <c r="J7" t="n">
-        <v>28.1946083206936</v>
+        <v>25.39806817939277</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.064418766149764</v>
+        <v>-3.180927980123869</v>
       </c>
       <c r="L7" t="n">
-        <v>-87.564584551281</v>
+        <v>-83.71374657998693</v>
       </c>
       <c r="M7" t="n">
-        <v>39.76413058536391</v>
+        <v>30.4813156246775</v>
       </c>
       <c r="N7" t="n">
-        <v>-136.5258587385881</v>
+        <v>-145.6426100190539</v>
       </c>
     </row>
     <row r="8">
@@ -774,43 +774,43 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5.562088747802981</v>
+        <v>5.431189053903407</v>
       </c>
       <c r="C8" t="n">
-        <v>30.26190445123382</v>
+        <v>25.4202003373889</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.262295424910971</v>
+        <v>-6.337814908253783</v>
       </c>
       <c r="E8" t="n">
-        <v>35.65010605623032</v>
+        <v>25.98519077674523</v>
       </c>
       <c r="F8" t="n">
-        <v>26.28080657004053</v>
+        <v>18.90586322714154</v>
       </c>
       <c r="G8" t="n">
-        <v>19.65388254139695</v>
+        <v>23.91542382068737</v>
       </c>
       <c r="H8" t="n">
-        <v>-93.64358404751225</v>
+        <v>-92.47684069402248</v>
       </c>
       <c r="I8" t="n">
-        <v>15.86878977108637</v>
+        <v>6.466108134141415</v>
       </c>
       <c r="J8" t="n">
-        <v>29.2303024637652</v>
+        <v>25.94631156451341</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1274337437469981</v>
+        <v>4.396341178083549</v>
       </c>
       <c r="L8" t="n">
-        <v>-90.69408815378758</v>
+        <v>-85.43639235665063</v>
       </c>
       <c r="M8" t="n">
-        <v>50.82078707884931</v>
+        <v>42.04459514683843</v>
       </c>
       <c r="N8" t="n">
-        <v>-135.3527737527142</v>
+        <v>-145.0261544342737</v>
       </c>
     </row>
     <row r="9">
@@ -818,43 +818,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5.892782711338749</v>
+        <v>5.761883017439175</v>
       </c>
       <c r="C9" t="n">
-        <v>32.17231514893636</v>
+        <v>27.45492078010687</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.186168237269002</v>
+        <v>-3.855596214896483</v>
       </c>
       <c r="E9" t="n">
-        <v>35.96882475052089</v>
+        <v>26.7588481016521</v>
       </c>
       <c r="F9" t="n">
-        <v>29.58782293231932</v>
+        <v>21.38480756210971</v>
       </c>
       <c r="G9" t="n">
-        <v>24.69793687081681</v>
+        <v>29.30881731975372</v>
       </c>
       <c r="H9" t="n">
-        <v>-94.32903628471534</v>
+        <v>-92.46484551972567</v>
       </c>
       <c r="I9" t="n">
-        <v>15.98830928144533</v>
+        <v>6.700155728230888</v>
       </c>
       <c r="J9" t="n">
-        <v>30.47043359961975</v>
+        <v>26.69624430450378</v>
       </c>
       <c r="K9" t="n">
-        <v>4.717421401741255</v>
+        <v>9.250124946332502</v>
       </c>
       <c r="L9" t="n">
-        <v>-93.44642561741492</v>
+        <v>-87.15340877733161</v>
       </c>
       <c r="M9" t="n">
-        <v>60.02140255672634</v>
+        <v>51.95155884910947</v>
       </c>
       <c r="N9" t="n">
-        <v>-132.5819474974266</v>
+        <v>-143.2329800489664</v>
       </c>
     </row>
     <row r="10">
@@ -862,43 +862,43 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.223476674874517</v>
+        <v>6.092576980974942</v>
       </c>
       <c r="C10" t="n">
-        <v>32.98039766051932</v>
+        <v>28.57341936468722</v>
       </c>
       <c r="D10" t="n">
-        <v>1.343595233973822</v>
+        <v>-0.8471983293170848</v>
       </c>
       <c r="E10" t="n">
-        <v>35.92373695400884</v>
+        <v>27.38829075065058</v>
       </c>
       <c r="F10" t="n">
-        <v>33.20794449460364</v>
+        <v>24.37497386437376</v>
       </c>
       <c r="G10" t="n">
-        <v>27.18569842646182</v>
+        <v>31.72985101989372</v>
       </c>
       <c r="H10" t="n">
-        <v>-94.59728686749479</v>
+        <v>-92.39805655114469</v>
       </c>
       <c r="I10" t="n">
-        <v>15.97140135775332</v>
+        <v>6.890575353137988</v>
       </c>
       <c r="J10" t="n">
-        <v>31.82797918547637</v>
+        <v>27.60083242955845</v>
       </c>
       <c r="K10" t="n">
-        <v>7.233362830206296</v>
+        <v>11.23213562238114</v>
       </c>
       <c r="L10" t="n">
-        <v>-95.97725217662207</v>
+        <v>-89.17219798596</v>
       </c>
       <c r="M10" t="n">
-        <v>66.60400335588555</v>
+        <v>59.46079705231288</v>
       </c>
       <c r="N10" t="n">
-        <v>-128.615365602223</v>
+        <v>-140.5757677845704</v>
       </c>
     </row>
     <row r="11">
@@ -906,43 +906,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>6.554170638410285</v>
+        <v>6.42327094451071</v>
       </c>
       <c r="C11" t="n">
-        <v>32.59858370716061</v>
+        <v>28.65448941419694</v>
       </c>
       <c r="D11" t="n">
-        <v>4.94449034678494</v>
+        <v>2.361372157479072</v>
       </c>
       <c r="E11" t="n">
-        <v>35.46709494730285</v>
+        <v>27.71675508625803</v>
       </c>
       <c r="F11" t="n">
-        <v>36.81566295252973</v>
+        <v>27.59395336373311</v>
       </c>
       <c r="G11" t="n">
-        <v>26.95120220313056</v>
+        <v>31.15201945593522</v>
       </c>
       <c r="H11" t="n">
-        <v>-94.61754367330487</v>
+        <v>-92.43618857736628</v>
       </c>
       <c r="I11" t="n">
-        <v>15.80016060523857</v>
+        <v>6.989942715170496</v>
       </c>
       <c r="J11" t="n">
-        <v>33.18087360719865</v>
+        <v>28.57464135373439</v>
       </c>
       <c r="K11" t="n">
-        <v>7.284267861066269</v>
+        <v>10.42520708484769</v>
       </c>
       <c r="L11" t="n">
-        <v>-98.25233301863595</v>
+        <v>-91.45550058736501</v>
       </c>
       <c r="M11" t="n">
-        <v>69.9745723208202</v>
+        <v>63.95113646381277</v>
       </c>
       <c r="N11" t="n">
-        <v>-123.9436765248672</v>
+        <v>-137.3173110126157</v>
       </c>
     </row>
     <row r="12">
@@ -950,43 +950,43 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6.884864601946052</v>
+        <v>6.753964908046478</v>
       </c>
       <c r="C12" t="n">
-        <v>31.06824875516055</v>
+        <v>27.68934573084024</v>
       </c>
       <c r="D12" t="n">
-        <v>8.226304242046734</v>
+        <v>5.42241684714688</v>
       </c>
       <c r="E12" t="n">
-        <v>34.70265825173573</v>
+        <v>27.70295497348244</v>
       </c>
       <c r="F12" t="n">
-        <v>40.0192447731018</v>
+        <v>30.67241317959246</v>
       </c>
       <c r="G12" t="n">
-        <v>23.91300505877817</v>
+        <v>27.6530993321199</v>
       </c>
       <c r="H12" t="n">
-        <v>-94.38529220156971</v>
+        <v>-92.49998656440459</v>
       </c>
       <c r="I12" t="n">
-        <v>15.5134968444009</v>
+        <v>6.985767891137545</v>
       </c>
       <c r="J12" t="n">
-        <v>34.38221678991317</v>
+        <v>29.50594012155738</v>
       </c>
       <c r="K12" t="n">
-        <v>4.723843651443339</v>
+        <v>6.935912249775004</v>
       </c>
       <c r="L12" t="n">
-        <v>-100.0223201847583</v>
+        <v>-93.66645962243966</v>
       </c>
       <c r="M12" t="n">
-        <v>69.7228236775241</v>
+        <v>64.91463148210208</v>
       </c>
       <c r="N12" t="n">
-        <v>-119.1338873622813</v>
+        <v>-133.7513556250811</v>
       </c>
     </row>
     <row r="13">
@@ -994,43 +994,43 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.21555856548182</v>
+        <v>7.084658871582246</v>
       </c>
       <c r="C13" t="n">
-        <v>28.55522834216172</v>
+        <v>25.78257660845605</v>
       </c>
       <c r="D13" t="n">
-        <v>10.83340146161827</v>
+        <v>8.004224050558687</v>
       </c>
       <c r="E13" t="n">
-        <v>33.90709620337641</v>
+        <v>27.45218503889162</v>
       </c>
       <c r="F13" t="n">
-        <v>42.38268846459343</v>
+        <v>33.19896373345715</v>
       </c>
       <c r="G13" t="n">
-        <v>18.01873849039529</v>
+        <v>21.33579771947419</v>
       </c>
       <c r="H13" t="n">
-        <v>-93.66194579008251</v>
+        <v>-92.29756121457852</v>
       </c>
       <c r="I13" t="n">
-        <v>15.21516107626615</v>
+        <v>6.909904717647885</v>
       </c>
       <c r="J13" t="n">
-        <v>35.26850817422253</v>
+        <v>30.2702747428946</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6731966367149624</v>
+        <v>0.7935173982304526</v>
       </c>
       <c r="L13" t="n">
-        <v>-100.7761260804534</v>
+        <v>-95.22625020514107</v>
       </c>
       <c r="M13" t="n">
-        <v>65.61663987102328</v>
+        <v>61.97895669814836</v>
       </c>
       <c r="N13" t="n">
-        <v>-114.7681588201646</v>
+        <v>-130.22157545066</v>
       </c>
     </row>
     <row r="14">
@@ -1038,43 +1038,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>7.546252529017588</v>
+        <v>7.415352835118012</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3318472234419</v>
+        <v>23.14081006802608</v>
       </c>
       <c r="D14" t="n">
-        <v>12.48326256847755</v>
+        <v>9.827014896358444</v>
       </c>
       <c r="E14" t="n">
-        <v>33.48881396829974</v>
+        <v>27.18896083043538</v>
       </c>
       <c r="F14" t="n">
-        <v>43.42617603058198</v>
+        <v>34.75039699840882</v>
       </c>
       <c r="G14" t="n">
-        <v>9.272818944503026</v>
+        <v>12.35910160180724</v>
       </c>
       <c r="H14" t="n">
-        <v>-91.86177434062252</v>
+        <v>-91.3034789877093</v>
       </c>
       <c r="I14" t="n">
-        <v>15.0583052381124</v>
+        <v>6.830273864669527</v>
       </c>
       <c r="J14" t="n">
-        <v>35.65981601146824</v>
+        <v>30.7396158986783</v>
       </c>
       <c r="K14" t="n">
-        <v>-9.157689785684312</v>
+        <v>-7.999585363958612</v>
       </c>
       <c r="L14" t="n">
-        <v>-99.62813435973625</v>
+        <v>-95.31426008743982</v>
       </c>
       <c r="M14" t="n">
-        <v>57.58272097783585</v>
+        <v>54.95066653435794</v>
       </c>
       <c r="N14" t="n">
-        <v>-111.2830464369859</v>
+        <v>-127.0254025661032</v>
       </c>
     </row>
     <row r="15">
@@ -1082,43 +1082,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>7.876946492553355</v>
+        <v>7.746046798653781</v>
       </c>
       <c r="C15" t="n">
-        <v>21.74740875912575</v>
+        <v>20.05032250543721</v>
       </c>
       <c r="D15" t="n">
-        <v>12.99709951146363</v>
+        <v>10.69326171288964</v>
       </c>
       <c r="E15" t="n">
-        <v>33.80911928307104</v>
+        <v>27.15436389024016</v>
       </c>
       <c r="F15" t="n">
-        <v>42.63685557045554</v>
+        <v>34.92330702863362</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.999083834891529</v>
+        <v>1.129657827100637</v>
       </c>
       <c r="H15" t="n">
-        <v>-87.99302580013222</v>
+        <v>-88.7635323448047</v>
       </c>
       <c r="I15" t="n">
-        <v>15.17841973115164</v>
+        <v>6.819807563433999</v>
       </c>
       <c r="J15" t="n">
-        <v>35.36382083892083</v>
+        <v>30.79192481538496</v>
       </c>
       <c r="K15" t="n">
-        <v>-20.62978338681093</v>
+        <v>-19.20489849970553</v>
       </c>
       <c r="L15" t="n">
-        <v>-95.26606053166692</v>
+        <v>-92.89491455805336</v>
       </c>
       <c r="M15" t="n">
-        <v>45.77675640032371</v>
+        <v>43.93220829822495</v>
       </c>
       <c r="N15" t="n">
-        <v>-108.6933044004406</v>
+        <v>-124.2323764295948</v>
       </c>
     </row>
     <row r="16">
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.207640456089123</v>
+        <v>8.076740762189548</v>
       </c>
       <c r="C16" t="n">
-        <v>18.19034247511524</v>
+        <v>16.84601620195139</v>
       </c>
       <c r="D16" t="n">
-        <v>12.3192300848023</v>
+        <v>10.50909321637684</v>
       </c>
       <c r="E16" t="n">
-        <v>34.80340248367207</v>
+        <v>27.41683350686776</v>
       </c>
       <c r="F16" t="n">
-        <v>39.66893277335249</v>
+        <v>33.43986558684183</v>
       </c>
       <c r="G16" t="n">
-        <v>-14.51661941673101</v>
+        <v>-11.30794275866747</v>
       </c>
       <c r="H16" t="n">
-        <v>-81.19442985663338</v>
+        <v>-84.00381957497078</v>
       </c>
       <c r="I16" t="n">
-        <v>15.55127593137703</v>
+        <v>6.899210136531421</v>
       </c>
       <c r="J16" t="n">
-        <v>34.25084979000719</v>
+        <v>30.34315261450677</v>
       </c>
       <c r="K16" t="n">
-        <v>-33.76874596902606</v>
+        <v>-31.8255661290038</v>
       </c>
       <c r="L16" t="n">
-        <v>-86.61251283997868</v>
+        <v>-87.10053254730583</v>
       </c>
       <c r="M16" t="n">
-        <v>31.00832169547896</v>
+        <v>29.64423263539317</v>
       </c>
       <c r="N16" t="n">
-        <v>-106.4632284240566</v>
+        <v>-121.5939320786384</v>
       </c>
     </row>
     <row r="17">
@@ -1170,43 +1170,43 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.53833441962489</v>
+        <v>8.407434725725317</v>
       </c>
       <c r="C17" t="n">
-        <v>15.04611169685313</v>
+        <v>13.87512746548638</v>
       </c>
       <c r="D17" t="n">
-        <v>10.52311195910022</v>
+        <v>9.294466921085883</v>
       </c>
       <c r="E17" t="n">
-        <v>35.75964637237279</v>
+        <v>27.71643859312513</v>
       </c>
       <c r="F17" t="n">
-        <v>34.91469823892311</v>
+        <v>30.41271983812198</v>
       </c>
       <c r="G17" t="n">
-        <v>-25.7336596955762</v>
+        <v>-22.9893546467396</v>
       </c>
       <c r="H17" t="n">
-        <v>-72.4125217682242</v>
+        <v>-77.36389682478573</v>
       </c>
       <c r="I17" t="n">
-        <v>15.9098673896398</v>
+        <v>6.989846969348777</v>
       </c>
       <c r="J17" t="n">
-        <v>32.46801183959617</v>
+        <v>29.42737743002009</v>
       </c>
       <c r="K17" t="n">
-        <v>-45.58343867830919</v>
+        <v>-43.71594627051596</v>
       </c>
       <c r="L17" t="n">
-        <v>-74.85920816755115</v>
+        <v>-78.34923923288761</v>
       </c>
       <c r="M17" t="n">
-        <v>15.4501616739177</v>
+        <v>13.91018148157017</v>
       </c>
       <c r="N17" t="n">
-        <v>-104.2704140669437</v>
+        <v>-118.9393879350523</v>
       </c>
     </row>
     <row r="18">
@@ -1214,43 +1214,43 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>8.869028383160659</v>
+        <v>8.738128689261083</v>
       </c>
       <c r="C18" t="n">
-        <v>12.65544261693139</v>
+        <v>11.4595981887266</v>
       </c>
       <c r="D18" t="n">
-        <v>7.803382402921408</v>
+        <v>7.181006432980378</v>
       </c>
       <c r="E18" t="n">
-        <v>35.9742920546352</v>
+        <v>27.64956278225451</v>
       </c>
       <c r="F18" t="n">
-        <v>29.71756185143602</v>
+        <v>26.55747531821106</v>
       </c>
       <c r="G18" t="n">
-        <v>-33.25354221354799</v>
+        <v>-31.66020850096656</v>
       </c>
       <c r="H18" t="n">
-        <v>-65.05772023777777</v>
+        <v>-70.98310383698367</v>
       </c>
       <c r="I18" t="n">
-        <v>15.9903595204882</v>
+        <v>6.969615631606407</v>
       </c>
       <c r="J18" t="n">
-        <v>30.51908569428851</v>
+        <v>28.26108497021511</v>
       </c>
       <c r="K18" t="n">
-        <v>-53.23747474769499</v>
+        <v>-52.34015565161467</v>
       </c>
       <c r="L18" t="n">
-        <v>-64.2561963949253</v>
+        <v>-69.27949418497963</v>
       </c>
       <c r="M18" t="n">
-        <v>2.22486032153456</v>
+        <v>-0.4477646451716297</v>
       </c>
       <c r="N18" t="n">
-        <v>-103.1669763033302</v>
+        <v>-116.9818057327236</v>
       </c>
     </row>
     <row r="19">
@@ -1258,43 +1258,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>9.199722346696426</v>
+        <v>9.068822652796852</v>
       </c>
       <c r="C19" t="n">
-        <v>11.27740132521236</v>
+        <v>9.861188449607457</v>
       </c>
       <c r="D19" t="n">
-        <v>4.454766314630053</v>
+        <v>4.397737989664864</v>
       </c>
       <c r="E19" t="n">
-        <v>35.5000562378781</v>
+        <v>27.10568952294837</v>
       </c>
       <c r="F19" t="n">
-        <v>25.36560056345691</v>
+        <v>22.84196968229831</v>
       </c>
       <c r="G19" t="n">
-        <v>-36.4109505340983</v>
+        <v>-36.06723520117182</v>
       </c>
       <c r="H19" t="n">
-        <v>-62.07903917620474</v>
+        <v>-67.56797748786511</v>
       </c>
       <c r="I19" t="n">
-        <v>15.81252108920429</v>
+        <v>6.805082544757491</v>
       </c>
       <c r="J19" t="n">
-        <v>28.88710021129634</v>
+        <v>27.13706645851041</v>
       </c>
       <c r="K19" t="n">
-        <v>-56.09848568277211</v>
+        <v>-56.3678421793627</v>
       </c>
       <c r="L19" t="n">
-        <v>-58.55753952836531</v>
+        <v>-63.272880711653</v>
       </c>
       <c r="M19" t="n">
-        <v>-6.465825451149636</v>
+        <v>-10.8978968733922</v>
       </c>
       <c r="N19" t="n">
-        <v>-104.673897176646</v>
+        <v>-117.1320938997014</v>
       </c>
     </row>
     <row r="20">
@@ -1302,43 +1302,43 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>9.530416310232194</v>
+        <v>9.399516616332619</v>
       </c>
       <c r="C20" t="n">
-        <v>11.06131997816756</v>
+        <v>9.253110745245055</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8401382065246301</v>
+        <v>1.2462719138322</v>
       </c>
       <c r="E20" t="n">
-        <v>34.79566397833382</v>
+        <v>26.31194193651951</v>
       </c>
       <c r="F20" t="n">
-        <v>22.30361683608912</v>
+        <v>19.86236114835194</v>
       </c>
       <c r="G20" t="n">
-        <v>-35.66566977215976</v>
+        <v>-36.18080599191165</v>
       </c>
       <c r="H20" t="n">
-        <v>-63.71970218151957</v>
+        <v>-68.19755462150795</v>
       </c>
       <c r="I20" t="n">
-        <v>15.54837399187518</v>
+        <v>6.564957224493295</v>
       </c>
       <c r="J20" t="n">
-        <v>27.73885631353342</v>
+        <v>26.2356722801737</v>
       </c>
       <c r="K20" t="n">
-        <v>-54.9129597586184</v>
+        <v>-55.92779070393787</v>
       </c>
       <c r="L20" t="n">
-        <v>-58.28446270407527</v>
+        <v>-61.82424348968619</v>
       </c>
       <c r="M20" t="n">
-        <v>-10.04207477628532</v>
+        <v>-16.27696982803617</v>
       </c>
       <c r="N20" t="n">
-        <v>-109.0458957543158</v>
+        <v>-120.1006810543722</v>
       </c>
     </row>
     <row r="21">
@@ -1346,43 +1346,4443 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>9.861110273767961</v>
+        <v>9.730210579868388</v>
       </c>
       <c r="C21" t="n">
-        <v>12.03061434259685</v>
+        <v>9.701259730204789</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.648800879147685</v>
+        <v>-1.931881545166664</v>
       </c>
       <c r="E21" t="n">
-        <v>34.2022729176887</v>
+        <v>25.53534878581116</v>
       </c>
       <c r="F21" t="n">
-        <v>20.42537420967306</v>
+        <v>17.73647181191756</v>
       </c>
       <c r="G21" t="n">
-        <v>-31.61983847711525</v>
+        <v>-32.47072003175674</v>
       </c>
       <c r="H21" t="n">
-        <v>-68.50145729493659</v>
+        <v>-72.05238358535806</v>
       </c>
       <c r="I21" t="n">
-        <v>15.32585234413326</v>
+        <v>6.330021481421864</v>
       </c>
       <c r="J21" t="n">
-        <v>27.0345153286274</v>
+        <v>25.59254609436162</v>
       </c>
       <c r="K21" t="n">
-        <v>-50.49625905067069</v>
+        <v>-51.67604733614604</v>
       </c>
       <c r="L21" t="n">
-        <v>-61.89231617598225</v>
+        <v>-64.196309302914</v>
       </c>
       <c r="M21" t="n">
-        <v>-8.833502555246493</v>
+        <v>-16.57026598178295</v>
       </c>
       <c r="N21" t="n">
-        <v>-115.3182848205918</v>
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.447025272688801</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.701259730204788</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.931881545166662</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-32.47072003175676</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-72.05238358535804</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J22" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-51.67604733614606</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-64.19630930291399</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-16.57026598178296</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.777719236224569</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.1570715082183</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.792320145917249</v>
+      </c>
+      <c r="E23" t="n">
+        <v>24.93477471535802</v>
+      </c>
+      <c r="F23" t="n">
+        <v>16.36748595754155</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-25.53799940980731</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-77.51612136910649</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.148335208007468</v>
+      </c>
+      <c r="J23" t="n">
+        <v>25.17839911320585</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-44.32443891715786</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-68.70520821344219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-12.33337838262858</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-131.5136695641207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.108413199760336</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13.46278628389064</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-7.025070981750273</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24.58350756153641</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15.64411643784896</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-16.15576840607682</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-83.04553807179916</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.042069514414376</v>
+      </c>
+      <c r="J24" t="n">
+        <v>24.95956463666019</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-34.69720645319886</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-73.73008987298792</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-4.415399442497812</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-137.3802504032666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.439107163296104</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16.36854408442674</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-8.388180854904453</v>
+      </c>
+      <c r="E25" t="n">
+        <v>24.51627503200149</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15.51112834862551</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-5.331848241292139</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-87.55192480501077</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.021730261781963</v>
+      </c>
+      <c r="J25" t="n">
+        <v>24.91933294580268</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-23.82639301151166</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-78.14372020783361</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6.136213220836726</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-141.9447625122414</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.769801126831871</v>
+      </c>
+      <c r="C26" t="n">
+        <v>19.55946096466073</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-8.733935659794598</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24.74824388666533</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.97717584471514</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.739831202094024</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-90.52585402642181</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.091905713613039</v>
+      </c>
+      <c r="J26" t="n">
+        <v>25.06032210428357</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-12.91650697095826</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-81.44270776685337</v>
+      </c>
+      <c r="M26" t="n">
+        <v>18.15790386470075</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-144.7096957035354</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.100495090367639</v>
+      </c>
+      <c r="C27" t="n">
+        <v>22.68975156844244</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-8.024867498372293</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25.26353752912881</v>
+      </c>
+      <c r="F27" t="n">
+        <v>17.09361425965945</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15.83481668305001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-92.01820049972025</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.247792865954933</v>
+      </c>
+      <c r="J27" t="n">
+        <v>25.39806817939277</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-3.180927980123869</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-83.71374657998693</v>
+      </c>
+      <c r="M27" t="n">
+        <v>30.4813156246775</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-145.6426100190539</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.431189053903407</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25.4202003373889</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-6.337814908253783</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25.98519077674523</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18.90586322714154</v>
+      </c>
+      <c r="G28" t="n">
+        <v>23.91542382068737</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-92.47684069402248</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.466108134141415</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25.94631156451341</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.396341178083549</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-85.43639235665063</v>
+      </c>
+      <c r="M28" t="n">
+        <v>42.04459514683843</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-145.0261544342737</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.761883017439175</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27.45492078010687</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.855596214896483</v>
+      </c>
+      <c r="E29" t="n">
+        <v>26.7588481016521</v>
+      </c>
+      <c r="F29" t="n">
+        <v>21.38480756210971</v>
+      </c>
+      <c r="G29" t="n">
+        <v>29.30881731975372</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-92.46484551972567</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6.700155728230888</v>
+      </c>
+      <c r="J29" t="n">
+        <v>26.69624430450378</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9.250124946332502</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-87.15340877733161</v>
+      </c>
+      <c r="M29" t="n">
+        <v>51.95155884910947</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-143.2329800489664</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6.092576980974942</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28.57341936468722</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.8471983293170848</v>
+      </c>
+      <c r="E30" t="n">
+        <v>27.38829075065058</v>
+      </c>
+      <c r="F30" t="n">
+        <v>24.37497386437376</v>
+      </c>
+      <c r="G30" t="n">
+        <v>31.72985101989372</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-92.39805655114469</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.890575353137988</v>
+      </c>
+      <c r="J30" t="n">
+        <v>27.60083242955845</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11.23213562238114</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-89.17219798596</v>
+      </c>
+      <c r="M30" t="n">
+        <v>59.46079705231288</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-140.5757677845704</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.42327094451071</v>
+      </c>
+      <c r="C31" t="n">
+        <v>28.65448941419694</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.361372157479072</v>
+      </c>
+      <c r="E31" t="n">
+        <v>27.71675508625803</v>
+      </c>
+      <c r="F31" t="n">
+        <v>27.59395336373311</v>
+      </c>
+      <c r="G31" t="n">
+        <v>31.15201945593522</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-92.43618857736628</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.989942715170496</v>
+      </c>
+      <c r="J31" t="n">
+        <v>28.57464135373439</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10.42520708484769</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-91.45550058736501</v>
+      </c>
+      <c r="M31" t="n">
+        <v>63.95113646381277</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-137.3173110126157</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6.753964908046478</v>
+      </c>
+      <c r="C32" t="n">
+        <v>27.68934573084024</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.42241684714688</v>
+      </c>
+      <c r="E32" t="n">
+        <v>27.70295497348244</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30.67241317959246</v>
+      </c>
+      <c r="G32" t="n">
+        <v>27.6530993321199</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-92.49998656440459</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.985767891137545</v>
+      </c>
+      <c r="J32" t="n">
+        <v>29.50594012155738</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.935912249775004</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-93.66645962243966</v>
+      </c>
+      <c r="M32" t="n">
+        <v>64.91463148210208</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-133.7513556250811</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7.084658871582246</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25.78257660845605</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.004224050558687</v>
+      </c>
+      <c r="E33" t="n">
+        <v>27.45218503889162</v>
+      </c>
+      <c r="F33" t="n">
+        <v>33.19896373345715</v>
+      </c>
+      <c r="G33" t="n">
+        <v>21.33579771947419</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-92.29756121457852</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.909904717647885</v>
+      </c>
+      <c r="J33" t="n">
+        <v>30.2702747428946</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7935173982304526</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-95.22625020514107</v>
+      </c>
+      <c r="M33" t="n">
+        <v>61.97895669814836</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-130.22157545066</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>13</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7.415352835118012</v>
+      </c>
+      <c r="C34" t="n">
+        <v>23.14081006802608</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.827014896358444</v>
+      </c>
+      <c r="E34" t="n">
+        <v>27.18896083043538</v>
+      </c>
+      <c r="F34" t="n">
+        <v>34.75039699840882</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.35910160180724</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-91.3034789877093</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.830273864669527</v>
+      </c>
+      <c r="J34" t="n">
+        <v>30.7396158986783</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-7.999585363958612</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-95.31426008743982</v>
+      </c>
+      <c r="M34" t="n">
+        <v>54.95066653435794</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-127.0254025661032</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>14</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7.746046798653781</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20.05032250543721</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10.69326171288964</v>
+      </c>
+      <c r="E35" t="n">
+        <v>27.15436389024016</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34.92330702863362</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.129657827100637</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-88.7635323448047</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.819807563433999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>30.79192481538496</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-19.20489849970553</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-92.89491455805336</v>
+      </c>
+      <c r="M35" t="n">
+        <v>43.93220829822495</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-124.2323764295948</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8.076740762189548</v>
+      </c>
+      <c r="C36" t="n">
+        <v>16.84601620195139</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.50909321637684</v>
+      </c>
+      <c r="E36" t="n">
+        <v>27.41683350686776</v>
+      </c>
+      <c r="F36" t="n">
+        <v>33.43986558684183</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-11.30794275866747</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-84.00381957497078</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.899210136531421</v>
+      </c>
+      <c r="J36" t="n">
+        <v>30.34315261450677</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-31.8255661290038</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-87.10053254730583</v>
+      </c>
+      <c r="M36" t="n">
+        <v>29.64423263539317</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-121.5939320786384</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>16</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8.407434725725317</v>
+      </c>
+      <c r="C37" t="n">
+        <v>13.87512746548638</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.294466921085883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>27.71643859312513</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30.41271983812198</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-22.9893546467396</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-77.36389682478573</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.989846969348777</v>
+      </c>
+      <c r="J37" t="n">
+        <v>29.42737743002009</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-43.71594627051596</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-78.34923923288761</v>
+      </c>
+      <c r="M37" t="n">
+        <v>13.91018148157017</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-118.9393879350523</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>17</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8.738128689261083</v>
+      </c>
+      <c r="C38" t="n">
+        <v>11.4595981887266</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7.181006432980378</v>
+      </c>
+      <c r="E38" t="n">
+        <v>27.64956278225451</v>
+      </c>
+      <c r="F38" t="n">
+        <v>26.55747531821106</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-31.66020850096656</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-70.98310383698367</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.969615631606407</v>
+      </c>
+      <c r="J38" t="n">
+        <v>28.26108497021511</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-52.34015565161467</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-69.27949418497963</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.4477646451716297</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-116.9818057327236</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>18</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9.068822652796852</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.861188449607457</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.397737989664864</v>
+      </c>
+      <c r="E39" t="n">
+        <v>27.10568952294837</v>
+      </c>
+      <c r="F39" t="n">
+        <v>22.84196968229831</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-36.06723520117182</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-67.56797748786511</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.805082544757491</v>
+      </c>
+      <c r="J39" t="n">
+        <v>27.13706645851041</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-56.3678421793627</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-63.272880711653</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-10.8978968733922</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-117.1320938997014</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.399516616332619</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.253110745245055</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.2462719138322</v>
+      </c>
+      <c r="E40" t="n">
+        <v>26.31194193651951</v>
+      </c>
+      <c r="F40" t="n">
+        <v>19.86236114835194</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-36.18080599191165</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-68.19755462150795</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.564957224493295</v>
+      </c>
+      <c r="J40" t="n">
+        <v>26.2356722801737</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-55.92779070393787</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-61.82424348968619</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-16.27696982803617</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-120.1006810543722</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9.730210579868388</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.701259730204789</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1.931881545166664</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F41" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-32.47072003175674</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-72.05238358535806</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J41" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-51.67604733614604</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-64.196309302914</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-16.57026598178295</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.447025272688801</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.701259730204788</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-1.931881545166662</v>
+      </c>
+      <c r="E42" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F42" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-32.47072003175676</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-72.05238358535804</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J42" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-51.67604733614606</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-64.19630930291399</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-16.57026598178296</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.777719236224569</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.1570715082183</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-4.792320145917249</v>
+      </c>
+      <c r="E43" t="n">
+        <v>24.93477471535802</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16.36748595754155</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-25.53799940980731</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-77.51612136910649</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.148335208007468</v>
+      </c>
+      <c r="J43" t="n">
+        <v>25.17839911320585</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-44.32443891715786</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-68.70520821344219</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-12.33337838262858</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-131.5136695641207</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.108413199760336</v>
+      </c>
+      <c r="C44" t="n">
+        <v>13.46278628389064</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-7.025070981750273</v>
+      </c>
+      <c r="E44" t="n">
+        <v>24.58350756153641</v>
+      </c>
+      <c r="F44" t="n">
+        <v>15.64411643784896</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-16.15576840607682</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-83.04553807179916</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.042069514414376</v>
+      </c>
+      <c r="J44" t="n">
+        <v>24.95956463666019</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-34.69720645319886</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-73.73008987298792</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-4.415399442497812</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-137.3802504032666</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.439107163296104</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16.36854408442674</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-8.388180854904453</v>
+      </c>
+      <c r="E45" t="n">
+        <v>24.51627503200149</v>
+      </c>
+      <c r="F45" t="n">
+        <v>15.51112834862551</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-5.331848241292139</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-87.55192480501077</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.021730261781963</v>
+      </c>
+      <c r="J45" t="n">
+        <v>24.91933294580268</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-23.82639301151166</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-78.14372020783361</v>
+      </c>
+      <c r="M45" t="n">
+        <v>6.136213220836726</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-141.9447625122414</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.769801126831871</v>
+      </c>
+      <c r="C46" t="n">
+        <v>19.55946096466073</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-8.733935659794598</v>
+      </c>
+      <c r="E46" t="n">
+        <v>24.74824388666533</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15.97717584471514</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.739831202094024</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-90.52585402642181</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.091905713613039</v>
+      </c>
+      <c r="J46" t="n">
+        <v>25.06032210428357</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-12.91650697095826</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-81.44270776685337</v>
+      </c>
+      <c r="M46" t="n">
+        <v>18.15790386470075</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-144.7096957035354</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5.100495090367639</v>
+      </c>
+      <c r="C47" t="n">
+        <v>22.68975156844244</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-8.024867498372293</v>
+      </c>
+      <c r="E47" t="n">
+        <v>25.26353752912881</v>
+      </c>
+      <c r="F47" t="n">
+        <v>17.09361425965945</v>
+      </c>
+      <c r="G47" t="n">
+        <v>15.83481668305001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-92.01820049972025</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.247792865954933</v>
+      </c>
+      <c r="J47" t="n">
+        <v>25.39806817939277</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-3.180927980123869</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-83.71374657998693</v>
+      </c>
+      <c r="M47" t="n">
+        <v>30.4813156246775</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-145.6426100190539</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5.431189053903407</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25.4202003373889</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-6.337814908253783</v>
+      </c>
+      <c r="E48" t="n">
+        <v>25.98519077674523</v>
+      </c>
+      <c r="F48" t="n">
+        <v>18.90586322714154</v>
+      </c>
+      <c r="G48" t="n">
+        <v>23.91542382068737</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-92.47684069402248</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.466108134141415</v>
+      </c>
+      <c r="J48" t="n">
+        <v>25.94631156451341</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.396341178083549</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-85.43639235665063</v>
+      </c>
+      <c r="M48" t="n">
+        <v>42.04459514683843</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-145.0261544342737</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5.761883017439175</v>
+      </c>
+      <c r="C49" t="n">
+        <v>27.45492078010687</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-3.855596214896483</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26.7588481016521</v>
+      </c>
+      <c r="F49" t="n">
+        <v>21.38480756210971</v>
+      </c>
+      <c r="G49" t="n">
+        <v>29.30881731975372</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-92.46484551972567</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6.700155728230888</v>
+      </c>
+      <c r="J49" t="n">
+        <v>26.69624430450378</v>
+      </c>
+      <c r="K49" t="n">
+        <v>9.250124946332502</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-87.15340877733161</v>
+      </c>
+      <c r="M49" t="n">
+        <v>51.95155884910947</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-143.2329800489664</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6.092576980974942</v>
+      </c>
+      <c r="C50" t="n">
+        <v>28.57341936468722</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.8471983293170848</v>
+      </c>
+      <c r="E50" t="n">
+        <v>27.38829075065058</v>
+      </c>
+      <c r="F50" t="n">
+        <v>24.37497386437376</v>
+      </c>
+      <c r="G50" t="n">
+        <v>31.72985101989372</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-92.39805655114469</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.890575353137988</v>
+      </c>
+      <c r="J50" t="n">
+        <v>27.60083242955845</v>
+      </c>
+      <c r="K50" t="n">
+        <v>11.23213562238114</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-89.17219798596</v>
+      </c>
+      <c r="M50" t="n">
+        <v>59.46079705231288</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-140.5757677845704</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6.42327094451071</v>
+      </c>
+      <c r="C51" t="n">
+        <v>28.65448941419694</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.361372157479072</v>
+      </c>
+      <c r="E51" t="n">
+        <v>27.71675508625803</v>
+      </c>
+      <c r="F51" t="n">
+        <v>27.59395336373311</v>
+      </c>
+      <c r="G51" t="n">
+        <v>31.15201945593522</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-92.43618857736628</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.989942715170496</v>
+      </c>
+      <c r="J51" t="n">
+        <v>28.57464135373439</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10.42520708484769</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-91.45550058736501</v>
+      </c>
+      <c r="M51" t="n">
+        <v>63.95113646381277</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-137.3173110126157</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.753964908046478</v>
+      </c>
+      <c r="C52" t="n">
+        <v>27.68934573084024</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.42241684714688</v>
+      </c>
+      <c r="E52" t="n">
+        <v>27.70295497348244</v>
+      </c>
+      <c r="F52" t="n">
+        <v>30.67241317959246</v>
+      </c>
+      <c r="G52" t="n">
+        <v>27.6530993321199</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-92.49998656440459</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6.985767891137545</v>
+      </c>
+      <c r="J52" t="n">
+        <v>29.50594012155738</v>
+      </c>
+      <c r="K52" t="n">
+        <v>6.935912249775004</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-93.66645962243966</v>
+      </c>
+      <c r="M52" t="n">
+        <v>64.91463148210208</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-133.7513556250811</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>12</v>
+      </c>
+      <c r="B53" t="n">
+        <v>7.084658871582246</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25.78257660845605</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8.004224050558687</v>
+      </c>
+      <c r="E53" t="n">
+        <v>27.45218503889162</v>
+      </c>
+      <c r="F53" t="n">
+        <v>33.19896373345715</v>
+      </c>
+      <c r="G53" t="n">
+        <v>21.33579771947419</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-92.29756121457852</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6.909904717647885</v>
+      </c>
+      <c r="J53" t="n">
+        <v>30.2702747428946</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.7935173982304526</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-95.22625020514107</v>
+      </c>
+      <c r="M53" t="n">
+        <v>61.97895669814836</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-130.22157545066</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>13</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7.415352835118012</v>
+      </c>
+      <c r="C54" t="n">
+        <v>23.14081006802608</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9.827014896358444</v>
+      </c>
+      <c r="E54" t="n">
+        <v>27.18896083043538</v>
+      </c>
+      <c r="F54" t="n">
+        <v>34.75039699840882</v>
+      </c>
+      <c r="G54" t="n">
+        <v>12.35910160180724</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-91.3034789877093</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6.830273864669527</v>
+      </c>
+      <c r="J54" t="n">
+        <v>30.7396158986783</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-7.999585363958612</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-95.31426008743982</v>
+      </c>
+      <c r="M54" t="n">
+        <v>54.95066653435794</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-127.0254025661032</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>14</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7.746046798653781</v>
+      </c>
+      <c r="C55" t="n">
+        <v>20.05032250543721</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10.69326171288964</v>
+      </c>
+      <c r="E55" t="n">
+        <v>27.15436389024016</v>
+      </c>
+      <c r="F55" t="n">
+        <v>34.92330702863362</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.129657827100637</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-88.7635323448047</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.819807563433999</v>
+      </c>
+      <c r="J55" t="n">
+        <v>30.79192481538496</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-19.20489849970553</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-92.89491455805336</v>
+      </c>
+      <c r="M55" t="n">
+        <v>43.93220829822495</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-124.2323764295948</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>15</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8.076740762189548</v>
+      </c>
+      <c r="C56" t="n">
+        <v>16.84601620195139</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10.50909321637684</v>
+      </c>
+      <c r="E56" t="n">
+        <v>27.41683350686776</v>
+      </c>
+      <c r="F56" t="n">
+        <v>33.43986558684183</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-11.30794275866747</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-84.00381957497078</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6.899210136531421</v>
+      </c>
+      <c r="J56" t="n">
+        <v>30.34315261450677</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-31.8255661290038</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-87.10053254730583</v>
+      </c>
+      <c r="M56" t="n">
+        <v>29.64423263539317</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-121.5939320786384</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>16</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8.407434725725317</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13.87512746548638</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9.294466921085883</v>
+      </c>
+      <c r="E57" t="n">
+        <v>27.71643859312513</v>
+      </c>
+      <c r="F57" t="n">
+        <v>30.41271983812198</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-22.9893546467396</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-77.36389682478573</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6.989846969348777</v>
+      </c>
+      <c r="J57" t="n">
+        <v>29.42737743002009</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-43.71594627051596</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-78.34923923288761</v>
+      </c>
+      <c r="M57" t="n">
+        <v>13.91018148157017</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-118.9393879350523</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>17</v>
+      </c>
+      <c r="B58" t="n">
+        <v>8.738128689261083</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.4595981887266</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.181006432980378</v>
+      </c>
+      <c r="E58" t="n">
+        <v>27.64956278225451</v>
+      </c>
+      <c r="F58" t="n">
+        <v>26.55747531821106</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-31.66020850096656</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-70.98310383698367</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.969615631606407</v>
+      </c>
+      <c r="J58" t="n">
+        <v>28.26108497021511</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-52.34015565161467</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-69.27949418497963</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.4477646451716297</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-116.9818057327236</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>18</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9.068822652796852</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9.861188449607457</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.397737989664864</v>
+      </c>
+      <c r="E59" t="n">
+        <v>27.10568952294837</v>
+      </c>
+      <c r="F59" t="n">
+        <v>22.84196968229831</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-36.06723520117182</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-67.56797748786511</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6.805082544757491</v>
+      </c>
+      <c r="J59" t="n">
+        <v>27.13706645851041</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-56.3678421793627</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-63.272880711653</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-10.8978968733922</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-117.1320938997014</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>19</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9.399516616332619</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9.253110745245055</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.2462719138322</v>
+      </c>
+      <c r="E60" t="n">
+        <v>26.31194193651951</v>
+      </c>
+      <c r="F60" t="n">
+        <v>19.86236114835194</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-36.18080599191165</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-68.19755462150795</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6.564957224493295</v>
+      </c>
+      <c r="J60" t="n">
+        <v>26.2356722801737</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-55.92779070393787</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-61.82424348968619</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-16.27696982803617</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-120.1006810543722</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9.730210579868388</v>
+      </c>
+      <c r="C61" t="n">
+        <v>9.701259730204789</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-1.931881545166664</v>
+      </c>
+      <c r="E61" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F61" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-32.47072003175674</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-72.05238358535806</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J61" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-51.67604733614604</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-64.196309302914</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-16.57026598178295</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.447025272688801</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9.701259730204788</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.931881545166662</v>
+      </c>
+      <c r="E62" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F62" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-32.47072003175676</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-72.05238358535804</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J62" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-51.67604733614606</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-64.19630930291399</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-16.57026598178296</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.777719236224569</v>
+      </c>
+      <c r="C63" t="n">
+        <v>11.1570715082183</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-4.792320145917249</v>
+      </c>
+      <c r="E63" t="n">
+        <v>24.93477471535802</v>
+      </c>
+      <c r="F63" t="n">
+        <v>16.36748595754155</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-25.53799940980731</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-77.51612136910649</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6.148335208007468</v>
+      </c>
+      <c r="J63" t="n">
+        <v>25.17839911320585</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-44.32443891715786</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-68.70520821344219</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-12.33337838262858</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-131.5136695641207</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4.108413199760336</v>
+      </c>
+      <c r="C64" t="n">
+        <v>13.46278628389064</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-7.025070981750273</v>
+      </c>
+      <c r="E64" t="n">
+        <v>24.58350756153641</v>
+      </c>
+      <c r="F64" t="n">
+        <v>15.64411643784896</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-16.15576840607682</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-83.04553807179916</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6.042069514414376</v>
+      </c>
+      <c r="J64" t="n">
+        <v>24.95956463666019</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-34.69720645319886</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-73.73008987298792</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-4.415399442497812</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-137.3802504032666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.439107163296104</v>
+      </c>
+      <c r="C65" t="n">
+        <v>16.36854408442674</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-8.388180854904453</v>
+      </c>
+      <c r="E65" t="n">
+        <v>24.51627503200149</v>
+      </c>
+      <c r="F65" t="n">
+        <v>15.51112834862551</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-5.331848241292139</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-87.55192480501077</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6.021730261781963</v>
+      </c>
+      <c r="J65" t="n">
+        <v>24.91933294580268</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-23.82639301151166</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-78.14372020783361</v>
+      </c>
+      <c r="M65" t="n">
+        <v>6.136213220836726</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-141.9447625122414</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.769801126831871</v>
+      </c>
+      <c r="C66" t="n">
+        <v>19.55946096466073</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-8.733935659794598</v>
+      </c>
+      <c r="E66" t="n">
+        <v>24.74824388666533</v>
+      </c>
+      <c r="F66" t="n">
+        <v>15.97717584471514</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.739831202094024</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-90.52585402642181</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.091905713613039</v>
+      </c>
+      <c r="J66" t="n">
+        <v>25.06032210428357</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-12.91650697095826</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-81.44270776685337</v>
+      </c>
+      <c r="M66" t="n">
+        <v>18.15790386470075</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-144.7096957035354</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5.100495090367639</v>
+      </c>
+      <c r="C67" t="n">
+        <v>22.68975156844244</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-8.024867498372293</v>
+      </c>
+      <c r="E67" t="n">
+        <v>25.26353752912881</v>
+      </c>
+      <c r="F67" t="n">
+        <v>17.09361425965945</v>
+      </c>
+      <c r="G67" t="n">
+        <v>15.83481668305001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-92.01820049972025</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6.247792865954933</v>
+      </c>
+      <c r="J67" t="n">
+        <v>25.39806817939277</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-3.180927980123869</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-83.71374657998693</v>
+      </c>
+      <c r="M67" t="n">
+        <v>30.4813156246775</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-145.6426100190539</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5.431189053903407</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25.4202003373889</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-6.337814908253783</v>
+      </c>
+      <c r="E68" t="n">
+        <v>25.98519077674523</v>
+      </c>
+      <c r="F68" t="n">
+        <v>18.90586322714154</v>
+      </c>
+      <c r="G68" t="n">
+        <v>23.91542382068737</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-92.47684069402248</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6.466108134141415</v>
+      </c>
+      <c r="J68" t="n">
+        <v>25.94631156451341</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4.396341178083549</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-85.43639235665063</v>
+      </c>
+      <c r="M68" t="n">
+        <v>42.04459514683843</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-145.0261544342737</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>8</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5.761883017439175</v>
+      </c>
+      <c r="C69" t="n">
+        <v>27.45492078010687</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-3.855596214896483</v>
+      </c>
+      <c r="E69" t="n">
+        <v>26.7588481016521</v>
+      </c>
+      <c r="F69" t="n">
+        <v>21.38480756210971</v>
+      </c>
+      <c r="G69" t="n">
+        <v>29.30881731975372</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-92.46484551972567</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6.700155728230888</v>
+      </c>
+      <c r="J69" t="n">
+        <v>26.69624430450378</v>
+      </c>
+      <c r="K69" t="n">
+        <v>9.250124946332502</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-87.15340877733161</v>
+      </c>
+      <c r="M69" t="n">
+        <v>51.95155884910947</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-143.2329800489664</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>9</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6.092576980974942</v>
+      </c>
+      <c r="C70" t="n">
+        <v>28.57341936468722</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.8471983293170848</v>
+      </c>
+      <c r="E70" t="n">
+        <v>27.38829075065058</v>
+      </c>
+      <c r="F70" t="n">
+        <v>24.37497386437376</v>
+      </c>
+      <c r="G70" t="n">
+        <v>31.72985101989372</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-92.39805655114469</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6.890575353137988</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27.60083242955845</v>
+      </c>
+      <c r="K70" t="n">
+        <v>11.23213562238114</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-89.17219798596</v>
+      </c>
+      <c r="M70" t="n">
+        <v>59.46079705231288</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-140.5757677845704</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6.42327094451071</v>
+      </c>
+      <c r="C71" t="n">
+        <v>28.65448941419694</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.361372157479072</v>
+      </c>
+      <c r="E71" t="n">
+        <v>27.71675508625803</v>
+      </c>
+      <c r="F71" t="n">
+        <v>27.59395336373311</v>
+      </c>
+      <c r="G71" t="n">
+        <v>31.15201945593522</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-92.43618857736628</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6.989942715170496</v>
+      </c>
+      <c r="J71" t="n">
+        <v>28.57464135373439</v>
+      </c>
+      <c r="K71" t="n">
+        <v>10.42520708484769</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-91.45550058736501</v>
+      </c>
+      <c r="M71" t="n">
+        <v>63.95113646381277</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-137.3173110126157</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6.753964908046478</v>
+      </c>
+      <c r="C72" t="n">
+        <v>27.68934573084024</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5.42241684714688</v>
+      </c>
+      <c r="E72" t="n">
+        <v>27.70295497348244</v>
+      </c>
+      <c r="F72" t="n">
+        <v>30.67241317959246</v>
+      </c>
+      <c r="G72" t="n">
+        <v>27.6530993321199</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-92.49998656440459</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6.985767891137545</v>
+      </c>
+      <c r="J72" t="n">
+        <v>29.50594012155738</v>
+      </c>
+      <c r="K72" t="n">
+        <v>6.935912249775004</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-93.66645962243966</v>
+      </c>
+      <c r="M72" t="n">
+        <v>64.91463148210208</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-133.7513556250811</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7.084658871582246</v>
+      </c>
+      <c r="C73" t="n">
+        <v>25.78257660845605</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.004224050558687</v>
+      </c>
+      <c r="E73" t="n">
+        <v>27.45218503889162</v>
+      </c>
+      <c r="F73" t="n">
+        <v>33.19896373345715</v>
+      </c>
+      <c r="G73" t="n">
+        <v>21.33579771947419</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-92.29756121457852</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6.909904717647885</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30.2702747428946</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.7935173982304526</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-95.22625020514107</v>
+      </c>
+      <c r="M73" t="n">
+        <v>61.97895669814836</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-130.22157545066</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>13</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7.415352835118012</v>
+      </c>
+      <c r="C74" t="n">
+        <v>23.14081006802608</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9.827014896358444</v>
+      </c>
+      <c r="E74" t="n">
+        <v>27.18896083043538</v>
+      </c>
+      <c r="F74" t="n">
+        <v>34.75039699840882</v>
+      </c>
+      <c r="G74" t="n">
+        <v>12.35910160180724</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-91.3034789877093</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.830273864669527</v>
+      </c>
+      <c r="J74" t="n">
+        <v>30.7396158986783</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-7.999585363958612</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-95.31426008743982</v>
+      </c>
+      <c r="M74" t="n">
+        <v>54.95066653435794</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-127.0254025661032</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>14</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.746046798653781</v>
+      </c>
+      <c r="C75" t="n">
+        <v>20.05032250543721</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10.69326171288964</v>
+      </c>
+      <c r="E75" t="n">
+        <v>27.15436389024016</v>
+      </c>
+      <c r="F75" t="n">
+        <v>34.92330702863362</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.129657827100637</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-88.7635323448047</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6.819807563433999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>30.79192481538496</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-19.20489849970553</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-92.89491455805336</v>
+      </c>
+      <c r="M75" t="n">
+        <v>43.93220829822495</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-124.2323764295948</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>15</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8.076740762189548</v>
+      </c>
+      <c r="C76" t="n">
+        <v>16.84601620195139</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10.50909321637684</v>
+      </c>
+      <c r="E76" t="n">
+        <v>27.41683350686776</v>
+      </c>
+      <c r="F76" t="n">
+        <v>33.43986558684183</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-11.30794275866747</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-84.00381957497078</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6.899210136531421</v>
+      </c>
+      <c r="J76" t="n">
+        <v>30.34315261450677</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-31.8255661290038</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-87.10053254730583</v>
+      </c>
+      <c r="M76" t="n">
+        <v>29.64423263539317</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-121.5939320786384</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>16</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8.407434725725317</v>
+      </c>
+      <c r="C77" t="n">
+        <v>13.87512746548638</v>
+      </c>
+      <c r="D77" t="n">
+        <v>9.294466921085883</v>
+      </c>
+      <c r="E77" t="n">
+        <v>27.71643859312513</v>
+      </c>
+      <c r="F77" t="n">
+        <v>30.41271983812198</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-22.9893546467396</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-77.36389682478573</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6.989846969348777</v>
+      </c>
+      <c r="J77" t="n">
+        <v>29.42737743002009</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-43.71594627051596</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-78.34923923288761</v>
+      </c>
+      <c r="M77" t="n">
+        <v>13.91018148157017</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-118.9393879350523</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>17</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8.738128689261083</v>
+      </c>
+      <c r="C78" t="n">
+        <v>11.4595981887266</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.181006432980378</v>
+      </c>
+      <c r="E78" t="n">
+        <v>27.64956278225451</v>
+      </c>
+      <c r="F78" t="n">
+        <v>26.55747531821106</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-31.66020850096656</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-70.98310383698367</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6.969615631606407</v>
+      </c>
+      <c r="J78" t="n">
+        <v>28.26108497021511</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-52.34015565161467</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-69.27949418497963</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.4477646451716297</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-116.9818057327236</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>18</v>
+      </c>
+      <c r="B79" t="n">
+        <v>9.068822652796852</v>
+      </c>
+      <c r="C79" t="n">
+        <v>9.861188449607457</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.397737989664864</v>
+      </c>
+      <c r="E79" t="n">
+        <v>27.10568952294837</v>
+      </c>
+      <c r="F79" t="n">
+        <v>22.84196968229831</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-36.06723520117182</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-67.56797748786511</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.805082544757491</v>
+      </c>
+      <c r="J79" t="n">
+        <v>27.13706645851041</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-56.3678421793627</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-63.272880711653</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-10.8978968733922</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-117.1320938997014</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>19</v>
+      </c>
+      <c r="B80" t="n">
+        <v>9.399516616332619</v>
+      </c>
+      <c r="C80" t="n">
+        <v>9.253110745245055</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.2462719138322</v>
+      </c>
+      <c r="E80" t="n">
+        <v>26.31194193651951</v>
+      </c>
+      <c r="F80" t="n">
+        <v>19.86236114835194</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-36.18080599191165</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-68.19755462150795</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6.564957224493295</v>
+      </c>
+      <c r="J80" t="n">
+        <v>26.2356722801737</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-55.92779070393787</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-61.82424348968619</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-16.27696982803617</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-120.1006810543722</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20</v>
+      </c>
+      <c r="B81" t="n">
+        <v>9.730210579868388</v>
+      </c>
+      <c r="C81" t="n">
+        <v>9.701259730204789</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-1.931881545166664</v>
+      </c>
+      <c r="E81" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F81" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-32.47072003175674</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-72.05238358535806</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J81" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-51.67604733614604</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-64.196309302914</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-16.57026598178295</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.447025272688801</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9.701259730204788</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-1.931881545166662</v>
+      </c>
+      <c r="E82" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-32.47072003175676</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-72.05238358535804</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J82" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-51.67604733614606</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-64.19630930291399</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-16.57026598178296</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3.777719236224569</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.1570715082183</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-4.792320145917249</v>
+      </c>
+      <c r="E83" t="n">
+        <v>24.93477471535802</v>
+      </c>
+      <c r="F83" t="n">
+        <v>16.36748595754155</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-25.53799940980731</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-77.51612136910649</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6.148335208007468</v>
+      </c>
+      <c r="J83" t="n">
+        <v>25.17839911320585</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-44.32443891715786</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-68.70520821344219</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-12.33337838262858</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-131.5136695641207</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.108413199760336</v>
+      </c>
+      <c r="C84" t="n">
+        <v>13.46278628389064</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-7.025070981750273</v>
+      </c>
+      <c r="E84" t="n">
+        <v>24.58350756153641</v>
+      </c>
+      <c r="F84" t="n">
+        <v>15.64411643784896</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-16.15576840607682</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-83.04553807179916</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6.042069514414376</v>
+      </c>
+      <c r="J84" t="n">
+        <v>24.95956463666019</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-34.69720645319886</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-73.73008987298792</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-4.415399442497812</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-137.3802504032666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>4</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.439107163296104</v>
+      </c>
+      <c r="C85" t="n">
+        <v>16.36854408442674</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-8.388180854904453</v>
+      </c>
+      <c r="E85" t="n">
+        <v>24.51627503200149</v>
+      </c>
+      <c r="F85" t="n">
+        <v>15.51112834862551</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-5.331848241292139</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-87.55192480501077</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6.021730261781963</v>
+      </c>
+      <c r="J85" t="n">
+        <v>24.91933294580268</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-23.82639301151166</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-78.14372020783361</v>
+      </c>
+      <c r="M85" t="n">
+        <v>6.136213220836726</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-141.9447625122414</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.769801126831871</v>
+      </c>
+      <c r="C86" t="n">
+        <v>19.55946096466073</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-8.733935659794598</v>
+      </c>
+      <c r="E86" t="n">
+        <v>24.74824388666533</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15.97717584471514</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.739831202094024</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-90.52585402642181</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6.091905713613039</v>
+      </c>
+      <c r="J86" t="n">
+        <v>25.06032210428357</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-12.91650697095826</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-81.44270776685337</v>
+      </c>
+      <c r="M86" t="n">
+        <v>18.15790386470075</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-144.7096957035354</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5.100495090367639</v>
+      </c>
+      <c r="C87" t="n">
+        <v>22.68975156844244</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-8.024867498372293</v>
+      </c>
+      <c r="E87" t="n">
+        <v>25.26353752912881</v>
+      </c>
+      <c r="F87" t="n">
+        <v>17.09361425965945</v>
+      </c>
+      <c r="G87" t="n">
+        <v>15.83481668305001</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-92.01820049972025</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6.247792865954933</v>
+      </c>
+      <c r="J87" t="n">
+        <v>25.39806817939277</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-3.180927980123869</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-83.71374657998693</v>
+      </c>
+      <c r="M87" t="n">
+        <v>30.4813156246775</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-145.6426100190539</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5.431189053903407</v>
+      </c>
+      <c r="C88" t="n">
+        <v>25.4202003373889</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-6.337814908253783</v>
+      </c>
+      <c r="E88" t="n">
+        <v>25.98519077674523</v>
+      </c>
+      <c r="F88" t="n">
+        <v>18.90586322714154</v>
+      </c>
+      <c r="G88" t="n">
+        <v>23.91542382068737</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-92.47684069402248</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6.466108134141415</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25.94631156451341</v>
+      </c>
+      <c r="K88" t="n">
+        <v>4.396341178083549</v>
+      </c>
+      <c r="L88" t="n">
+        <v>-85.43639235665063</v>
+      </c>
+      <c r="M88" t="n">
+        <v>42.04459514683843</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-145.0261544342737</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>8</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5.761883017439175</v>
+      </c>
+      <c r="C89" t="n">
+        <v>27.45492078010687</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.855596214896483</v>
+      </c>
+      <c r="E89" t="n">
+        <v>26.7588481016521</v>
+      </c>
+      <c r="F89" t="n">
+        <v>21.38480756210971</v>
+      </c>
+      <c r="G89" t="n">
+        <v>29.30881731975372</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-92.46484551972567</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.700155728230888</v>
+      </c>
+      <c r="J89" t="n">
+        <v>26.69624430450378</v>
+      </c>
+      <c r="K89" t="n">
+        <v>9.250124946332502</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-87.15340877733161</v>
+      </c>
+      <c r="M89" t="n">
+        <v>51.95155884910947</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-143.2329800489664</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>9</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6.092576980974942</v>
+      </c>
+      <c r="C90" t="n">
+        <v>28.57341936468722</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.8471983293170848</v>
+      </c>
+      <c r="E90" t="n">
+        <v>27.38829075065058</v>
+      </c>
+      <c r="F90" t="n">
+        <v>24.37497386437376</v>
+      </c>
+      <c r="G90" t="n">
+        <v>31.72985101989372</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-92.39805655114469</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6.890575353137988</v>
+      </c>
+      <c r="J90" t="n">
+        <v>27.60083242955845</v>
+      </c>
+      <c r="K90" t="n">
+        <v>11.23213562238114</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-89.17219798596</v>
+      </c>
+      <c r="M90" t="n">
+        <v>59.46079705231288</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-140.5757677845704</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.42327094451071</v>
+      </c>
+      <c r="C91" t="n">
+        <v>28.65448941419694</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.361372157479072</v>
+      </c>
+      <c r="E91" t="n">
+        <v>27.71675508625803</v>
+      </c>
+      <c r="F91" t="n">
+        <v>27.59395336373311</v>
+      </c>
+      <c r="G91" t="n">
+        <v>31.15201945593522</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-92.43618857736628</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.989942715170496</v>
+      </c>
+      <c r="J91" t="n">
+        <v>28.57464135373439</v>
+      </c>
+      <c r="K91" t="n">
+        <v>10.42520708484769</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-91.45550058736501</v>
+      </c>
+      <c r="M91" t="n">
+        <v>63.95113646381277</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-137.3173110126157</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>11</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6.753964908046478</v>
+      </c>
+      <c r="C92" t="n">
+        <v>27.68934573084024</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.42241684714688</v>
+      </c>
+      <c r="E92" t="n">
+        <v>27.70295497348244</v>
+      </c>
+      <c r="F92" t="n">
+        <v>30.67241317959246</v>
+      </c>
+      <c r="G92" t="n">
+        <v>27.6530993321199</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-92.49998656440459</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6.985767891137545</v>
+      </c>
+      <c r="J92" t="n">
+        <v>29.50594012155738</v>
+      </c>
+      <c r="K92" t="n">
+        <v>6.935912249775004</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-93.66645962243966</v>
+      </c>
+      <c r="M92" t="n">
+        <v>64.91463148210208</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-133.7513556250811</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>12</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.084658871582246</v>
+      </c>
+      <c r="C93" t="n">
+        <v>25.78257660845605</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8.004224050558687</v>
+      </c>
+      <c r="E93" t="n">
+        <v>27.45218503889162</v>
+      </c>
+      <c r="F93" t="n">
+        <v>33.19896373345715</v>
+      </c>
+      <c r="G93" t="n">
+        <v>21.33579771947419</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-92.29756121457852</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6.909904717647885</v>
+      </c>
+      <c r="J93" t="n">
+        <v>30.2702747428946</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.7935173982304526</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-95.22625020514107</v>
+      </c>
+      <c r="M93" t="n">
+        <v>61.97895669814836</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-130.22157545066</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>13</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.415352835118012</v>
+      </c>
+      <c r="C94" t="n">
+        <v>23.14081006802608</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9.827014896358444</v>
+      </c>
+      <c r="E94" t="n">
+        <v>27.18896083043538</v>
+      </c>
+      <c r="F94" t="n">
+        <v>34.75039699840882</v>
+      </c>
+      <c r="G94" t="n">
+        <v>12.35910160180724</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-91.3034789877093</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.830273864669527</v>
+      </c>
+      <c r="J94" t="n">
+        <v>30.7396158986783</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-7.999585363958612</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-95.31426008743982</v>
+      </c>
+      <c r="M94" t="n">
+        <v>54.95066653435794</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-127.0254025661032</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>14</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7.746046798653781</v>
+      </c>
+      <c r="C95" t="n">
+        <v>20.05032250543721</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10.69326171288964</v>
+      </c>
+      <c r="E95" t="n">
+        <v>27.15436389024016</v>
+      </c>
+      <c r="F95" t="n">
+        <v>34.92330702863362</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.129657827100637</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-88.7635323448047</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.819807563433999</v>
+      </c>
+      <c r="J95" t="n">
+        <v>30.79192481538496</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-19.20489849970553</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-92.89491455805336</v>
+      </c>
+      <c r="M95" t="n">
+        <v>43.93220829822495</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-124.2323764295948</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>15</v>
+      </c>
+      <c r="B96" t="n">
+        <v>8.076740762189548</v>
+      </c>
+      <c r="C96" t="n">
+        <v>16.84601620195139</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10.50909321637684</v>
+      </c>
+      <c r="E96" t="n">
+        <v>27.41683350686776</v>
+      </c>
+      <c r="F96" t="n">
+        <v>33.43986558684183</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-11.30794275866747</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-84.00381957497078</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6.899210136531421</v>
+      </c>
+      <c r="J96" t="n">
+        <v>30.34315261450677</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-31.8255661290038</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-87.10053254730583</v>
+      </c>
+      <c r="M96" t="n">
+        <v>29.64423263539317</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-121.5939320786384</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>16</v>
+      </c>
+      <c r="B97" t="n">
+        <v>8.407434725725317</v>
+      </c>
+      <c r="C97" t="n">
+        <v>13.87512746548638</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9.294466921085883</v>
+      </c>
+      <c r="E97" t="n">
+        <v>27.71643859312513</v>
+      </c>
+      <c r="F97" t="n">
+        <v>30.41271983812198</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-22.9893546467396</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-77.36389682478573</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6.989846969348777</v>
+      </c>
+      <c r="J97" t="n">
+        <v>29.42737743002009</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-43.71594627051596</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-78.34923923288761</v>
+      </c>
+      <c r="M97" t="n">
+        <v>13.91018148157017</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-118.9393879350523</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>17</v>
+      </c>
+      <c r="B98" t="n">
+        <v>8.738128689261083</v>
+      </c>
+      <c r="C98" t="n">
+        <v>11.4595981887266</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.181006432980378</v>
+      </c>
+      <c r="E98" t="n">
+        <v>27.64956278225451</v>
+      </c>
+      <c r="F98" t="n">
+        <v>26.55747531821106</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-31.66020850096656</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-70.98310383698367</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6.969615631606407</v>
+      </c>
+      <c r="J98" t="n">
+        <v>28.26108497021511</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-52.34015565161467</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-69.27949418497963</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.4477646451716297</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-116.9818057327236</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>18</v>
+      </c>
+      <c r="B99" t="n">
+        <v>9.068822652796852</v>
+      </c>
+      <c r="C99" t="n">
+        <v>9.861188449607457</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4.397737989664864</v>
+      </c>
+      <c r="E99" t="n">
+        <v>27.10568952294837</v>
+      </c>
+      <c r="F99" t="n">
+        <v>22.84196968229831</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-36.06723520117182</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-67.56797748786511</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6.805082544757491</v>
+      </c>
+      <c r="J99" t="n">
+        <v>27.13706645851041</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-56.3678421793627</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-63.272880711653</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-10.8978968733922</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-117.1320938997014</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>19</v>
+      </c>
+      <c r="B100" t="n">
+        <v>9.399516616332619</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9.253110745245055</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.2462719138322</v>
+      </c>
+      <c r="E100" t="n">
+        <v>26.31194193651951</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19.86236114835194</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-36.18080599191165</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-68.19755462150795</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6.564957224493295</v>
+      </c>
+      <c r="J100" t="n">
+        <v>26.2356722801737</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-55.92779070393787</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-61.82424348968619</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-16.27696982803617</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-120.1006810543722</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20</v>
+      </c>
+      <c r="B101" t="n">
+        <v>9.730210579868388</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9.701259730204789</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-1.931881545166664</v>
+      </c>
+      <c r="E101" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F101" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-32.47072003175674</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-72.05238358535806</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J101" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-51.67604733614604</v>
+      </c>
+      <c r="L101" t="n">
+        <v>-64.196309302914</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-16.57026598178295</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.447025272688801</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9.701259730204788</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-1.931881545166662</v>
+      </c>
+      <c r="E102" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-32.47072003175676</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-72.05238358535804</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J102" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-51.67604733614606</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-64.19630930291399</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-16.57026598178296</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3.777719236224569</v>
+      </c>
+      <c r="C103" t="n">
+        <v>11.1570715082183</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-4.792320145917249</v>
+      </c>
+      <c r="E103" t="n">
+        <v>24.93477471535802</v>
+      </c>
+      <c r="F103" t="n">
+        <v>16.36748595754155</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-25.53799940980731</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-77.51612136910649</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.148335208007468</v>
+      </c>
+      <c r="J103" t="n">
+        <v>25.17839911320585</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-44.32443891715786</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-68.70520821344219</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-12.33337838262858</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-131.5136695641207</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.108413199760336</v>
+      </c>
+      <c r="C104" t="n">
+        <v>13.46278628389064</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-7.025070981750273</v>
+      </c>
+      <c r="E104" t="n">
+        <v>24.58350756153641</v>
+      </c>
+      <c r="F104" t="n">
+        <v>15.64411643784896</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-16.15576840607682</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-83.04553807179916</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.042069514414376</v>
+      </c>
+      <c r="J104" t="n">
+        <v>24.95956463666019</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-34.69720645319886</v>
+      </c>
+      <c r="L104" t="n">
+        <v>-73.73008987298792</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-4.415399442497812</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-137.3802504032666</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.439107163296104</v>
+      </c>
+      <c r="C105" t="n">
+        <v>16.36854408442674</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-8.388180854904453</v>
+      </c>
+      <c r="E105" t="n">
+        <v>24.51627503200149</v>
+      </c>
+      <c r="F105" t="n">
+        <v>15.51112834862551</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-5.331848241292139</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-87.55192480501077</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6.021730261781963</v>
+      </c>
+      <c r="J105" t="n">
+        <v>24.91933294580268</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-23.82639301151166</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-78.14372020783361</v>
+      </c>
+      <c r="M105" t="n">
+        <v>6.136213220836726</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-141.9447625122414</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.769801126831871</v>
+      </c>
+      <c r="C106" t="n">
+        <v>19.55946096466073</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-8.733935659794598</v>
+      </c>
+      <c r="E106" t="n">
+        <v>24.74824388666533</v>
+      </c>
+      <c r="F106" t="n">
+        <v>15.97717584471514</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.739831202094024</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-90.52585402642181</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6.091905713613039</v>
+      </c>
+      <c r="J106" t="n">
+        <v>25.06032210428357</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-12.91650697095826</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-81.44270776685337</v>
+      </c>
+      <c r="M106" t="n">
+        <v>18.15790386470075</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-144.7096957035354</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>6</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5.100495090367639</v>
+      </c>
+      <c r="C107" t="n">
+        <v>22.68975156844244</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-8.024867498372293</v>
+      </c>
+      <c r="E107" t="n">
+        <v>25.26353752912881</v>
+      </c>
+      <c r="F107" t="n">
+        <v>17.09361425965945</v>
+      </c>
+      <c r="G107" t="n">
+        <v>15.83481668305001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-92.01820049972025</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6.247792865954933</v>
+      </c>
+      <c r="J107" t="n">
+        <v>25.39806817939277</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-3.180927980123869</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-83.71374657998693</v>
+      </c>
+      <c r="M107" t="n">
+        <v>30.4813156246775</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-145.6426100190539</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>7</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5.431189053903407</v>
+      </c>
+      <c r="C108" t="n">
+        <v>25.4202003373889</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-6.337814908253783</v>
+      </c>
+      <c r="E108" t="n">
+        <v>25.98519077674523</v>
+      </c>
+      <c r="F108" t="n">
+        <v>18.90586322714154</v>
+      </c>
+      <c r="G108" t="n">
+        <v>23.91542382068737</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-92.47684069402248</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6.466108134141415</v>
+      </c>
+      <c r="J108" t="n">
+        <v>25.94631156451341</v>
+      </c>
+      <c r="K108" t="n">
+        <v>4.396341178083549</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-85.43639235665063</v>
+      </c>
+      <c r="M108" t="n">
+        <v>42.04459514683843</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-145.0261544342737</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>8</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5.761883017439175</v>
+      </c>
+      <c r="C109" t="n">
+        <v>27.45492078010687</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-3.855596214896483</v>
+      </c>
+      <c r="E109" t="n">
+        <v>26.7588481016521</v>
+      </c>
+      <c r="F109" t="n">
+        <v>21.38480756210971</v>
+      </c>
+      <c r="G109" t="n">
+        <v>29.30881731975372</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-92.46484551972567</v>
+      </c>
+      <c r="I109" t="n">
+        <v>6.700155728230888</v>
+      </c>
+      <c r="J109" t="n">
+        <v>26.69624430450378</v>
+      </c>
+      <c r="K109" t="n">
+        <v>9.250124946332502</v>
+      </c>
+      <c r="L109" t="n">
+        <v>-87.15340877733161</v>
+      </c>
+      <c r="M109" t="n">
+        <v>51.95155884910947</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-143.2329800489664</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.092576980974942</v>
+      </c>
+      <c r="C110" t="n">
+        <v>28.57341936468722</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.8471983293170848</v>
+      </c>
+      <c r="E110" t="n">
+        <v>27.38829075065058</v>
+      </c>
+      <c r="F110" t="n">
+        <v>24.37497386437376</v>
+      </c>
+      <c r="G110" t="n">
+        <v>31.72985101989372</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-92.39805655114469</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6.890575353137988</v>
+      </c>
+      <c r="J110" t="n">
+        <v>27.60083242955845</v>
+      </c>
+      <c r="K110" t="n">
+        <v>11.23213562238114</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-89.17219798596</v>
+      </c>
+      <c r="M110" t="n">
+        <v>59.46079705231288</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-140.5757677845704</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.42327094451071</v>
+      </c>
+      <c r="C111" t="n">
+        <v>28.65448941419694</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.361372157479072</v>
+      </c>
+      <c r="E111" t="n">
+        <v>27.71675508625803</v>
+      </c>
+      <c r="F111" t="n">
+        <v>27.59395336373311</v>
+      </c>
+      <c r="G111" t="n">
+        <v>31.15201945593522</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-92.43618857736628</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6.989942715170496</v>
+      </c>
+      <c r="J111" t="n">
+        <v>28.57464135373439</v>
+      </c>
+      <c r="K111" t="n">
+        <v>10.42520708484769</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-91.45550058736501</v>
+      </c>
+      <c r="M111" t="n">
+        <v>63.95113646381277</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-137.3173110126157</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>11</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.753964908046478</v>
+      </c>
+      <c r="C112" t="n">
+        <v>27.68934573084024</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5.42241684714688</v>
+      </c>
+      <c r="E112" t="n">
+        <v>27.70295497348244</v>
+      </c>
+      <c r="F112" t="n">
+        <v>30.67241317959246</v>
+      </c>
+      <c r="G112" t="n">
+        <v>27.6530993321199</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-92.49998656440459</v>
+      </c>
+      <c r="I112" t="n">
+        <v>6.985767891137545</v>
+      </c>
+      <c r="J112" t="n">
+        <v>29.50594012155738</v>
+      </c>
+      <c r="K112" t="n">
+        <v>6.935912249775004</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-93.66645962243966</v>
+      </c>
+      <c r="M112" t="n">
+        <v>64.91463148210208</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-133.7513556250811</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>12</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.084658871582246</v>
+      </c>
+      <c r="C113" t="n">
+        <v>25.78257660845605</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8.004224050558687</v>
+      </c>
+      <c r="E113" t="n">
+        <v>27.45218503889162</v>
+      </c>
+      <c r="F113" t="n">
+        <v>33.19896373345715</v>
+      </c>
+      <c r="G113" t="n">
+        <v>21.33579771947419</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-92.29756121457852</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6.909904717647885</v>
+      </c>
+      <c r="J113" t="n">
+        <v>30.2702747428946</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.7935173982304526</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-95.22625020514107</v>
+      </c>
+      <c r="M113" t="n">
+        <v>61.97895669814836</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-130.22157545066</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>13</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7.415352835118012</v>
+      </c>
+      <c r="C114" t="n">
+        <v>23.14081006802608</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9.827014896358444</v>
+      </c>
+      <c r="E114" t="n">
+        <v>27.18896083043538</v>
+      </c>
+      <c r="F114" t="n">
+        <v>34.75039699840882</v>
+      </c>
+      <c r="G114" t="n">
+        <v>12.35910160180724</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-91.3034789877093</v>
+      </c>
+      <c r="I114" t="n">
+        <v>6.830273864669527</v>
+      </c>
+      <c r="J114" t="n">
+        <v>30.7396158986783</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-7.999585363958612</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-95.31426008743982</v>
+      </c>
+      <c r="M114" t="n">
+        <v>54.95066653435794</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-127.0254025661032</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>14</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7.746046798653781</v>
+      </c>
+      <c r="C115" t="n">
+        <v>20.05032250543721</v>
+      </c>
+      <c r="D115" t="n">
+        <v>10.69326171288964</v>
+      </c>
+      <c r="E115" t="n">
+        <v>27.15436389024016</v>
+      </c>
+      <c r="F115" t="n">
+        <v>34.92330702863362</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.129657827100637</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-88.7635323448047</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6.819807563433999</v>
+      </c>
+      <c r="J115" t="n">
+        <v>30.79192481538496</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-19.20489849970553</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-92.89491455805336</v>
+      </c>
+      <c r="M115" t="n">
+        <v>43.93220829822495</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-124.2323764295948</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>15</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8.076740762189548</v>
+      </c>
+      <c r="C116" t="n">
+        <v>16.84601620195139</v>
+      </c>
+      <c r="D116" t="n">
+        <v>10.50909321637684</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27.41683350686776</v>
+      </c>
+      <c r="F116" t="n">
+        <v>33.43986558684183</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-11.30794275866747</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-84.00381957497078</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6.899210136531421</v>
+      </c>
+      <c r="J116" t="n">
+        <v>30.34315261450677</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-31.8255661290038</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-87.10053254730583</v>
+      </c>
+      <c r="M116" t="n">
+        <v>29.64423263539317</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-121.5939320786384</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>16</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8.407434725725317</v>
+      </c>
+      <c r="C117" t="n">
+        <v>13.87512746548638</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9.294466921085883</v>
+      </c>
+      <c r="E117" t="n">
+        <v>27.71643859312513</v>
+      </c>
+      <c r="F117" t="n">
+        <v>30.41271983812198</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-22.9893546467396</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-77.36389682478573</v>
+      </c>
+      <c r="I117" t="n">
+        <v>6.989846969348777</v>
+      </c>
+      <c r="J117" t="n">
+        <v>29.42737743002009</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-43.71594627051596</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-78.34923923288761</v>
+      </c>
+      <c r="M117" t="n">
+        <v>13.91018148157017</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-118.9393879350523</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>17</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8.738128689261083</v>
+      </c>
+      <c r="C118" t="n">
+        <v>11.4595981887266</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7.181006432980378</v>
+      </c>
+      <c r="E118" t="n">
+        <v>27.64956278225451</v>
+      </c>
+      <c r="F118" t="n">
+        <v>26.55747531821106</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-31.66020850096656</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-70.98310383698367</v>
+      </c>
+      <c r="I118" t="n">
+        <v>6.969615631606407</v>
+      </c>
+      <c r="J118" t="n">
+        <v>28.26108497021511</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-52.34015565161467</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-69.27949418497963</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-0.4477646451716297</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-116.9818057327236</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>18</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9.068822652796852</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.861188449607457</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.397737989664864</v>
+      </c>
+      <c r="E119" t="n">
+        <v>27.10568952294837</v>
+      </c>
+      <c r="F119" t="n">
+        <v>22.84196968229831</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-36.06723520117182</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-67.56797748786511</v>
+      </c>
+      <c r="I119" t="n">
+        <v>6.805082544757491</v>
+      </c>
+      <c r="J119" t="n">
+        <v>27.13706645851041</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-56.3678421793627</v>
+      </c>
+      <c r="L119" t="n">
+        <v>-63.272880711653</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-10.8978968733922</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-117.1320938997014</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>19</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.399516616332619</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9.253110745245055</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.2462719138322</v>
+      </c>
+      <c r="E120" t="n">
+        <v>26.31194193651951</v>
+      </c>
+      <c r="F120" t="n">
+        <v>19.86236114835194</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-36.18080599191165</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-68.19755462150795</v>
+      </c>
+      <c r="I120" t="n">
+        <v>6.564957224493295</v>
+      </c>
+      <c r="J120" t="n">
+        <v>26.2356722801737</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-55.92779070393787</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-61.82424348968619</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-16.27696982803617</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-120.1006810543722</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>20</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9.730210579868388</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.701259730204789</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-1.931881545166664</v>
+      </c>
+      <c r="E121" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F121" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-32.47072003175674</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-72.05238358535806</v>
+      </c>
+      <c r="I121" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J121" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-51.67604733614604</v>
+      </c>
+      <c r="L121" t="n">
+        <v>-64.196309302914</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-16.57026598178295</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-125.3184402119656</v>
       </c>
     </row>
   </sheetData>

--- a/table_data.xlsx
+++ b/table_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5785,6 +5785,1766 @@
         <v>-125.3184402119656</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.447025272688801</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.701259730204788</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-1.931881545166662</v>
+      </c>
+      <c r="E122" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F122" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-32.47072003175676</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-72.05238358535804</v>
+      </c>
+      <c r="I122" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J122" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-51.67604733614606</v>
+      </c>
+      <c r="L122" t="n">
+        <v>-64.19630930291399</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-16.57026598178296</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.777719236224569</v>
+      </c>
+      <c r="C123" t="n">
+        <v>11.1570715082183</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-4.792320145917249</v>
+      </c>
+      <c r="E123" t="n">
+        <v>24.93477471535802</v>
+      </c>
+      <c r="F123" t="n">
+        <v>16.36748595754155</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-25.53799940980731</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-77.51612136910649</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6.148335208007468</v>
+      </c>
+      <c r="J123" t="n">
+        <v>25.17839911320585</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-44.32443891715786</v>
+      </c>
+      <c r="L123" t="n">
+        <v>-68.70520821344219</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-12.33337838262858</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-131.5136695641207</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.108413199760336</v>
+      </c>
+      <c r="C124" t="n">
+        <v>13.46278628389064</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-7.025070981750273</v>
+      </c>
+      <c r="E124" t="n">
+        <v>24.58350756153641</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15.64411643784896</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-16.15576840607682</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-83.04553807179916</v>
+      </c>
+      <c r="I124" t="n">
+        <v>6.042069514414376</v>
+      </c>
+      <c r="J124" t="n">
+        <v>24.95956463666019</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-34.69720645319886</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-73.73008987298792</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-4.415399442497812</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-137.3802504032666</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.439107163296104</v>
+      </c>
+      <c r="C125" t="n">
+        <v>16.36854408442674</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-8.388180854904453</v>
+      </c>
+      <c r="E125" t="n">
+        <v>24.51627503200149</v>
+      </c>
+      <c r="F125" t="n">
+        <v>15.51112834862551</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-5.331848241292139</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-87.55192480501077</v>
+      </c>
+      <c r="I125" t="n">
+        <v>6.021730261781963</v>
+      </c>
+      <c r="J125" t="n">
+        <v>24.91933294580268</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-23.82639301151166</v>
+      </c>
+      <c r="L125" t="n">
+        <v>-78.14372020783361</v>
+      </c>
+      <c r="M125" t="n">
+        <v>6.136213220836726</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-141.9447625122414</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.769801126831871</v>
+      </c>
+      <c r="C126" t="n">
+        <v>19.55946096466073</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-8.733935659794598</v>
+      </c>
+      <c r="E126" t="n">
+        <v>24.74824388666533</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15.97717584471514</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5.739831202094024</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-90.52585402642181</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6.091905713613039</v>
+      </c>
+      <c r="J126" t="n">
+        <v>25.06032210428357</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-12.91650697095826</v>
+      </c>
+      <c r="L126" t="n">
+        <v>-81.44270776685337</v>
+      </c>
+      <c r="M126" t="n">
+        <v>18.15790386470075</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-144.7096957035354</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5.100495090367639</v>
+      </c>
+      <c r="C127" t="n">
+        <v>22.68975156844244</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-8.024867498372293</v>
+      </c>
+      <c r="E127" t="n">
+        <v>25.26353752912881</v>
+      </c>
+      <c r="F127" t="n">
+        <v>17.09361425965945</v>
+      </c>
+      <c r="G127" t="n">
+        <v>15.83481668305001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-92.01820049972025</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6.247792865954933</v>
+      </c>
+      <c r="J127" t="n">
+        <v>25.39806817939277</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-3.180927980123869</v>
+      </c>
+      <c r="L127" t="n">
+        <v>-83.71374657998693</v>
+      </c>
+      <c r="M127" t="n">
+        <v>30.4813156246775</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-145.6426100190539</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>7</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5.431189053903407</v>
+      </c>
+      <c r="C128" t="n">
+        <v>25.4202003373889</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-6.337814908253783</v>
+      </c>
+      <c r="E128" t="n">
+        <v>25.98519077674523</v>
+      </c>
+      <c r="F128" t="n">
+        <v>18.90586322714154</v>
+      </c>
+      <c r="G128" t="n">
+        <v>23.91542382068737</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-92.47684069402248</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6.466108134141415</v>
+      </c>
+      <c r="J128" t="n">
+        <v>25.94631156451341</v>
+      </c>
+      <c r="K128" t="n">
+        <v>4.396341178083549</v>
+      </c>
+      <c r="L128" t="n">
+        <v>-85.43639235665063</v>
+      </c>
+      <c r="M128" t="n">
+        <v>42.04459514683843</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-145.0261544342737</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>8</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5.761883017439175</v>
+      </c>
+      <c r="C129" t="n">
+        <v>27.45492078010687</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-3.855596214896483</v>
+      </c>
+      <c r="E129" t="n">
+        <v>26.7588481016521</v>
+      </c>
+      <c r="F129" t="n">
+        <v>21.38480756210971</v>
+      </c>
+      <c r="G129" t="n">
+        <v>29.30881731975372</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-92.46484551972567</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6.700155728230888</v>
+      </c>
+      <c r="J129" t="n">
+        <v>26.69624430450378</v>
+      </c>
+      <c r="K129" t="n">
+        <v>9.250124946332502</v>
+      </c>
+      <c r="L129" t="n">
+        <v>-87.15340877733161</v>
+      </c>
+      <c r="M129" t="n">
+        <v>51.95155884910947</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-143.2329800489664</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>9</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.092576980974942</v>
+      </c>
+      <c r="C130" t="n">
+        <v>28.57341936468722</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.8471983293170848</v>
+      </c>
+      <c r="E130" t="n">
+        <v>27.38829075065058</v>
+      </c>
+      <c r="F130" t="n">
+        <v>24.37497386437376</v>
+      </c>
+      <c r="G130" t="n">
+        <v>31.72985101989372</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-92.39805655114469</v>
+      </c>
+      <c r="I130" t="n">
+        <v>6.890575353137988</v>
+      </c>
+      <c r="J130" t="n">
+        <v>27.60083242955845</v>
+      </c>
+      <c r="K130" t="n">
+        <v>11.23213562238114</v>
+      </c>
+      <c r="L130" t="n">
+        <v>-89.17219798596</v>
+      </c>
+      <c r="M130" t="n">
+        <v>59.46079705231288</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-140.5757677845704</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>10</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.42327094451071</v>
+      </c>
+      <c r="C131" t="n">
+        <v>28.65448941419694</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.361372157479072</v>
+      </c>
+      <c r="E131" t="n">
+        <v>27.71675508625803</v>
+      </c>
+      <c r="F131" t="n">
+        <v>27.59395336373311</v>
+      </c>
+      <c r="G131" t="n">
+        <v>31.15201945593522</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-92.43618857736628</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6.989942715170496</v>
+      </c>
+      <c r="J131" t="n">
+        <v>28.57464135373439</v>
+      </c>
+      <c r="K131" t="n">
+        <v>10.42520708484769</v>
+      </c>
+      <c r="L131" t="n">
+        <v>-91.45550058736501</v>
+      </c>
+      <c r="M131" t="n">
+        <v>63.95113646381277</v>
+      </c>
+      <c r="N131" t="n">
+        <v>-137.3173110126157</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>11</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.753964908046478</v>
+      </c>
+      <c r="C132" t="n">
+        <v>27.68934573084024</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.42241684714688</v>
+      </c>
+      <c r="E132" t="n">
+        <v>27.70295497348244</v>
+      </c>
+      <c r="F132" t="n">
+        <v>30.67241317959246</v>
+      </c>
+      <c r="G132" t="n">
+        <v>27.6530993321199</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-92.49998656440459</v>
+      </c>
+      <c r="I132" t="n">
+        <v>6.985767891137545</v>
+      </c>
+      <c r="J132" t="n">
+        <v>29.50594012155738</v>
+      </c>
+      <c r="K132" t="n">
+        <v>6.935912249775004</v>
+      </c>
+      <c r="L132" t="n">
+        <v>-93.66645962243966</v>
+      </c>
+      <c r="M132" t="n">
+        <v>64.91463148210208</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-133.7513556250811</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>12</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7.084658871582246</v>
+      </c>
+      <c r="C133" t="n">
+        <v>25.78257660845605</v>
+      </c>
+      <c r="D133" t="n">
+        <v>8.004224050558687</v>
+      </c>
+      <c r="E133" t="n">
+        <v>27.45218503889162</v>
+      </c>
+      <c r="F133" t="n">
+        <v>33.19896373345715</v>
+      </c>
+      <c r="G133" t="n">
+        <v>21.33579771947419</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-92.29756121457852</v>
+      </c>
+      <c r="I133" t="n">
+        <v>6.909904717647885</v>
+      </c>
+      <c r="J133" t="n">
+        <v>30.2702747428946</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.7935173982304526</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-95.22625020514107</v>
+      </c>
+      <c r="M133" t="n">
+        <v>61.97895669814836</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-130.22157545066</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>13</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7.415352835118012</v>
+      </c>
+      <c r="C134" t="n">
+        <v>23.14081006802608</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.827014896358444</v>
+      </c>
+      <c r="E134" t="n">
+        <v>27.18896083043538</v>
+      </c>
+      <c r="F134" t="n">
+        <v>34.75039699840882</v>
+      </c>
+      <c r="G134" t="n">
+        <v>12.35910160180724</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-91.3034789877093</v>
+      </c>
+      <c r="I134" t="n">
+        <v>6.830273864669527</v>
+      </c>
+      <c r="J134" t="n">
+        <v>30.7396158986783</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-7.999585363958612</v>
+      </c>
+      <c r="L134" t="n">
+        <v>-95.31426008743982</v>
+      </c>
+      <c r="M134" t="n">
+        <v>54.95066653435794</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-127.0254025661032</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>14</v>
+      </c>
+      <c r="B135" t="n">
+        <v>7.746046798653781</v>
+      </c>
+      <c r="C135" t="n">
+        <v>20.05032250543721</v>
+      </c>
+      <c r="D135" t="n">
+        <v>10.69326171288964</v>
+      </c>
+      <c r="E135" t="n">
+        <v>27.15436389024016</v>
+      </c>
+      <c r="F135" t="n">
+        <v>34.92330702863362</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.129657827100637</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-88.7635323448047</v>
+      </c>
+      <c r="I135" t="n">
+        <v>6.819807563433999</v>
+      </c>
+      <c r="J135" t="n">
+        <v>30.79192481538496</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-19.20489849970553</v>
+      </c>
+      <c r="L135" t="n">
+        <v>-92.89491455805336</v>
+      </c>
+      <c r="M135" t="n">
+        <v>43.93220829822495</v>
+      </c>
+      <c r="N135" t="n">
+        <v>-124.2323764295948</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>15</v>
+      </c>
+      <c r="B136" t="n">
+        <v>8.076740762189548</v>
+      </c>
+      <c r="C136" t="n">
+        <v>16.84601620195139</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10.50909321637684</v>
+      </c>
+      <c r="E136" t="n">
+        <v>27.41683350686776</v>
+      </c>
+      <c r="F136" t="n">
+        <v>33.43986558684183</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-11.30794275866747</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-84.00381957497078</v>
+      </c>
+      <c r="I136" t="n">
+        <v>6.899210136531421</v>
+      </c>
+      <c r="J136" t="n">
+        <v>30.34315261450677</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-31.8255661290038</v>
+      </c>
+      <c r="L136" t="n">
+        <v>-87.10053254730583</v>
+      </c>
+      <c r="M136" t="n">
+        <v>29.64423263539317</v>
+      </c>
+      <c r="N136" t="n">
+        <v>-121.5939320786384</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>16</v>
+      </c>
+      <c r="B137" t="n">
+        <v>8.407434725725317</v>
+      </c>
+      <c r="C137" t="n">
+        <v>13.87512746548638</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9.294466921085883</v>
+      </c>
+      <c r="E137" t="n">
+        <v>27.71643859312513</v>
+      </c>
+      <c r="F137" t="n">
+        <v>30.41271983812198</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-22.9893546467396</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-77.36389682478573</v>
+      </c>
+      <c r="I137" t="n">
+        <v>6.989846969348777</v>
+      </c>
+      <c r="J137" t="n">
+        <v>29.42737743002009</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-43.71594627051596</v>
+      </c>
+      <c r="L137" t="n">
+        <v>-78.34923923288761</v>
+      </c>
+      <c r="M137" t="n">
+        <v>13.91018148157017</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-118.9393879350523</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>17</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8.738128689261083</v>
+      </c>
+      <c r="C138" t="n">
+        <v>11.4595981887266</v>
+      </c>
+      <c r="D138" t="n">
+        <v>7.181006432980378</v>
+      </c>
+      <c r="E138" t="n">
+        <v>27.64956278225451</v>
+      </c>
+      <c r="F138" t="n">
+        <v>26.55747531821106</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-31.66020850096656</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-70.98310383698367</v>
+      </c>
+      <c r="I138" t="n">
+        <v>6.969615631606407</v>
+      </c>
+      <c r="J138" t="n">
+        <v>28.26108497021511</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-52.34015565161467</v>
+      </c>
+      <c r="L138" t="n">
+        <v>-69.27949418497963</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-0.4477646451716297</v>
+      </c>
+      <c r="N138" t="n">
+        <v>-116.9818057327236</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>18</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.068822652796852</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9.861188449607457</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.397737989664864</v>
+      </c>
+      <c r="E139" t="n">
+        <v>27.10568952294837</v>
+      </c>
+      <c r="F139" t="n">
+        <v>22.84196968229831</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-36.06723520117182</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-67.56797748786511</v>
+      </c>
+      <c r="I139" t="n">
+        <v>6.805082544757491</v>
+      </c>
+      <c r="J139" t="n">
+        <v>27.13706645851041</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-56.3678421793627</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-63.272880711653</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-10.8978968733922</v>
+      </c>
+      <c r="N139" t="n">
+        <v>-117.1320938997014</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>19</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9.399516616332619</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9.253110745245055</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.2462719138322</v>
+      </c>
+      <c r="E140" t="n">
+        <v>26.31194193651951</v>
+      </c>
+      <c r="F140" t="n">
+        <v>19.86236114835194</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-36.18080599191165</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-68.19755462150795</v>
+      </c>
+      <c r="I140" t="n">
+        <v>6.564957224493295</v>
+      </c>
+      <c r="J140" t="n">
+        <v>26.2356722801737</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-55.92779070393787</v>
+      </c>
+      <c r="L140" t="n">
+        <v>-61.82424348968619</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-16.27696982803617</v>
+      </c>
+      <c r="N140" t="n">
+        <v>-120.1006810543722</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>20</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9.730210579868388</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.701259730204789</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-1.931881545166664</v>
+      </c>
+      <c r="E141" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F141" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-32.47072003175674</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-72.05238358535806</v>
+      </c>
+      <c r="I141" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J141" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-51.67604733614604</v>
+      </c>
+      <c r="L141" t="n">
+        <v>-64.196309302914</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-16.57026598178295</v>
+      </c>
+      <c r="N141" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.447025272688801</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.701259730204788</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-1.931881545166662</v>
+      </c>
+      <c r="E142" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F142" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-32.47072003175676</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-72.05238358535804</v>
+      </c>
+      <c r="I142" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J142" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-51.67604733614606</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-64.19630930291399</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-16.57026598178296</v>
+      </c>
+      <c r="N142" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.777719236224569</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11.1570715082183</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-4.792320145917249</v>
+      </c>
+      <c r="E143" t="n">
+        <v>24.93477471535802</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16.36748595754155</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-25.53799940980731</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-77.51612136910649</v>
+      </c>
+      <c r="I143" t="n">
+        <v>6.148335208007468</v>
+      </c>
+      <c r="J143" t="n">
+        <v>25.17839911320585</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-44.32443891715786</v>
+      </c>
+      <c r="L143" t="n">
+        <v>-68.70520821344219</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-12.33337838262858</v>
+      </c>
+      <c r="N143" t="n">
+        <v>-131.5136695641207</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>3</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.108413199760336</v>
+      </c>
+      <c r="C144" t="n">
+        <v>13.46278628389064</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-7.025070981750273</v>
+      </c>
+      <c r="E144" t="n">
+        <v>24.58350756153641</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15.64411643784896</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-16.15576840607682</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-83.04553807179916</v>
+      </c>
+      <c r="I144" t="n">
+        <v>6.042069514414376</v>
+      </c>
+      <c r="J144" t="n">
+        <v>24.95956463666019</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-34.69720645319886</v>
+      </c>
+      <c r="L144" t="n">
+        <v>-73.73008987298792</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-4.415399442497812</v>
+      </c>
+      <c r="N144" t="n">
+        <v>-137.3802504032666</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.439107163296104</v>
+      </c>
+      <c r="C145" t="n">
+        <v>16.36854408442674</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-8.388180854904453</v>
+      </c>
+      <c r="E145" t="n">
+        <v>24.51627503200149</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15.51112834862551</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-5.331848241292139</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-87.55192480501077</v>
+      </c>
+      <c r="I145" t="n">
+        <v>6.021730261781963</v>
+      </c>
+      <c r="J145" t="n">
+        <v>24.91933294580268</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-23.82639301151166</v>
+      </c>
+      <c r="L145" t="n">
+        <v>-78.14372020783361</v>
+      </c>
+      <c r="M145" t="n">
+        <v>6.136213220836726</v>
+      </c>
+      <c r="N145" t="n">
+        <v>-141.9447625122414</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>5</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.769801126831871</v>
+      </c>
+      <c r="C146" t="n">
+        <v>19.55946096466073</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-8.733935659794598</v>
+      </c>
+      <c r="E146" t="n">
+        <v>24.74824388666533</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15.97717584471514</v>
+      </c>
+      <c r="G146" t="n">
+        <v>5.739831202094024</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-90.52585402642181</v>
+      </c>
+      <c r="I146" t="n">
+        <v>6.091905713613039</v>
+      </c>
+      <c r="J146" t="n">
+        <v>25.06032210428357</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-12.91650697095826</v>
+      </c>
+      <c r="L146" t="n">
+        <v>-81.44270776685337</v>
+      </c>
+      <c r="M146" t="n">
+        <v>18.15790386470075</v>
+      </c>
+      <c r="N146" t="n">
+        <v>-144.7096957035354</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>6</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.100495090367639</v>
+      </c>
+      <c r="C147" t="n">
+        <v>22.68975156844244</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-8.024867498372293</v>
+      </c>
+      <c r="E147" t="n">
+        <v>25.26353752912881</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17.09361425965945</v>
+      </c>
+      <c r="G147" t="n">
+        <v>15.83481668305001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-92.01820049972025</v>
+      </c>
+      <c r="I147" t="n">
+        <v>6.247792865954933</v>
+      </c>
+      <c r="J147" t="n">
+        <v>25.39806817939277</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-3.180927980123869</v>
+      </c>
+      <c r="L147" t="n">
+        <v>-83.71374657998693</v>
+      </c>
+      <c r="M147" t="n">
+        <v>30.4813156246775</v>
+      </c>
+      <c r="N147" t="n">
+        <v>-145.6426100190539</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>7</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.431189053903407</v>
+      </c>
+      <c r="C148" t="n">
+        <v>25.4202003373889</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-6.337814908253783</v>
+      </c>
+      <c r="E148" t="n">
+        <v>25.98519077674523</v>
+      </c>
+      <c r="F148" t="n">
+        <v>18.90586322714154</v>
+      </c>
+      <c r="G148" t="n">
+        <v>23.91542382068737</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-92.47684069402248</v>
+      </c>
+      <c r="I148" t="n">
+        <v>6.466108134141415</v>
+      </c>
+      <c r="J148" t="n">
+        <v>25.94631156451341</v>
+      </c>
+      <c r="K148" t="n">
+        <v>4.396341178083549</v>
+      </c>
+      <c r="L148" t="n">
+        <v>-85.43639235665063</v>
+      </c>
+      <c r="M148" t="n">
+        <v>42.04459514683843</v>
+      </c>
+      <c r="N148" t="n">
+        <v>-145.0261544342737</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>8</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5.761883017439175</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27.45492078010687</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-3.855596214896483</v>
+      </c>
+      <c r="E149" t="n">
+        <v>26.7588481016521</v>
+      </c>
+      <c r="F149" t="n">
+        <v>21.38480756210971</v>
+      </c>
+      <c r="G149" t="n">
+        <v>29.30881731975372</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-92.46484551972567</v>
+      </c>
+      <c r="I149" t="n">
+        <v>6.700155728230888</v>
+      </c>
+      <c r="J149" t="n">
+        <v>26.69624430450378</v>
+      </c>
+      <c r="K149" t="n">
+        <v>9.250124946332502</v>
+      </c>
+      <c r="L149" t="n">
+        <v>-87.15340877733161</v>
+      </c>
+      <c r="M149" t="n">
+        <v>51.95155884910947</v>
+      </c>
+      <c r="N149" t="n">
+        <v>-143.2329800489664</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>9</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.092576980974942</v>
+      </c>
+      <c r="C150" t="n">
+        <v>28.57341936468722</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.8471983293170848</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27.38829075065058</v>
+      </c>
+      <c r="F150" t="n">
+        <v>24.37497386437376</v>
+      </c>
+      <c r="G150" t="n">
+        <v>31.72985101989372</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-92.39805655114469</v>
+      </c>
+      <c r="I150" t="n">
+        <v>6.890575353137988</v>
+      </c>
+      <c r="J150" t="n">
+        <v>27.60083242955845</v>
+      </c>
+      <c r="K150" t="n">
+        <v>11.23213562238114</v>
+      </c>
+      <c r="L150" t="n">
+        <v>-89.17219798596</v>
+      </c>
+      <c r="M150" t="n">
+        <v>59.46079705231288</v>
+      </c>
+      <c r="N150" t="n">
+        <v>-140.5757677845704</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>10</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.42327094451071</v>
+      </c>
+      <c r="C151" t="n">
+        <v>28.65448941419694</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.361372157479072</v>
+      </c>
+      <c r="E151" t="n">
+        <v>27.71675508625803</v>
+      </c>
+      <c r="F151" t="n">
+        <v>27.59395336373311</v>
+      </c>
+      <c r="G151" t="n">
+        <v>31.15201945593522</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-92.43618857736628</v>
+      </c>
+      <c r="I151" t="n">
+        <v>6.989942715170496</v>
+      </c>
+      <c r="J151" t="n">
+        <v>28.57464135373439</v>
+      </c>
+      <c r="K151" t="n">
+        <v>10.42520708484769</v>
+      </c>
+      <c r="L151" t="n">
+        <v>-91.45550058736501</v>
+      </c>
+      <c r="M151" t="n">
+        <v>63.95113646381277</v>
+      </c>
+      <c r="N151" t="n">
+        <v>-137.3173110126157</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>11</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.753964908046478</v>
+      </c>
+      <c r="C152" t="n">
+        <v>27.68934573084024</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5.42241684714688</v>
+      </c>
+      <c r="E152" t="n">
+        <v>27.70295497348244</v>
+      </c>
+      <c r="F152" t="n">
+        <v>30.67241317959246</v>
+      </c>
+      <c r="G152" t="n">
+        <v>27.6530993321199</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-92.49998656440459</v>
+      </c>
+      <c r="I152" t="n">
+        <v>6.985767891137545</v>
+      </c>
+      <c r="J152" t="n">
+        <v>29.50594012155738</v>
+      </c>
+      <c r="K152" t="n">
+        <v>6.935912249775004</v>
+      </c>
+      <c r="L152" t="n">
+        <v>-93.66645962243966</v>
+      </c>
+      <c r="M152" t="n">
+        <v>64.91463148210208</v>
+      </c>
+      <c r="N152" t="n">
+        <v>-133.7513556250811</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>12</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7.084658871582246</v>
+      </c>
+      <c r="C153" t="n">
+        <v>25.78257660845605</v>
+      </c>
+      <c r="D153" t="n">
+        <v>8.004224050558687</v>
+      </c>
+      <c r="E153" t="n">
+        <v>27.45218503889162</v>
+      </c>
+      <c r="F153" t="n">
+        <v>33.19896373345715</v>
+      </c>
+      <c r="G153" t="n">
+        <v>21.33579771947419</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-92.29756121457852</v>
+      </c>
+      <c r="I153" t="n">
+        <v>6.909904717647885</v>
+      </c>
+      <c r="J153" t="n">
+        <v>30.2702747428946</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.7935173982304526</v>
+      </c>
+      <c r="L153" t="n">
+        <v>-95.22625020514107</v>
+      </c>
+      <c r="M153" t="n">
+        <v>61.97895669814836</v>
+      </c>
+      <c r="N153" t="n">
+        <v>-130.22157545066</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>13</v>
+      </c>
+      <c r="B154" t="n">
+        <v>7.415352835118012</v>
+      </c>
+      <c r="C154" t="n">
+        <v>23.14081006802608</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9.827014896358444</v>
+      </c>
+      <c r="E154" t="n">
+        <v>27.18896083043538</v>
+      </c>
+      <c r="F154" t="n">
+        <v>34.75039699840882</v>
+      </c>
+      <c r="G154" t="n">
+        <v>12.35910160180724</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-91.3034789877093</v>
+      </c>
+      <c r="I154" t="n">
+        <v>6.830273864669527</v>
+      </c>
+      <c r="J154" t="n">
+        <v>30.7396158986783</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-7.999585363958612</v>
+      </c>
+      <c r="L154" t="n">
+        <v>-95.31426008743982</v>
+      </c>
+      <c r="M154" t="n">
+        <v>54.95066653435794</v>
+      </c>
+      <c r="N154" t="n">
+        <v>-127.0254025661032</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>14</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7.746046798653781</v>
+      </c>
+      <c r="C155" t="n">
+        <v>20.05032250543721</v>
+      </c>
+      <c r="D155" t="n">
+        <v>10.69326171288964</v>
+      </c>
+      <c r="E155" t="n">
+        <v>27.15436389024016</v>
+      </c>
+      <c r="F155" t="n">
+        <v>34.92330702863362</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.129657827100637</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-88.7635323448047</v>
+      </c>
+      <c r="I155" t="n">
+        <v>6.819807563433999</v>
+      </c>
+      <c r="J155" t="n">
+        <v>30.79192481538496</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-19.20489849970553</v>
+      </c>
+      <c r="L155" t="n">
+        <v>-92.89491455805336</v>
+      </c>
+      <c r="M155" t="n">
+        <v>43.93220829822495</v>
+      </c>
+      <c r="N155" t="n">
+        <v>-124.2323764295948</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>15</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8.076740762189548</v>
+      </c>
+      <c r="C156" t="n">
+        <v>16.84601620195139</v>
+      </c>
+      <c r="D156" t="n">
+        <v>10.50909321637684</v>
+      </c>
+      <c r="E156" t="n">
+        <v>27.41683350686776</v>
+      </c>
+      <c r="F156" t="n">
+        <v>33.43986558684183</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-11.30794275866747</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-84.00381957497078</v>
+      </c>
+      <c r="I156" t="n">
+        <v>6.899210136531421</v>
+      </c>
+      <c r="J156" t="n">
+        <v>30.34315261450677</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-31.8255661290038</v>
+      </c>
+      <c r="L156" t="n">
+        <v>-87.10053254730583</v>
+      </c>
+      <c r="M156" t="n">
+        <v>29.64423263539317</v>
+      </c>
+      <c r="N156" t="n">
+        <v>-121.5939320786384</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>16</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8.407434725725317</v>
+      </c>
+      <c r="C157" t="n">
+        <v>13.87512746548638</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9.294466921085883</v>
+      </c>
+      <c r="E157" t="n">
+        <v>27.71643859312513</v>
+      </c>
+      <c r="F157" t="n">
+        <v>30.41271983812198</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-22.9893546467396</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-77.36389682478573</v>
+      </c>
+      <c r="I157" t="n">
+        <v>6.989846969348777</v>
+      </c>
+      <c r="J157" t="n">
+        <v>29.42737743002009</v>
+      </c>
+      <c r="K157" t="n">
+        <v>-43.71594627051596</v>
+      </c>
+      <c r="L157" t="n">
+        <v>-78.34923923288761</v>
+      </c>
+      <c r="M157" t="n">
+        <v>13.91018148157017</v>
+      </c>
+      <c r="N157" t="n">
+        <v>-118.9393879350523</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>17</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8.738128689261083</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.4595981887266</v>
+      </c>
+      <c r="D158" t="n">
+        <v>7.181006432980378</v>
+      </c>
+      <c r="E158" t="n">
+        <v>27.64956278225451</v>
+      </c>
+      <c r="F158" t="n">
+        <v>26.55747531821106</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-31.66020850096656</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-70.98310383698367</v>
+      </c>
+      <c r="I158" t="n">
+        <v>6.969615631606407</v>
+      </c>
+      <c r="J158" t="n">
+        <v>28.26108497021511</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-52.34015565161467</v>
+      </c>
+      <c r="L158" t="n">
+        <v>-69.27949418497963</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-0.4477646451716297</v>
+      </c>
+      <c r="N158" t="n">
+        <v>-116.9818057327236</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>18</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9.068822652796852</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9.861188449607457</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.397737989664864</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27.10568952294837</v>
+      </c>
+      <c r="F159" t="n">
+        <v>22.84196968229831</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-36.06723520117182</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-67.56797748786511</v>
+      </c>
+      <c r="I159" t="n">
+        <v>6.805082544757491</v>
+      </c>
+      <c r="J159" t="n">
+        <v>27.13706645851041</v>
+      </c>
+      <c r="K159" t="n">
+        <v>-56.3678421793627</v>
+      </c>
+      <c r="L159" t="n">
+        <v>-63.272880711653</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-10.8978968733922</v>
+      </c>
+      <c r="N159" t="n">
+        <v>-117.1320938997014</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>19</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9.399516616332619</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9.253110745245055</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.2462719138322</v>
+      </c>
+      <c r="E160" t="n">
+        <v>26.31194193651951</v>
+      </c>
+      <c r="F160" t="n">
+        <v>19.86236114835194</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-36.18080599191165</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-68.19755462150795</v>
+      </c>
+      <c r="I160" t="n">
+        <v>6.564957224493295</v>
+      </c>
+      <c r="J160" t="n">
+        <v>26.2356722801737</v>
+      </c>
+      <c r="K160" t="n">
+        <v>-55.92779070393787</v>
+      </c>
+      <c r="L160" t="n">
+        <v>-61.82424348968619</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-16.27696982803617</v>
+      </c>
+      <c r="N160" t="n">
+        <v>-120.1006810543722</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>20</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9.730210579868388</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9.701259730204789</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-1.931881545166664</v>
+      </c>
+      <c r="E161" t="n">
+        <v>25.53534878581116</v>
+      </c>
+      <c r="F161" t="n">
+        <v>17.73647181191756</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-32.47072003175674</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-72.05238358535806</v>
+      </c>
+      <c r="I161" t="n">
+        <v>6.330021481421864</v>
+      </c>
+      <c r="J161" t="n">
+        <v>25.59254609436162</v>
+      </c>
+      <c r="K161" t="n">
+        <v>-51.67604733614604</v>
+      </c>
+      <c r="L161" t="n">
+        <v>-64.196309302914</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-16.57026598178295</v>
+      </c>
+      <c r="N161" t="n">
+        <v>-125.3184402119656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_data.xlsx
+++ b/table_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4025,3526 +4025,6 @@
         <v>-125.3184402119656</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="n">
-        <v>3.447025272688801</v>
-      </c>
-      <c r="C82" t="n">
-        <v>9.701259730204788</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-1.931881545166662</v>
-      </c>
-      <c r="E82" t="n">
-        <v>25.53534878581116</v>
-      </c>
-      <c r="F82" t="n">
-        <v>17.73647181191756</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-32.47072003175676</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-72.05238358535804</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6.330021481421864</v>
-      </c>
-      <c r="J82" t="n">
-        <v>25.59254609436162</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-51.67604733614606</v>
-      </c>
-      <c r="L82" t="n">
-        <v>-64.19630930291399</v>
-      </c>
-      <c r="M82" t="n">
-        <v>-16.57026598178296</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-125.3184402119656</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>2</v>
-      </c>
-      <c r="B83" t="n">
-        <v>3.777719236224569</v>
-      </c>
-      <c r="C83" t="n">
-        <v>11.1570715082183</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-4.792320145917249</v>
-      </c>
-      <c r="E83" t="n">
-        <v>24.93477471535802</v>
-      </c>
-      <c r="F83" t="n">
-        <v>16.36748595754155</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-25.53799940980731</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-77.51612136910649</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6.148335208007468</v>
-      </c>
-      <c r="J83" t="n">
-        <v>25.17839911320585</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-44.32443891715786</v>
-      </c>
-      <c r="L83" t="n">
-        <v>-68.70520821344219</v>
-      </c>
-      <c r="M83" t="n">
-        <v>-12.33337838262858</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-131.5136695641207</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>3</v>
-      </c>
-      <c r="B84" t="n">
-        <v>4.108413199760336</v>
-      </c>
-      <c r="C84" t="n">
-        <v>13.46278628389064</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-7.025070981750273</v>
-      </c>
-      <c r="E84" t="n">
-        <v>24.58350756153641</v>
-      </c>
-      <c r="F84" t="n">
-        <v>15.64411643784896</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-16.15576840607682</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-83.04553807179916</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6.042069514414376</v>
-      </c>
-      <c r="J84" t="n">
-        <v>24.95956463666019</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-34.69720645319886</v>
-      </c>
-      <c r="L84" t="n">
-        <v>-73.73008987298792</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-4.415399442497812</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-137.3802504032666</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>4</v>
-      </c>
-      <c r="B85" t="n">
-        <v>4.439107163296104</v>
-      </c>
-      <c r="C85" t="n">
-        <v>16.36854408442674</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-8.388180854904453</v>
-      </c>
-      <c r="E85" t="n">
-        <v>24.51627503200149</v>
-      </c>
-      <c r="F85" t="n">
-        <v>15.51112834862551</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-5.331848241292139</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-87.55192480501077</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6.021730261781963</v>
-      </c>
-      <c r="J85" t="n">
-        <v>24.91933294580268</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-23.82639301151166</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-78.14372020783361</v>
-      </c>
-      <c r="M85" t="n">
-        <v>6.136213220836726</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-141.9447625122414</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>5</v>
-      </c>
-      <c r="B86" t="n">
-        <v>4.769801126831871</v>
-      </c>
-      <c r="C86" t="n">
-        <v>19.55946096466073</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-8.733935659794598</v>
-      </c>
-      <c r="E86" t="n">
-        <v>24.74824388666533</v>
-      </c>
-      <c r="F86" t="n">
-        <v>15.97717584471514</v>
-      </c>
-      <c r="G86" t="n">
-        <v>5.739831202094024</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-90.52585402642181</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6.091905713613039</v>
-      </c>
-      <c r="J86" t="n">
-        <v>25.06032210428357</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-12.91650697095826</v>
-      </c>
-      <c r="L86" t="n">
-        <v>-81.44270776685337</v>
-      </c>
-      <c r="M86" t="n">
-        <v>18.15790386470075</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-144.7096957035354</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>6</v>
-      </c>
-      <c r="B87" t="n">
-        <v>5.100495090367639</v>
-      </c>
-      <c r="C87" t="n">
-        <v>22.68975156844244</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-8.024867498372293</v>
-      </c>
-      <c r="E87" t="n">
-        <v>25.26353752912881</v>
-      </c>
-      <c r="F87" t="n">
-        <v>17.09361425965945</v>
-      </c>
-      <c r="G87" t="n">
-        <v>15.83481668305001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-92.01820049972025</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6.247792865954933</v>
-      </c>
-      <c r="J87" t="n">
-        <v>25.39806817939277</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-3.180927980123869</v>
-      </c>
-      <c r="L87" t="n">
-        <v>-83.71374657998693</v>
-      </c>
-      <c r="M87" t="n">
-        <v>30.4813156246775</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-145.6426100190539</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>7</v>
-      </c>
-      <c r="B88" t="n">
-        <v>5.431189053903407</v>
-      </c>
-      <c r="C88" t="n">
-        <v>25.4202003373889</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-6.337814908253783</v>
-      </c>
-      <c r="E88" t="n">
-        <v>25.98519077674523</v>
-      </c>
-      <c r="F88" t="n">
-        <v>18.90586322714154</v>
-      </c>
-      <c r="G88" t="n">
-        <v>23.91542382068737</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-92.47684069402248</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6.466108134141415</v>
-      </c>
-      <c r="J88" t="n">
-        <v>25.94631156451341</v>
-      </c>
-      <c r="K88" t="n">
-        <v>4.396341178083549</v>
-      </c>
-      <c r="L88" t="n">
-        <v>-85.43639235665063</v>
-      </c>
-      <c r="M88" t="n">
-        <v>42.04459514683843</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-145.0261544342737</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>8</v>
-      </c>
-      <c r="B89" t="n">
-        <v>5.761883017439175</v>
-      </c>
-      <c r="C89" t="n">
-        <v>27.45492078010687</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-3.855596214896483</v>
-      </c>
-      <c r="E89" t="n">
-        <v>26.7588481016521</v>
-      </c>
-      <c r="F89" t="n">
-        <v>21.38480756210971</v>
-      </c>
-      <c r="G89" t="n">
-        <v>29.30881731975372</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-92.46484551972567</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6.700155728230888</v>
-      </c>
-      <c r="J89" t="n">
-        <v>26.69624430450378</v>
-      </c>
-      <c r="K89" t="n">
-        <v>9.250124946332502</v>
-      </c>
-      <c r="L89" t="n">
-        <v>-87.15340877733161</v>
-      </c>
-      <c r="M89" t="n">
-        <v>51.95155884910947</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-143.2329800489664</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>9</v>
-      </c>
-      <c r="B90" t="n">
-        <v>6.092576980974942</v>
-      </c>
-      <c r="C90" t="n">
-        <v>28.57341936468722</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-0.8471983293170848</v>
-      </c>
-      <c r="E90" t="n">
-        <v>27.38829075065058</v>
-      </c>
-      <c r="F90" t="n">
-        <v>24.37497386437376</v>
-      </c>
-      <c r="G90" t="n">
-        <v>31.72985101989372</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-92.39805655114469</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6.890575353137988</v>
-      </c>
-      <c r="J90" t="n">
-        <v>27.60083242955845</v>
-      </c>
-      <c r="K90" t="n">
-        <v>11.23213562238114</v>
-      </c>
-      <c r="L90" t="n">
-        <v>-89.17219798596</v>
-      </c>
-      <c r="M90" t="n">
-        <v>59.46079705231288</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-140.5757677845704</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>10</v>
-      </c>
-      <c r="B91" t="n">
-        <v>6.42327094451071</v>
-      </c>
-      <c r="C91" t="n">
-        <v>28.65448941419694</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2.361372157479072</v>
-      </c>
-      <c r="E91" t="n">
-        <v>27.71675508625803</v>
-      </c>
-      <c r="F91" t="n">
-        <v>27.59395336373311</v>
-      </c>
-      <c r="G91" t="n">
-        <v>31.15201945593522</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-92.43618857736628</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6.989942715170496</v>
-      </c>
-      <c r="J91" t="n">
-        <v>28.57464135373439</v>
-      </c>
-      <c r="K91" t="n">
-        <v>10.42520708484769</v>
-      </c>
-      <c r="L91" t="n">
-        <v>-91.45550058736501</v>
-      </c>
-      <c r="M91" t="n">
-        <v>63.95113646381277</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-137.3173110126157</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>11</v>
-      </c>
-      <c r="B92" t="n">
-        <v>6.753964908046478</v>
-      </c>
-      <c r="C92" t="n">
-        <v>27.68934573084024</v>
-      </c>
-      <c r="D92" t="n">
-        <v>5.42241684714688</v>
-      </c>
-      <c r="E92" t="n">
-        <v>27.70295497348244</v>
-      </c>
-      <c r="F92" t="n">
-        <v>30.67241317959246</v>
-      </c>
-      <c r="G92" t="n">
-        <v>27.6530993321199</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-92.49998656440459</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6.985767891137545</v>
-      </c>
-      <c r="J92" t="n">
-        <v>29.50594012155738</v>
-      </c>
-      <c r="K92" t="n">
-        <v>6.935912249775004</v>
-      </c>
-      <c r="L92" t="n">
-        <v>-93.66645962243966</v>
-      </c>
-      <c r="M92" t="n">
-        <v>64.91463148210208</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-133.7513556250811</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>12</v>
-      </c>
-      <c r="B93" t="n">
-        <v>7.084658871582246</v>
-      </c>
-      <c r="C93" t="n">
-        <v>25.78257660845605</v>
-      </c>
-      <c r="D93" t="n">
-        <v>8.004224050558687</v>
-      </c>
-      <c r="E93" t="n">
-        <v>27.45218503889162</v>
-      </c>
-      <c r="F93" t="n">
-        <v>33.19896373345715</v>
-      </c>
-      <c r="G93" t="n">
-        <v>21.33579771947419</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-92.29756121457852</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6.909904717647885</v>
-      </c>
-      <c r="J93" t="n">
-        <v>30.2702747428946</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.7935173982304526</v>
-      </c>
-      <c r="L93" t="n">
-        <v>-95.22625020514107</v>
-      </c>
-      <c r="M93" t="n">
-        <v>61.97895669814836</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-130.22157545066</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>13</v>
-      </c>
-      <c r="B94" t="n">
-        <v>7.415352835118012</v>
-      </c>
-      <c r="C94" t="n">
-        <v>23.14081006802608</v>
-      </c>
-      <c r="D94" t="n">
-        <v>9.827014896358444</v>
-      </c>
-      <c r="E94" t="n">
-        <v>27.18896083043538</v>
-      </c>
-      <c r="F94" t="n">
-        <v>34.75039699840882</v>
-      </c>
-      <c r="G94" t="n">
-        <v>12.35910160180724</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-91.3034789877093</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6.830273864669527</v>
-      </c>
-      <c r="J94" t="n">
-        <v>30.7396158986783</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-7.999585363958612</v>
-      </c>
-      <c r="L94" t="n">
-        <v>-95.31426008743982</v>
-      </c>
-      <c r="M94" t="n">
-        <v>54.95066653435794</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-127.0254025661032</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>14</v>
-      </c>
-      <c r="B95" t="n">
-        <v>7.746046798653781</v>
-      </c>
-      <c r="C95" t="n">
-        <v>20.05032250543721</v>
-      </c>
-      <c r="D95" t="n">
-        <v>10.69326171288964</v>
-      </c>
-      <c r="E95" t="n">
-        <v>27.15436389024016</v>
-      </c>
-      <c r="F95" t="n">
-        <v>34.92330702863362</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.129657827100637</v>
-      </c>
-      <c r="H95" t="n">
-        <v>-88.7635323448047</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6.819807563433999</v>
-      </c>
-      <c r="J95" t="n">
-        <v>30.79192481538496</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-19.20489849970553</v>
-      </c>
-      <c r="L95" t="n">
-        <v>-92.89491455805336</v>
-      </c>
-      <c r="M95" t="n">
-        <v>43.93220829822495</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-124.2323764295948</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>15</v>
-      </c>
-      <c r="B96" t="n">
-        <v>8.076740762189548</v>
-      </c>
-      <c r="C96" t="n">
-        <v>16.84601620195139</v>
-      </c>
-      <c r="D96" t="n">
-        <v>10.50909321637684</v>
-      </c>
-      <c r="E96" t="n">
-        <v>27.41683350686776</v>
-      </c>
-      <c r="F96" t="n">
-        <v>33.43986558684183</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-11.30794275866747</v>
-      </c>
-      <c r="H96" t="n">
-        <v>-84.00381957497078</v>
-      </c>
-      <c r="I96" t="n">
-        <v>6.899210136531421</v>
-      </c>
-      <c r="J96" t="n">
-        <v>30.34315261450677</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-31.8255661290038</v>
-      </c>
-      <c r="L96" t="n">
-        <v>-87.10053254730583</v>
-      </c>
-      <c r="M96" t="n">
-        <v>29.64423263539317</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-121.5939320786384</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>16</v>
-      </c>
-      <c r="B97" t="n">
-        <v>8.407434725725317</v>
-      </c>
-      <c r="C97" t="n">
-        <v>13.87512746548638</v>
-      </c>
-      <c r="D97" t="n">
-        <v>9.294466921085883</v>
-      </c>
-      <c r="E97" t="n">
-        <v>27.71643859312513</v>
-      </c>
-      <c r="F97" t="n">
-        <v>30.41271983812198</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-22.9893546467396</v>
-      </c>
-      <c r="H97" t="n">
-        <v>-77.36389682478573</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6.989846969348777</v>
-      </c>
-      <c r="J97" t="n">
-        <v>29.42737743002009</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-43.71594627051596</v>
-      </c>
-      <c r="L97" t="n">
-        <v>-78.34923923288761</v>
-      </c>
-      <c r="M97" t="n">
-        <v>13.91018148157017</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-118.9393879350523</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>17</v>
-      </c>
-      <c r="B98" t="n">
-        <v>8.738128689261083</v>
-      </c>
-      <c r="C98" t="n">
-        <v>11.4595981887266</v>
-      </c>
-      <c r="D98" t="n">
-        <v>7.181006432980378</v>
-      </c>
-      <c r="E98" t="n">
-        <v>27.64956278225451</v>
-      </c>
-      <c r="F98" t="n">
-        <v>26.55747531821106</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-31.66020850096656</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-70.98310383698367</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6.969615631606407</v>
-      </c>
-      <c r="J98" t="n">
-        <v>28.26108497021511</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-52.34015565161467</v>
-      </c>
-      <c r="L98" t="n">
-        <v>-69.27949418497963</v>
-      </c>
-      <c r="M98" t="n">
-        <v>-0.4477646451716297</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-116.9818057327236</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>18</v>
-      </c>
-      <c r="B99" t="n">
-        <v>9.068822652796852</v>
-      </c>
-      <c r="C99" t="n">
-        <v>9.861188449607457</v>
-      </c>
-      <c r="D99" t="n">
-        <v>4.397737989664864</v>
-      </c>
-      <c r="E99" t="n">
-        <v>27.10568952294837</v>
-      </c>
-      <c r="F99" t="n">
-        <v>22.84196968229831</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-36.06723520117182</v>
-      </c>
-      <c r="H99" t="n">
-        <v>-67.56797748786511</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6.805082544757491</v>
-      </c>
-      <c r="J99" t="n">
-        <v>27.13706645851041</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-56.3678421793627</v>
-      </c>
-      <c r="L99" t="n">
-        <v>-63.272880711653</v>
-      </c>
-      <c r="M99" t="n">
-        <v>-10.8978968733922</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-117.1320938997014</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>19</v>
-      </c>
-      <c r="B100" t="n">
-        <v>9.399516616332619</v>
-      </c>
-      <c r="C100" t="n">
-        <v>9.253110745245055</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.2462719138322</v>
-      </c>
-      <c r="E100" t="n">
-        <v>26.31194193651951</v>
-      </c>
-      <c r="F100" t="n">
-        <v>19.86236114835194</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-36.18080599191165</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-68.19755462150795</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6.564957224493295</v>
-      </c>
-      <c r="J100" t="n">
-        <v>26.2356722801737</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-55.92779070393787</v>
-      </c>
-      <c r="L100" t="n">
-        <v>-61.82424348968619</v>
-      </c>
-      <c r="M100" t="n">
-        <v>-16.27696982803617</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-120.1006810543722</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>20</v>
-      </c>
-      <c r="B101" t="n">
-        <v>9.730210579868388</v>
-      </c>
-      <c r="C101" t="n">
-        <v>9.701259730204789</v>
-      </c>
-      <c r="D101" t="n">
-        <v>-1.931881545166664</v>
-      </c>
-      <c r="E101" t="n">
-        <v>25.53534878581116</v>
-      </c>
-      <c r="F101" t="n">
-        <v>17.73647181191756</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-32.47072003175674</v>
-      </c>
-      <c r="H101" t="n">
-        <v>-72.05238358535806</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6.330021481421864</v>
-      </c>
-      <c r="J101" t="n">
-        <v>25.59254609436162</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-51.67604733614604</v>
-      </c>
-      <c r="L101" t="n">
-        <v>-64.196309302914</v>
-      </c>
-      <c r="M101" t="n">
-        <v>-16.57026598178295</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-125.3184402119656</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="n">
-        <v>3.447025272688801</v>
-      </c>
-      <c r="C102" t="n">
-        <v>9.701259730204788</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-1.931881545166662</v>
-      </c>
-      <c r="E102" t="n">
-        <v>25.53534878581116</v>
-      </c>
-      <c r="F102" t="n">
-        <v>17.73647181191756</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-32.47072003175676</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-72.05238358535804</v>
-      </c>
-      <c r="I102" t="n">
-        <v>6.330021481421864</v>
-      </c>
-      <c r="J102" t="n">
-        <v>25.59254609436162</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-51.67604733614606</v>
-      </c>
-      <c r="L102" t="n">
-        <v>-64.19630930291399</v>
-      </c>
-      <c r="M102" t="n">
-        <v>-16.57026598178296</v>
-      </c>
-      <c r="N102" t="n">
-        <v>-125.3184402119656</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>2</v>
-      </c>
-      <c r="B103" t="n">
-        <v>3.777719236224569</v>
-      </c>
-      <c r="C103" t="n">
-        <v>11.1570715082183</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-4.792320145917249</v>
-      </c>
-      <c r="E103" t="n">
-        <v>24.93477471535802</v>
-      </c>
-      <c r="F103" t="n">
-        <v>16.36748595754155</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-25.53799940980731</v>
-      </c>
-      <c r="H103" t="n">
-        <v>-77.51612136910649</v>
-      </c>
-      <c r="I103" t="n">
-        <v>6.148335208007468</v>
-      </c>
-      <c r="J103" t="n">
-        <v>25.17839911320585</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-44.32443891715786</v>
-      </c>
-      <c r="L103" t="n">
-        <v>-68.70520821344219</v>
-      </c>
-      <c r="M103" t="n">
-        <v>-12.33337838262858</v>
-      </c>
-      <c r="N103" t="n">
-        <v>-131.5136695641207</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>3</v>
-      </c>
-      <c r="B104" t="n">
-        <v>4.108413199760336</v>
-      </c>
-      <c r="C104" t="n">
-        <v>13.46278628389064</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-7.025070981750273</v>
-      </c>
-      <c r="E104" t="n">
-        <v>24.58350756153641</v>
-      </c>
-      <c r="F104" t="n">
-        <v>15.64411643784896</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-16.15576840607682</v>
-      </c>
-      <c r="H104" t="n">
-        <v>-83.04553807179916</v>
-      </c>
-      <c r="I104" t="n">
-        <v>6.042069514414376</v>
-      </c>
-      <c r="J104" t="n">
-        <v>24.95956463666019</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-34.69720645319886</v>
-      </c>
-      <c r="L104" t="n">
-        <v>-73.73008987298792</v>
-      </c>
-      <c r="M104" t="n">
-        <v>-4.415399442497812</v>
-      </c>
-      <c r="N104" t="n">
-        <v>-137.3802504032666</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>4</v>
-      </c>
-      <c r="B105" t="n">
-        <v>4.439107163296104</v>
-      </c>
-      <c r="C105" t="n">
-        <v>16.36854408442674</v>
-      </c>
-      <c r="D105" t="n">
-        <v>-8.388180854904453</v>
-      </c>
-      <c r="E105" t="n">
-        <v>24.51627503200149</v>
-      </c>
-      <c r="F105" t="n">
-        <v>15.51112834862551</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-5.331848241292139</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-87.55192480501077</v>
-      </c>
-      <c r="I105" t="n">
-        <v>6.021730261781963</v>
-      </c>
-      <c r="J105" t="n">
-        <v>24.91933294580268</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-23.82639301151166</v>
-      </c>
-      <c r="L105" t="n">
-        <v>-78.14372020783361</v>
-      </c>
-      <c r="M105" t="n">
-        <v>6.136213220836726</v>
-      </c>
-      <c r="N105" t="n">
-        <v>-141.9447625122414</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>5</v>
-      </c>
-      <c r="B106" t="n">
-        <v>4.769801126831871</v>
-      </c>
-      <c r="C106" t="n">
-        <v>19.55946096466073</v>
-      </c>
-      <c r="D106" t="n">
-        <v>-8.733935659794598</v>
-      </c>
-      <c r="E106" t="n">
-        <v>24.74824388666533</v>
-      </c>
-      <c r="F106" t="n">
-        <v>15.97717584471514</v>
-      </c>
-      <c r="G106" t="n">
-        <v>5.739831202094024</v>
-      </c>
-      <c r="H106" t="n">
-        <v>-90.52585402642181</v>
-      </c>
-      <c r="I106" t="n">
-        <v>6.091905713613039</v>
-      </c>
-      <c r="J106" t="n">
-        <v>25.06032210428357</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-12.91650697095826</v>
-      </c>
-      <c r="L106" t="n">
-        <v>-81.44270776685337</v>
-      </c>
-      <c r="M106" t="n">
-        <v>18.15790386470075</v>
-      </c>
-      <c r="N106" t="n">
-        <v>-144.7096957035354</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>6</v>
-      </c>
-      <c r="B107" t="n">
-        <v>5.100495090367639</v>
-      </c>
-      <c r="C107" t="n">
-        <v>22.68975156844244</v>
-      </c>
-      <c r="D107" t="n">
-        <v>-8.024867498372293</v>
-      </c>
-      <c r="E107" t="n">
-        <v>25.26353752912881</v>
-      </c>
-      <c r="F107" t="n">
-        <v>17.09361425965945</v>
-      </c>
-      <c r="G107" t="n">
-        <v>15.83481668305001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>-92.01820049972025</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6.247792865954933</v>
-      </c>
-      <c r="J107" t="n">
-        <v>25.39806817939277</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-3.180927980123869</v>
-      </c>
-      <c r="L107" t="n">
-        <v>-83.71374657998693</v>
-      </c>
-      <c r="M107" t="n">
-        <v>30.4813156246775</v>
-      </c>
-      <c r="N107" t="n">
-        <v>-145.6426100190539</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>7</v>
-      </c>
-      <c r="B108" t="n">
-        <v>5.431189053903407</v>
-      </c>
-      <c r="C108" t="n">
-        <v>25.4202003373889</v>
-      </c>
-      <c r="D108" t="n">
-        <v>-6.337814908253783</v>
-      </c>
-      <c r="E108" t="n">
-        <v>25.98519077674523</v>
-      </c>
-      <c r="F108" t="n">
-        <v>18.90586322714154</v>
-      </c>
-      <c r="G108" t="n">
-        <v>23.91542382068737</v>
-      </c>
-      <c r="H108" t="n">
-        <v>-92.47684069402248</v>
-      </c>
-      <c r="I108" t="n">
-        <v>6.466108134141415</v>
-      </c>
-      <c r="J108" t="n">
-        <v>25.94631156451341</v>
-      </c>
-      <c r="K108" t="n">
-        <v>4.396341178083549</v>
-      </c>
-      <c r="L108" t="n">
-        <v>-85.43639235665063</v>
-      </c>
-      <c r="M108" t="n">
-        <v>42.04459514683843</v>
-      </c>
-      <c r="N108" t="n">
-        <v>-145.0261544342737</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>8</v>
-      </c>
-      <c r="B109" t="n">
-        <v>5.761883017439175</v>
-      </c>
-      <c r="C109" t="n">
-        <v>27.45492078010687</v>
-      </c>
-      <c r="D109" t="n">
-        <v>-3.855596214896483</v>
-      </c>
-      <c r="E109" t="n">
-        <v>26.7588481016521</v>
-      </c>
-      <c r="F109" t="n">
-        <v>21.38480756210971</v>
-      </c>
-      <c r="G109" t="n">
-        <v>29.30881731975372</v>
-      </c>
-      <c r="H109" t="n">
-        <v>-92.46484551972567</v>
-      </c>
-      <c r="I109" t="n">
-        <v>6.700155728230888</v>
-      </c>
-      <c r="J109" t="n">
-        <v>26.69624430450378</v>
-      </c>
-      <c r="K109" t="n">
-        <v>9.250124946332502</v>
-      </c>
-      <c r="L109" t="n">
-        <v>-87.15340877733161</v>
-      </c>
-      <c r="M109" t="n">
-        <v>51.95155884910947</v>
-      </c>
-      <c r="N109" t="n">
-        <v>-143.2329800489664</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>9</v>
-      </c>
-      <c r="B110" t="n">
-        <v>6.092576980974942</v>
-      </c>
-      <c r="C110" t="n">
-        <v>28.57341936468722</v>
-      </c>
-      <c r="D110" t="n">
-        <v>-0.8471983293170848</v>
-      </c>
-      <c r="E110" t="n">
-        <v>27.38829075065058</v>
-      </c>
-      <c r="F110" t="n">
-        <v>24.37497386437376</v>
-      </c>
-      <c r="G110" t="n">
-        <v>31.72985101989372</v>
-      </c>
-      <c r="H110" t="n">
-        <v>-92.39805655114469</v>
-      </c>
-      <c r="I110" t="n">
-        <v>6.890575353137988</v>
-      </c>
-      <c r="J110" t="n">
-        <v>27.60083242955845</v>
-      </c>
-      <c r="K110" t="n">
-        <v>11.23213562238114</v>
-      </c>
-      <c r="L110" t="n">
-        <v>-89.17219798596</v>
-      </c>
-      <c r="M110" t="n">
-        <v>59.46079705231288</v>
-      </c>
-      <c r="N110" t="n">
-        <v>-140.5757677845704</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>10</v>
-      </c>
-      <c r="B111" t="n">
-        <v>6.42327094451071</v>
-      </c>
-      <c r="C111" t="n">
-        <v>28.65448941419694</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2.361372157479072</v>
-      </c>
-      <c r="E111" t="n">
-        <v>27.71675508625803</v>
-      </c>
-      <c r="F111" t="n">
-        <v>27.59395336373311</v>
-      </c>
-      <c r="G111" t="n">
-        <v>31.15201945593522</v>
-      </c>
-      <c r="H111" t="n">
-        <v>-92.43618857736628</v>
-      </c>
-      <c r="I111" t="n">
-        <v>6.989942715170496</v>
-      </c>
-      <c r="J111" t="n">
-        <v>28.57464135373439</v>
-      </c>
-      <c r="K111" t="n">
-        <v>10.42520708484769</v>
-      </c>
-      <c r="L111" t="n">
-        <v>-91.45550058736501</v>
-      </c>
-      <c r="M111" t="n">
-        <v>63.95113646381277</v>
-      </c>
-      <c r="N111" t="n">
-        <v>-137.3173110126157</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>11</v>
-      </c>
-      <c r="B112" t="n">
-        <v>6.753964908046478</v>
-      </c>
-      <c r="C112" t="n">
-        <v>27.68934573084024</v>
-      </c>
-      <c r="D112" t="n">
-        <v>5.42241684714688</v>
-      </c>
-      <c r="E112" t="n">
-        <v>27.70295497348244</v>
-      </c>
-      <c r="F112" t="n">
-        <v>30.67241317959246</v>
-      </c>
-      <c r="G112" t="n">
-        <v>27.6530993321199</v>
-      </c>
-      <c r="H112" t="n">
-        <v>-92.49998656440459</v>
-      </c>
-      <c r="I112" t="n">
-        <v>6.985767891137545</v>
-      </c>
-      <c r="J112" t="n">
-        <v>29.50594012155738</v>
-      </c>
-      <c r="K112" t="n">
-        <v>6.935912249775004</v>
-      </c>
-      <c r="L112" t="n">
-        <v>-93.66645962243966</v>
-      </c>
-      <c r="M112" t="n">
-        <v>64.91463148210208</v>
-      </c>
-      <c r="N112" t="n">
-        <v>-133.7513556250811</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>12</v>
-      </c>
-      <c r="B113" t="n">
-        <v>7.084658871582246</v>
-      </c>
-      <c r="C113" t="n">
-        <v>25.78257660845605</v>
-      </c>
-      <c r="D113" t="n">
-        <v>8.004224050558687</v>
-      </c>
-      <c r="E113" t="n">
-        <v>27.45218503889162</v>
-      </c>
-      <c r="F113" t="n">
-        <v>33.19896373345715</v>
-      </c>
-      <c r="G113" t="n">
-        <v>21.33579771947419</v>
-      </c>
-      <c r="H113" t="n">
-        <v>-92.29756121457852</v>
-      </c>
-      <c r="I113" t="n">
-        <v>6.909904717647885</v>
-      </c>
-      <c r="J113" t="n">
-        <v>30.2702747428946</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.7935173982304526</v>
-      </c>
-      <c r="L113" t="n">
-        <v>-95.22625020514107</v>
-      </c>
-      <c r="M113" t="n">
-        <v>61.97895669814836</v>
-      </c>
-      <c r="N113" t="n">
-        <v>-130.22157545066</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>13</v>
-      </c>
-      <c r="B114" t="n">
-        <v>7.415352835118012</v>
-      </c>
-      <c r="C114" t="n">
-        <v>23.14081006802608</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9.827014896358444</v>
-      </c>
-      <c r="E114" t="n">
-        <v>27.18896083043538</v>
-      </c>
-      <c r="F114" t="n">
-        <v>34.75039699840882</v>
-      </c>
-      <c r="G114" t="n">
-        <v>12.35910160180724</v>
-      </c>
-      <c r="H114" t="n">
-        <v>-91.3034789877093</v>
-      </c>
-      <c r="I114" t="n">
-        <v>6.830273864669527</v>
-      </c>
-      <c r="J114" t="n">
-        <v>30.7396158986783</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-7.999585363958612</v>
-      </c>
-      <c r="L114" t="n">
-        <v>-95.31426008743982</v>
-      </c>
-      <c r="M114" t="n">
-        <v>54.95066653435794</v>
-      </c>
-      <c r="N114" t="n">
-        <v>-127.0254025661032</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>14</v>
-      </c>
-      <c r="B115" t="n">
-        <v>7.746046798653781</v>
-      </c>
-      <c r="C115" t="n">
-        <v>20.05032250543721</v>
-      </c>
-      <c r="D115" t="n">
-        <v>10.69326171288964</v>
-      </c>
-      <c r="E115" t="n">
-        <v>27.15436389024016</v>
-      </c>
-      <c r="F115" t="n">
-        <v>34.92330702863362</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1.129657827100637</v>
-      </c>
-      <c r="H115" t="n">
-        <v>-88.7635323448047</v>
-      </c>
-      <c r="I115" t="n">
-        <v>6.819807563433999</v>
-      </c>
-      <c r="J115" t="n">
-        <v>30.79192481538496</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-19.20489849970553</v>
-      </c>
-      <c r="L115" t="n">
-        <v>-92.89491455805336</v>
-      </c>
-      <c r="M115" t="n">
-        <v>43.93220829822495</v>
-      </c>
-      <c r="N115" t="n">
-        <v>-124.2323764295948</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>15</v>
-      </c>
-      <c r="B116" t="n">
-        <v>8.076740762189548</v>
-      </c>
-      <c r="C116" t="n">
-        <v>16.84601620195139</v>
-      </c>
-      <c r="D116" t="n">
-        <v>10.50909321637684</v>
-      </c>
-      <c r="E116" t="n">
-        <v>27.41683350686776</v>
-      </c>
-      <c r="F116" t="n">
-        <v>33.43986558684183</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-11.30794275866747</v>
-      </c>
-      <c r="H116" t="n">
-        <v>-84.00381957497078</v>
-      </c>
-      <c r="I116" t="n">
-        <v>6.899210136531421</v>
-      </c>
-      <c r="J116" t="n">
-        <v>30.34315261450677</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-31.8255661290038</v>
-      </c>
-      <c r="L116" t="n">
-        <v>-87.10053254730583</v>
-      </c>
-      <c r="M116" t="n">
-        <v>29.64423263539317</v>
-      </c>
-      <c r="N116" t="n">
-        <v>-121.5939320786384</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>16</v>
-      </c>
-      <c r="B117" t="n">
-        <v>8.407434725725317</v>
-      </c>
-      <c r="C117" t="n">
-        <v>13.87512746548638</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9.294466921085883</v>
-      </c>
-      <c r="E117" t="n">
-        <v>27.71643859312513</v>
-      </c>
-      <c r="F117" t="n">
-        <v>30.41271983812198</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-22.9893546467396</v>
-      </c>
-      <c r="H117" t="n">
-        <v>-77.36389682478573</v>
-      </c>
-      <c r="I117" t="n">
-        <v>6.989846969348777</v>
-      </c>
-      <c r="J117" t="n">
-        <v>29.42737743002009</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-43.71594627051596</v>
-      </c>
-      <c r="L117" t="n">
-        <v>-78.34923923288761</v>
-      </c>
-      <c r="M117" t="n">
-        <v>13.91018148157017</v>
-      </c>
-      <c r="N117" t="n">
-        <v>-118.9393879350523</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>17</v>
-      </c>
-      <c r="B118" t="n">
-        <v>8.738128689261083</v>
-      </c>
-      <c r="C118" t="n">
-        <v>11.4595981887266</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7.181006432980378</v>
-      </c>
-      <c r="E118" t="n">
-        <v>27.64956278225451</v>
-      </c>
-      <c r="F118" t="n">
-        <v>26.55747531821106</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-31.66020850096656</v>
-      </c>
-      <c r="H118" t="n">
-        <v>-70.98310383698367</v>
-      </c>
-      <c r="I118" t="n">
-        <v>6.969615631606407</v>
-      </c>
-      <c r="J118" t="n">
-        <v>28.26108497021511</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-52.34015565161467</v>
-      </c>
-      <c r="L118" t="n">
-        <v>-69.27949418497963</v>
-      </c>
-      <c r="M118" t="n">
-        <v>-0.4477646451716297</v>
-      </c>
-      <c r="N118" t="n">
-        <v>-116.9818057327236</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>18</v>
-      </c>
-      <c r="B119" t="n">
-        <v>9.068822652796852</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9.861188449607457</v>
-      </c>
-      <c r="D119" t="n">
-        <v>4.397737989664864</v>
-      </c>
-      <c r="E119" t="n">
-        <v>27.10568952294837</v>
-      </c>
-      <c r="F119" t="n">
-        <v>22.84196968229831</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-36.06723520117182</v>
-      </c>
-      <c r="H119" t="n">
-        <v>-67.56797748786511</v>
-      </c>
-      <c r="I119" t="n">
-        <v>6.805082544757491</v>
-      </c>
-      <c r="J119" t="n">
-        <v>27.13706645851041</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-56.3678421793627</v>
-      </c>
-      <c r="L119" t="n">
-        <v>-63.272880711653</v>
-      </c>
-      <c r="M119" t="n">
-        <v>-10.8978968733922</v>
-      </c>
-      <c r="N119" t="n">
-        <v>-117.1320938997014</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>19</v>
-      </c>
-      <c r="B120" t="n">
-        <v>9.399516616332619</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9.253110745245055</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.2462719138322</v>
-      </c>
-      <c r="E120" t="n">
-        <v>26.31194193651951</v>
-      </c>
-      <c r="F120" t="n">
-        <v>19.86236114835194</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-36.18080599191165</v>
-      </c>
-      <c r="H120" t="n">
-        <v>-68.19755462150795</v>
-      </c>
-      <c r="I120" t="n">
-        <v>6.564957224493295</v>
-      </c>
-      <c r="J120" t="n">
-        <v>26.2356722801737</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-55.92779070393787</v>
-      </c>
-      <c r="L120" t="n">
-        <v>-61.82424348968619</v>
-      </c>
-      <c r="M120" t="n">
-        <v>-16.27696982803617</v>
-      </c>
-      <c r="N120" t="n">
-        <v>-120.1006810543722</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>20</v>
-      </c>
-      <c r="B121" t="n">
-        <v>9.730210579868388</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9.701259730204789</v>
-      </c>
-      <c r="D121" t="n">
-        <v>-1.931881545166664</v>
-      </c>
-      <c r="E121" t="n">
-        <v>25.53534878581116</v>
-      </c>
-      <c r="F121" t="n">
-        <v>17.73647181191756</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-32.47072003175674</v>
-      </c>
-      <c r="H121" t="n">
-        <v>-72.05238358535806</v>
-      </c>
-      <c r="I121" t="n">
-        <v>6.330021481421864</v>
-      </c>
-      <c r="J121" t="n">
-        <v>25.59254609436162</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-51.67604733614604</v>
-      </c>
-      <c r="L121" t="n">
-        <v>-64.196309302914</v>
-      </c>
-      <c r="M121" t="n">
-        <v>-16.57026598178295</v>
-      </c>
-      <c r="N121" t="n">
-        <v>-125.3184402119656</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1</v>
-      </c>
-      <c r="B122" t="n">
-        <v>3.447025272688801</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9.701259730204788</v>
-      </c>
-      <c r="D122" t="n">
-        <v>-1.931881545166662</v>
-      </c>
-      <c r="E122" t="n">
-        <v>25.53534878581116</v>
-      </c>
-      <c r="F122" t="n">
-        <v>17.73647181191756</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-32.47072003175676</v>
-      </c>
-      <c r="H122" t="n">
-        <v>-72.05238358535804</v>
-      </c>
-      <c r="I122" t="n">
-        <v>6.330021481421864</v>
-      </c>
-      <c r="J122" t="n">
-        <v>25.59254609436162</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-51.67604733614606</v>
-      </c>
-      <c r="L122" t="n">
-        <v>-64.19630930291399</v>
-      </c>
-      <c r="M122" t="n">
-        <v>-16.57026598178296</v>
-      </c>
-      <c r="N122" t="n">
-        <v>-125.3184402119656</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>2</v>
-      </c>
-      <c r="B123" t="n">
-        <v>3.777719236224569</v>
-      </c>
-      <c r="C123" t="n">
-        <v>11.1570715082183</v>
-      </c>
-      <c r="D123" t="n">
-        <v>-4.792320145917249</v>
-      </c>
-      <c r="E123" t="n">
-        <v>24.93477471535802</v>
-      </c>
-      <c r="F123" t="n">
-        <v>16.36748595754155</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-25.53799940980731</v>
-      </c>
-      <c r="H123" t="n">
-        <v>-77.51612136910649</v>
-      </c>
-      <c r="I123" t="n">
-        <v>6.148335208007468</v>
-      </c>
-      <c r="J123" t="n">
-        <v>25.17839911320585</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-44.32443891715786</v>
-      </c>
-      <c r="L123" t="n">
-        <v>-68.70520821344219</v>
-      </c>
-      <c r="M123" t="n">
-        <v>-12.33337838262858</v>
-      </c>
-      <c r="N123" t="n">
-        <v>-131.5136695641207</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>3</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.108413199760336</v>
-      </c>
-      <c r="C124" t="n">
-        <v>13.46278628389064</v>
-      </c>
-      <c r="D124" t="n">
-        <v>-7.025070981750273</v>
-      </c>
-      <c r="E124" t="n">
-        <v>24.58350756153641</v>
-      </c>
-      <c r="F124" t="n">
-        <v>15.64411643784896</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-16.15576840607682</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-83.04553807179916</v>
-      </c>
-      <c r="I124" t="n">
-        <v>6.042069514414376</v>
-      </c>
-      <c r="J124" t="n">
-        <v>24.95956463666019</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-34.69720645319886</v>
-      </c>
-      <c r="L124" t="n">
-        <v>-73.73008987298792</v>
-      </c>
-      <c r="M124" t="n">
-        <v>-4.415399442497812</v>
-      </c>
-      <c r="N124" t="n">
-        <v>-137.3802504032666</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>4</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4.439107163296104</v>
-      </c>
-      <c r="C125" t="n">
-        <v>16.36854408442674</v>
-      </c>
-      <c r="D125" t="n">
-        <v>-8.388180854904453</v>
-      </c>
-      <c r="E125" t="n">
-        <v>24.51627503200149</v>
-      </c>
-      <c r="F125" t="n">
-        <v>15.51112834862551</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-5.331848241292139</v>
-      </c>
-      <c r="H125" t="n">
-        <v>-87.55192480501077</v>
-      </c>
-      <c r="I125" t="n">
-        <v>6.021730261781963</v>
-      </c>
-      <c r="J125" t="n">
-        <v>24.91933294580268</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-23.82639301151166</v>
-      </c>
-      <c r="L125" t="n">
-        <v>-78.14372020783361</v>
-      </c>
-      <c r="M125" t="n">
-        <v>6.136213220836726</v>
-      </c>
-      <c r="N125" t="n">
-        <v>-141.9447625122414</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>5</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4.769801126831871</v>
-      </c>
-      <c r="C126" t="n">
-        <v>19.55946096466073</v>
-      </c>
-      <c r="D126" t="n">
-        <v>-8.733935659794598</v>
-      </c>
-      <c r="E126" t="n">
-        <v>24.74824388666533</v>
-      </c>
-      <c r="F126" t="n">
-        <v>15.97717584471514</v>
-      </c>
-      <c r="G126" t="n">
-        <v>5.739831202094024</v>
-      </c>
-      <c r="H126" t="n">
-        <v>-90.52585402642181</v>
-      </c>
-      <c r="I126" t="n">
-        <v>6.091905713613039</v>
-      </c>
-      <c r="J126" t="n">
-        <v>25.06032210428357</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-12.91650697095826</v>
-      </c>
-      <c r="L126" t="n">
-        <v>-81.44270776685337</v>
-      </c>
-      <c r="M126" t="n">
-        <v>18.15790386470075</v>
-      </c>
-      <c r="N126" t="n">
-        <v>-144.7096957035354</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>6</v>
-      </c>
-      <c r="B127" t="n">
-        <v>5.100495090367639</v>
-      </c>
-      <c r="C127" t="n">
-        <v>22.68975156844244</v>
-      </c>
-      <c r="D127" t="n">
-        <v>-8.024867498372293</v>
-      </c>
-      <c r="E127" t="n">
-        <v>25.26353752912881</v>
-      </c>
-      <c r="F127" t="n">
-        <v>17.09361425965945</v>
-      </c>
-      <c r="G127" t="n">
-        <v>15.83481668305001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>-92.01820049972025</v>
-      </c>
-      <c r="I127" t="n">
-        <v>6.247792865954933</v>
-      </c>
-      <c r="J127" t="n">
-        <v>25.39806817939277</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-3.180927980123869</v>
-      </c>
-      <c r="L127" t="n">
-        <v>-83.71374657998693</v>
-      </c>
-      <c r="M127" t="n">
-        <v>30.4813156246775</v>
-      </c>
-      <c r="N127" t="n">
-        <v>-145.6426100190539</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>7</v>
-      </c>
-      <c r="B128" t="n">
-        <v>5.431189053903407</v>
-      </c>
-      <c r="C128" t="n">
-        <v>25.4202003373889</v>
-      </c>
-      <c r="D128" t="n">
-        <v>-6.337814908253783</v>
-      </c>
-      <c r="E128" t="n">
-        <v>25.98519077674523</v>
-      </c>
-      <c r="F128" t="n">
-        <v>18.90586322714154</v>
-      </c>
-      <c r="G128" t="n">
-        <v>23.91542382068737</v>
-      </c>
-      <c r="H128" t="n">
-        <v>-92.47684069402248</v>
-      </c>
-      <c r="I128" t="n">
-        <v>6.466108134141415</v>
-      </c>
-      <c r="J128" t="n">
-        <v>25.94631156451341</v>
-      </c>
-      <c r="K128" t="n">
-        <v>4.396341178083549</v>
-      </c>
-      <c r="L128" t="n">
-        <v>-85.43639235665063</v>
-      </c>
-      <c r="M128" t="n">
-        <v>42.04459514683843</v>
-      </c>
-      <c r="N128" t="n">
-        <v>-145.0261544342737</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>8</v>
-      </c>
-      <c r="B129" t="n">
-        <v>5.761883017439175</v>
-      </c>
-      <c r="C129" t="n">
-        <v>27.45492078010687</v>
-      </c>
-      <c r="D129" t="n">
-        <v>-3.855596214896483</v>
-      </c>
-      <c r="E129" t="n">
-        <v>26.7588481016521</v>
-      </c>
-      <c r="F129" t="n">
-        <v>21.38480756210971</v>
-      </c>
-      <c r="G129" t="n">
-        <v>29.30881731975372</v>
-      </c>
-      <c r="H129" t="n">
-        <v>-92.46484551972567</v>
-      </c>
-      <c r="I129" t="n">
-        <v>6.700155728230888</v>
-      </c>
-      <c r="J129" t="n">
-        <v>26.69624430450378</v>
-      </c>
-      <c r="K129" t="n">
-        <v>9.250124946332502</v>
-      </c>
-      <c r="L129" t="n">
-        <v>-87.15340877733161</v>
-      </c>
-      <c r="M129" t="n">
-        <v>51.95155884910947</v>
-      </c>
-      <c r="N129" t="n">
-        <v>-143.2329800489664</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>9</v>
-      </c>
-      <c r="B130" t="n">
-        <v>6.092576980974942</v>
-      </c>
-      <c r="C130" t="n">
-        <v>28.57341936468722</v>
-      </c>
-      <c r="D130" t="n">
-        <v>-0.8471983293170848</v>
-      </c>
-      <c r="E130" t="n">
-        <v>27.38829075065058</v>
-      </c>
-      <c r="F130" t="n">
-        <v>24.37497386437376</v>
-      </c>
-      <c r="G130" t="n">
-        <v>31.72985101989372</v>
-      </c>
-      <c r="H130" t="n">
-        <v>-92.39805655114469</v>
-      </c>
-      <c r="I130" t="n">
-        <v>6.890575353137988</v>
-      </c>
-      <c r="J130" t="n">
-        <v>27.60083242955845</v>
-      </c>
-      <c r="K130" t="n">
-        <v>11.23213562238114</v>
-      </c>
-      <c r="L130" t="n">
-        <v>-89.17219798596</v>
-      </c>
-      <c r="M130" t="n">
-        <v>59.46079705231288</v>
-      </c>
-      <c r="N130" t="n">
-        <v>-140.5757677845704</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>10</v>
-      </c>
-      <c r="B131" t="n">
-        <v>6.42327094451071</v>
-      </c>
-      <c r="C131" t="n">
-        <v>28.65448941419694</v>
-      </c>
-      <c r="D131" t="n">
-        <v>2.361372157479072</v>
-      </c>
-      <c r="E131" t="n">
-        <v>27.71675508625803</v>
-      </c>
-      <c r="F131" t="n">
-        <v>27.59395336373311</v>
-      </c>
-      <c r="G131" t="n">
-        <v>31.15201945593522</v>
-      </c>
-      <c r="H131" t="n">
-        <v>-92.43618857736628</v>
-      </c>
-      <c r="I131" t="n">
-        <v>6.989942715170496</v>
-      </c>
-      <c r="J131" t="n">
-        <v>28.57464135373439</v>
-      </c>
-      <c r="K131" t="n">
-        <v>10.42520708484769</v>
-      </c>
-      <c r="L131" t="n">
-        <v>-91.45550058736501</v>
-      </c>
-      <c r="M131" t="n">
-        <v>63.95113646381277</v>
-      </c>
-      <c r="N131" t="n">
-        <v>-137.3173110126157</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>11</v>
-      </c>
-      <c r="B132" t="n">
-        <v>6.753964908046478</v>
-      </c>
-      <c r="C132" t="n">
-        <v>27.68934573084024</v>
-      </c>
-      <c r="D132" t="n">
-        <v>5.42241684714688</v>
-      </c>
-      <c r="E132" t="n">
-        <v>27.70295497348244</v>
-      </c>
-      <c r="F132" t="n">
-        <v>30.67241317959246</v>
-      </c>
-      <c r="G132" t="n">
-        <v>27.6530993321199</v>
-      </c>
-      <c r="H132" t="n">
-        <v>-92.49998656440459</v>
-      </c>
-      <c r="I132" t="n">
-        <v>6.985767891137545</v>
-      </c>
-      <c r="J132" t="n">
-        <v>29.50594012155738</v>
-      </c>
-      <c r="K132" t="n">
-        <v>6.935912249775004</v>
-      </c>
-      <c r="L132" t="n">
-        <v>-93.66645962243966</v>
-      </c>
-      <c r="M132" t="n">
-        <v>64.91463148210208</v>
-      </c>
-      <c r="N132" t="n">
-        <v>-133.7513556250811</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>12</v>
-      </c>
-      <c r="B133" t="n">
-        <v>7.084658871582246</v>
-      </c>
-      <c r="C133" t="n">
-        <v>25.78257660845605</v>
-      </c>
-      <c r="D133" t="n">
-        <v>8.004224050558687</v>
-      </c>
-      <c r="E133" t="n">
-        <v>27.45218503889162</v>
-      </c>
-      <c r="F133" t="n">
-        <v>33.19896373345715</v>
-      </c>
-      <c r="G133" t="n">
-        <v>21.33579771947419</v>
-      </c>
-      <c r="H133" t="n">
-        <v>-92.29756121457852</v>
-      </c>
-      <c r="I133" t="n">
-        <v>6.909904717647885</v>
-      </c>
-      <c r="J133" t="n">
-        <v>30.2702747428946</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.7935173982304526</v>
-      </c>
-      <c r="L133" t="n">
-        <v>-95.22625020514107</v>
-      </c>
-      <c r="M133" t="n">
-        <v>61.97895669814836</v>
-      </c>
-      <c r="N133" t="n">
-        <v>-130.22157545066</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>13</v>
-      </c>
-      <c r="B134" t="n">
-        <v>7.415352835118012</v>
-      </c>
-      <c r="C134" t="n">
-        <v>23.14081006802608</v>
-      </c>
-      <c r="D134" t="n">
-        <v>9.827014896358444</v>
-      </c>
-      <c r="E134" t="n">
-        <v>27.18896083043538</v>
-      </c>
-      <c r="F134" t="n">
-        <v>34.75039699840882</v>
-      </c>
-      <c r="G134" t="n">
-        <v>12.35910160180724</v>
-      </c>
-      <c r="H134" t="n">
-        <v>-91.3034789877093</v>
-      </c>
-      <c r="I134" t="n">
-        <v>6.830273864669527</v>
-      </c>
-      <c r="J134" t="n">
-        <v>30.7396158986783</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-7.999585363958612</v>
-      </c>
-      <c r="L134" t="n">
-        <v>-95.31426008743982</v>
-      </c>
-      <c r="M134" t="n">
-        <v>54.95066653435794</v>
-      </c>
-      <c r="N134" t="n">
-        <v>-127.0254025661032</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>14</v>
-      </c>
-      <c r="B135" t="n">
-        <v>7.746046798653781</v>
-      </c>
-      <c r="C135" t="n">
-        <v>20.05032250543721</v>
-      </c>
-      <c r="D135" t="n">
-        <v>10.69326171288964</v>
-      </c>
-      <c r="E135" t="n">
-        <v>27.15436389024016</v>
-      </c>
-      <c r="F135" t="n">
-        <v>34.92330702863362</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1.129657827100637</v>
-      </c>
-      <c r="H135" t="n">
-        <v>-88.7635323448047</v>
-      </c>
-      <c r="I135" t="n">
-        <v>6.819807563433999</v>
-      </c>
-      <c r="J135" t="n">
-        <v>30.79192481538496</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-19.20489849970553</v>
-      </c>
-      <c r="L135" t="n">
-        <v>-92.89491455805336</v>
-      </c>
-      <c r="M135" t="n">
-        <v>43.93220829822495</v>
-      </c>
-      <c r="N135" t="n">
-        <v>-124.2323764295948</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>15</v>
-      </c>
-      <c r="B136" t="n">
-        <v>8.076740762189548</v>
-      </c>
-      <c r="C136" t="n">
-        <v>16.84601620195139</v>
-      </c>
-      <c r="D136" t="n">
-        <v>10.50909321637684</v>
-      </c>
-      <c r="E136" t="n">
-        <v>27.41683350686776</v>
-      </c>
-      <c r="F136" t="n">
-        <v>33.43986558684183</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-11.30794275866747</v>
-      </c>
-      <c r="H136" t="n">
-        <v>-84.00381957497078</v>
-      </c>
-      <c r="I136" t="n">
-        <v>6.899210136531421</v>
-      </c>
-      <c r="J136" t="n">
-        <v>30.34315261450677</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-31.8255661290038</v>
-      </c>
-      <c r="L136" t="n">
-        <v>-87.10053254730583</v>
-      </c>
-      <c r="M136" t="n">
-        <v>29.64423263539317</v>
-      </c>
-      <c r="N136" t="n">
-        <v>-121.5939320786384</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>16</v>
-      </c>
-      <c r="B137" t="n">
-        <v>8.407434725725317</v>
-      </c>
-      <c r="C137" t="n">
-        <v>13.87512746548638</v>
-      </c>
-      <c r="D137" t="n">
-        <v>9.294466921085883</v>
-      </c>
-      <c r="E137" t="n">
-        <v>27.71643859312513</v>
-      </c>
-      <c r="F137" t="n">
-        <v>30.41271983812198</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-22.9893546467396</v>
-      </c>
-      <c r="H137" t="n">
-        <v>-77.36389682478573</v>
-      </c>
-      <c r="I137" t="n">
-        <v>6.989846969348777</v>
-      </c>
-      <c r="J137" t="n">
-        <v>29.42737743002009</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-43.71594627051596</v>
-      </c>
-      <c r="L137" t="n">
-        <v>-78.34923923288761</v>
-      </c>
-      <c r="M137" t="n">
-        <v>13.91018148157017</v>
-      </c>
-      <c r="N137" t="n">
-        <v>-118.9393879350523</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>17</v>
-      </c>
-      <c r="B138" t="n">
-        <v>8.738128689261083</v>
-      </c>
-      <c r="C138" t="n">
-        <v>11.4595981887266</v>
-      </c>
-      <c r="D138" t="n">
-        <v>7.181006432980378</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.64956278225451</v>
-      </c>
-      <c r="F138" t="n">
-        <v>26.55747531821106</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-31.66020850096656</v>
-      </c>
-      <c r="H138" t="n">
-        <v>-70.98310383698367</v>
-      </c>
-      <c r="I138" t="n">
-        <v>6.969615631606407</v>
-      </c>
-      <c r="J138" t="n">
-        <v>28.26108497021511</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-52.34015565161467</v>
-      </c>
-      <c r="L138" t="n">
-        <v>-69.27949418497963</v>
-      </c>
-      <c r="M138" t="n">
-        <v>-0.4477646451716297</v>
-      </c>
-      <c r="N138" t="n">
-        <v>-116.9818057327236</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>18</v>
-      </c>
-      <c r="B139" t="n">
-        <v>9.068822652796852</v>
-      </c>
-      <c r="C139" t="n">
-        <v>9.861188449607457</v>
-      </c>
-      <c r="D139" t="n">
-        <v>4.397737989664864</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27.10568952294837</v>
-      </c>
-      <c r="F139" t="n">
-        <v>22.84196968229831</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-36.06723520117182</v>
-      </c>
-      <c r="H139" t="n">
-        <v>-67.56797748786511</v>
-      </c>
-      <c r="I139" t="n">
-        <v>6.805082544757491</v>
-      </c>
-      <c r="J139" t="n">
-        <v>27.13706645851041</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-56.3678421793627</v>
-      </c>
-      <c r="L139" t="n">
-        <v>-63.272880711653</v>
-      </c>
-      <c r="M139" t="n">
-        <v>-10.8978968733922</v>
-      </c>
-      <c r="N139" t="n">
-        <v>-117.1320938997014</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>19</v>
-      </c>
-      <c r="B140" t="n">
-        <v>9.399516616332619</v>
-      </c>
-      <c r="C140" t="n">
-        <v>9.253110745245055</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.2462719138322</v>
-      </c>
-      <c r="E140" t="n">
-        <v>26.31194193651951</v>
-      </c>
-      <c r="F140" t="n">
-        <v>19.86236114835194</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-36.18080599191165</v>
-      </c>
-      <c r="H140" t="n">
-        <v>-68.19755462150795</v>
-      </c>
-      <c r="I140" t="n">
-        <v>6.564957224493295</v>
-      </c>
-      <c r="J140" t="n">
-        <v>26.2356722801737</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-55.92779070393787</v>
-      </c>
-      <c r="L140" t="n">
-        <v>-61.82424348968619</v>
-      </c>
-      <c r="M140" t="n">
-        <v>-16.27696982803617</v>
-      </c>
-      <c r="N140" t="n">
-        <v>-120.1006810543722</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>20</v>
-      </c>
-      <c r="B141" t="n">
-        <v>9.730210579868388</v>
-      </c>
-      <c r="C141" t="n">
-        <v>9.701259730204789</v>
-      </c>
-      <c r="D141" t="n">
-        <v>-1.931881545166664</v>
-      </c>
-      <c r="E141" t="n">
-        <v>25.53534878581116</v>
-      </c>
-      <c r="F141" t="n">
-        <v>17.73647181191756</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-32.47072003175674</v>
-      </c>
-      <c r="H141" t="n">
-        <v>-72.05238358535806</v>
-      </c>
-      <c r="I141" t="n">
-        <v>6.330021481421864</v>
-      </c>
-      <c r="J141" t="n">
-        <v>25.59254609436162</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-51.67604733614604</v>
-      </c>
-      <c r="L141" t="n">
-        <v>-64.196309302914</v>
-      </c>
-      <c r="M141" t="n">
-        <v>-16.57026598178295</v>
-      </c>
-      <c r="N141" t="n">
-        <v>-125.3184402119656</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1</v>
-      </c>
-      <c r="B142" t="n">
-        <v>3.447025272688801</v>
-      </c>
-      <c r="C142" t="n">
-        <v>9.701259730204788</v>
-      </c>
-      <c r="D142" t="n">
-        <v>-1.931881545166662</v>
-      </c>
-      <c r="E142" t="n">
-        <v>25.53534878581116</v>
-      </c>
-      <c r="F142" t="n">
-        <v>17.73647181191756</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-32.47072003175676</v>
-      </c>
-      <c r="H142" t="n">
-        <v>-72.05238358535804</v>
-      </c>
-      <c r="I142" t="n">
-        <v>6.330021481421864</v>
-      </c>
-      <c r="J142" t="n">
-        <v>25.59254609436162</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-51.67604733614606</v>
-      </c>
-      <c r="L142" t="n">
-        <v>-64.19630930291399</v>
-      </c>
-      <c r="M142" t="n">
-        <v>-16.57026598178296</v>
-      </c>
-      <c r="N142" t="n">
-        <v>-125.3184402119656</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>2</v>
-      </c>
-      <c r="B143" t="n">
-        <v>3.777719236224569</v>
-      </c>
-      <c r="C143" t="n">
-        <v>11.1570715082183</v>
-      </c>
-      <c r="D143" t="n">
-        <v>-4.792320145917249</v>
-      </c>
-      <c r="E143" t="n">
-        <v>24.93477471535802</v>
-      </c>
-      <c r="F143" t="n">
-        <v>16.36748595754155</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-25.53799940980731</v>
-      </c>
-      <c r="H143" t="n">
-        <v>-77.51612136910649</v>
-      </c>
-      <c r="I143" t="n">
-        <v>6.148335208007468</v>
-      </c>
-      <c r="J143" t="n">
-        <v>25.17839911320585</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-44.32443891715786</v>
-      </c>
-      <c r="L143" t="n">
-        <v>-68.70520821344219</v>
-      </c>
-      <c r="M143" t="n">
-        <v>-12.33337838262858</v>
-      </c>
-      <c r="N143" t="n">
-        <v>-131.5136695641207</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>3</v>
-      </c>
-      <c r="B144" t="n">
-        <v>4.108413199760336</v>
-      </c>
-      <c r="C144" t="n">
-        <v>13.46278628389064</v>
-      </c>
-      <c r="D144" t="n">
-        <v>-7.025070981750273</v>
-      </c>
-      <c r="E144" t="n">
-        <v>24.58350756153641</v>
-      </c>
-      <c r="F144" t="n">
-        <v>15.64411643784896</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-16.15576840607682</v>
-      </c>
-      <c r="H144" t="n">
-        <v>-83.04553807179916</v>
-      </c>
-      <c r="I144" t="n">
-        <v>6.042069514414376</v>
-      </c>
-      <c r="J144" t="n">
-        <v>24.95956463666019</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-34.69720645319886</v>
-      </c>
-      <c r="L144" t="n">
-        <v>-73.73008987298792</v>
-      </c>
-      <c r="M144" t="n">
-        <v>-4.415399442497812</v>
-      </c>
-      <c r="N144" t="n">
-        <v>-137.3802504032666</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>4</v>
-      </c>
-      <c r="B145" t="n">
-        <v>4.439107163296104</v>
-      </c>
-      <c r="C145" t="n">
-        <v>16.36854408442674</v>
-      </c>
-      <c r="D145" t="n">
-        <v>-8.388180854904453</v>
-      </c>
-      <c r="E145" t="n">
-        <v>24.51627503200149</v>
-      </c>
-      <c r="F145" t="n">
-        <v>15.51112834862551</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-5.331848241292139</v>
-      </c>
-      <c r="H145" t="n">
-        <v>-87.55192480501077</v>
-      </c>
-      <c r="I145" t="n">
-        <v>6.021730261781963</v>
-      </c>
-      <c r="J145" t="n">
-        <v>24.91933294580268</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-23.82639301151166</v>
-      </c>
-      <c r="L145" t="n">
-        <v>-78.14372020783361</v>
-      </c>
-      <c r="M145" t="n">
-        <v>6.136213220836726</v>
-      </c>
-      <c r="N145" t="n">
-        <v>-141.9447625122414</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>5</v>
-      </c>
-      <c r="B146" t="n">
-        <v>4.769801126831871</v>
-      </c>
-      <c r="C146" t="n">
-        <v>19.55946096466073</v>
-      </c>
-      <c r="D146" t="n">
-        <v>-8.733935659794598</v>
-      </c>
-      <c r="E146" t="n">
-        <v>24.74824388666533</v>
-      </c>
-      <c r="F146" t="n">
-        <v>15.97717584471514</v>
-      </c>
-      <c r="G146" t="n">
-        <v>5.739831202094024</v>
-      </c>
-      <c r="H146" t="n">
-        <v>-90.52585402642181</v>
-      </c>
-      <c r="I146" t="n">
-        <v>6.091905713613039</v>
-      </c>
-      <c r="J146" t="n">
-        <v>25.06032210428357</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-12.91650697095826</v>
-      </c>
-      <c r="L146" t="n">
-        <v>-81.44270776685337</v>
-      </c>
-      <c r="M146" t="n">
-        <v>18.15790386470075</v>
-      </c>
-      <c r="N146" t="n">
-        <v>-144.7096957035354</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>6</v>
-      </c>
-      <c r="B147" t="n">
-        <v>5.100495090367639</v>
-      </c>
-      <c r="C147" t="n">
-        <v>22.68975156844244</v>
-      </c>
-      <c r="D147" t="n">
-        <v>-8.024867498372293</v>
-      </c>
-      <c r="E147" t="n">
-        <v>25.26353752912881</v>
-      </c>
-      <c r="F147" t="n">
-        <v>17.09361425965945</v>
-      </c>
-      <c r="G147" t="n">
-        <v>15.83481668305001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>-92.01820049972025</v>
-      </c>
-      <c r="I147" t="n">
-        <v>6.247792865954933</v>
-      </c>
-      <c r="J147" t="n">
-        <v>25.39806817939277</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-3.180927980123869</v>
-      </c>
-      <c r="L147" t="n">
-        <v>-83.71374657998693</v>
-      </c>
-      <c r="M147" t="n">
-        <v>30.4813156246775</v>
-      </c>
-      <c r="N147" t="n">
-        <v>-145.6426100190539</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>7</v>
-      </c>
-      <c r="B148" t="n">
-        <v>5.431189053903407</v>
-      </c>
-      <c r="C148" t="n">
-        <v>25.4202003373889</v>
-      </c>
-      <c r="D148" t="n">
-        <v>-6.337814908253783</v>
-      </c>
-      <c r="E148" t="n">
-        <v>25.98519077674523</v>
-      </c>
-      <c r="F148" t="n">
-        <v>18.90586322714154</v>
-      </c>
-      <c r="G148" t="n">
-        <v>23.91542382068737</v>
-      </c>
-      <c r="H148" t="n">
-        <v>-92.47684069402248</v>
-      </c>
-      <c r="I148" t="n">
-        <v>6.466108134141415</v>
-      </c>
-      <c r="J148" t="n">
-        <v>25.94631156451341</v>
-      </c>
-      <c r="K148" t="n">
-        <v>4.396341178083549</v>
-      </c>
-      <c r="L148" t="n">
-        <v>-85.43639235665063</v>
-      </c>
-      <c r="M148" t="n">
-        <v>42.04459514683843</v>
-      </c>
-      <c r="N148" t="n">
-        <v>-145.0261544342737</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>8</v>
-      </c>
-      <c r="B149" t="n">
-        <v>5.761883017439175</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.45492078010687</v>
-      </c>
-      <c r="D149" t="n">
-        <v>-3.855596214896483</v>
-      </c>
-      <c r="E149" t="n">
-        <v>26.7588481016521</v>
-      </c>
-      <c r="F149" t="n">
-        <v>21.38480756210971</v>
-      </c>
-      <c r="G149" t="n">
-        <v>29.30881731975372</v>
-      </c>
-      <c r="H149" t="n">
-        <v>-92.46484551972567</v>
-      </c>
-      <c r="I149" t="n">
-        <v>6.700155728230888</v>
-      </c>
-      <c r="J149" t="n">
-        <v>26.69624430450378</v>
-      </c>
-      <c r="K149" t="n">
-        <v>9.250124946332502</v>
-      </c>
-      <c r="L149" t="n">
-        <v>-87.15340877733161</v>
-      </c>
-      <c r="M149" t="n">
-        <v>51.95155884910947</v>
-      </c>
-      <c r="N149" t="n">
-        <v>-143.2329800489664</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>9</v>
-      </c>
-      <c r="B150" t="n">
-        <v>6.092576980974942</v>
-      </c>
-      <c r="C150" t="n">
-        <v>28.57341936468722</v>
-      </c>
-      <c r="D150" t="n">
-        <v>-0.8471983293170848</v>
-      </c>
-      <c r="E150" t="n">
-        <v>27.38829075065058</v>
-      </c>
-      <c r="F150" t="n">
-        <v>24.37497386437376</v>
-      </c>
-      <c r="G150" t="n">
-        <v>31.72985101989372</v>
-      </c>
-      <c r="H150" t="n">
-        <v>-92.39805655114469</v>
-      </c>
-      <c r="I150" t="n">
-        <v>6.890575353137988</v>
-      </c>
-      <c r="J150" t="n">
-        <v>27.60083242955845</v>
-      </c>
-      <c r="K150" t="n">
-        <v>11.23213562238114</v>
-      </c>
-      <c r="L150" t="n">
-        <v>-89.17219798596</v>
-      </c>
-      <c r="M150" t="n">
-        <v>59.46079705231288</v>
-      </c>
-      <c r="N150" t="n">
-        <v>-140.5757677845704</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>10</v>
-      </c>
-      <c r="B151" t="n">
-        <v>6.42327094451071</v>
-      </c>
-      <c r="C151" t="n">
-        <v>28.65448941419694</v>
-      </c>
-      <c r="D151" t="n">
-        <v>2.361372157479072</v>
-      </c>
-      <c r="E151" t="n">
-        <v>27.71675508625803</v>
-      </c>
-      <c r="F151" t="n">
-        <v>27.59395336373311</v>
-      </c>
-      <c r="G151" t="n">
-        <v>31.15201945593522</v>
-      </c>
-      <c r="H151" t="n">
-        <v>-92.43618857736628</v>
-      </c>
-      <c r="I151" t="n">
-        <v>6.989942715170496</v>
-      </c>
-      <c r="J151" t="n">
-        <v>28.57464135373439</v>
-      </c>
-      <c r="K151" t="n">
-        <v>10.42520708484769</v>
-      </c>
-      <c r="L151" t="n">
-        <v>-91.45550058736501</v>
-      </c>
-      <c r="M151" t="n">
-        <v>63.95113646381277</v>
-      </c>
-      <c r="N151" t="n">
-        <v>-137.3173110126157</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>11</v>
-      </c>
-      <c r="B152" t="n">
-        <v>6.753964908046478</v>
-      </c>
-      <c r="C152" t="n">
-        <v>27.68934573084024</v>
-      </c>
-      <c r="D152" t="n">
-        <v>5.42241684714688</v>
-      </c>
-      <c r="E152" t="n">
-        <v>27.70295497348244</v>
-      </c>
-      <c r="F152" t="n">
-        <v>30.67241317959246</v>
-      </c>
-      <c r="G152" t="n">
-        <v>27.6530993321199</v>
-      </c>
-      <c r="H152" t="n">
-        <v>-92.49998656440459</v>
-      </c>
-      <c r="I152" t="n">
-        <v>6.985767891137545</v>
-      </c>
-      <c r="J152" t="n">
-        <v>29.50594012155738</v>
-      </c>
-      <c r="K152" t="n">
-        <v>6.935912249775004</v>
-      </c>
-      <c r="L152" t="n">
-        <v>-93.66645962243966</v>
-      </c>
-      <c r="M152" t="n">
-        <v>64.91463148210208</v>
-      </c>
-      <c r="N152" t="n">
-        <v>-133.7513556250811</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>12</v>
-      </c>
-      <c r="B153" t="n">
-        <v>7.084658871582246</v>
-      </c>
-      <c r="C153" t="n">
-        <v>25.78257660845605</v>
-      </c>
-      <c r="D153" t="n">
-        <v>8.004224050558687</v>
-      </c>
-      <c r="E153" t="n">
-        <v>27.45218503889162</v>
-      </c>
-      <c r="F153" t="n">
-        <v>33.19896373345715</v>
-      </c>
-      <c r="G153" t="n">
-        <v>21.33579771947419</v>
-      </c>
-      <c r="H153" t="n">
-        <v>-92.29756121457852</v>
-      </c>
-      <c r="I153" t="n">
-        <v>6.909904717647885</v>
-      </c>
-      <c r="J153" t="n">
-        <v>30.2702747428946</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.7935173982304526</v>
-      </c>
-      <c r="L153" t="n">
-        <v>-95.22625020514107</v>
-      </c>
-      <c r="M153" t="n">
-        <v>61.97895669814836</v>
-      </c>
-      <c r="N153" t="n">
-        <v>-130.22157545066</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>13</v>
-      </c>
-      <c r="B154" t="n">
-        <v>7.415352835118012</v>
-      </c>
-      <c r="C154" t="n">
-        <v>23.14081006802608</v>
-      </c>
-      <c r="D154" t="n">
-        <v>9.827014896358444</v>
-      </c>
-      <c r="E154" t="n">
-        <v>27.18896083043538</v>
-      </c>
-      <c r="F154" t="n">
-        <v>34.75039699840882</v>
-      </c>
-      <c r="G154" t="n">
-        <v>12.35910160180724</v>
-      </c>
-      <c r="H154" t="n">
-        <v>-91.3034789877093</v>
-      </c>
-      <c r="I154" t="n">
-        <v>6.830273864669527</v>
-      </c>
-      <c r="J154" t="n">
-        <v>30.7396158986783</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-7.999585363958612</v>
-      </c>
-      <c r="L154" t="n">
-        <v>-95.31426008743982</v>
-      </c>
-      <c r="M154" t="n">
-        <v>54.95066653435794</v>
-      </c>
-      <c r="N154" t="n">
-        <v>-127.0254025661032</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>14</v>
-      </c>
-      <c r="B155" t="n">
-        <v>7.746046798653781</v>
-      </c>
-      <c r="C155" t="n">
-        <v>20.05032250543721</v>
-      </c>
-      <c r="D155" t="n">
-        <v>10.69326171288964</v>
-      </c>
-      <c r="E155" t="n">
-        <v>27.15436389024016</v>
-      </c>
-      <c r="F155" t="n">
-        <v>34.92330702863362</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1.129657827100637</v>
-      </c>
-      <c r="H155" t="n">
-        <v>-88.7635323448047</v>
-      </c>
-      <c r="I155" t="n">
-        <v>6.819807563433999</v>
-      </c>
-      <c r="J155" t="n">
-        <v>30.79192481538496</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-19.20489849970553</v>
-      </c>
-      <c r="L155" t="n">
-        <v>-92.89491455805336</v>
-      </c>
-      <c r="M155" t="n">
-        <v>43.93220829822495</v>
-      </c>
-      <c r="N155" t="n">
-        <v>-124.2323764295948</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>15</v>
-      </c>
-      <c r="B156" t="n">
-        <v>8.076740762189548</v>
-      </c>
-      <c r="C156" t="n">
-        <v>16.84601620195139</v>
-      </c>
-      <c r="D156" t="n">
-        <v>10.50909321637684</v>
-      </c>
-      <c r="E156" t="n">
-        <v>27.41683350686776</v>
-      </c>
-      <c r="F156" t="n">
-        <v>33.43986558684183</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-11.30794275866747</v>
-      </c>
-      <c r="H156" t="n">
-        <v>-84.00381957497078</v>
-      </c>
-      <c r="I156" t="n">
-        <v>6.899210136531421</v>
-      </c>
-      <c r="J156" t="n">
-        <v>30.34315261450677</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-31.8255661290038</v>
-      </c>
-      <c r="L156" t="n">
-        <v>-87.10053254730583</v>
-      </c>
-      <c r="M156" t="n">
-        <v>29.64423263539317</v>
-      </c>
-      <c r="N156" t="n">
-        <v>-121.5939320786384</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>16</v>
-      </c>
-      <c r="B157" t="n">
-        <v>8.407434725725317</v>
-      </c>
-      <c r="C157" t="n">
-        <v>13.87512746548638</v>
-      </c>
-      <c r="D157" t="n">
-        <v>9.294466921085883</v>
-      </c>
-      <c r="E157" t="n">
-        <v>27.71643859312513</v>
-      </c>
-      <c r="F157" t="n">
-        <v>30.41271983812198</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-22.9893546467396</v>
-      </c>
-      <c r="H157" t="n">
-        <v>-77.36389682478573</v>
-      </c>
-      <c r="I157" t="n">
-        <v>6.989846969348777</v>
-      </c>
-      <c r="J157" t="n">
-        <v>29.42737743002009</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-43.71594627051596</v>
-      </c>
-      <c r="L157" t="n">
-        <v>-78.34923923288761</v>
-      </c>
-      <c r="M157" t="n">
-        <v>13.91018148157017</v>
-      </c>
-      <c r="N157" t="n">
-        <v>-118.9393879350523</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>17</v>
-      </c>
-      <c r="B158" t="n">
-        <v>8.738128689261083</v>
-      </c>
-      <c r="C158" t="n">
-        <v>11.4595981887266</v>
-      </c>
-      <c r="D158" t="n">
-        <v>7.181006432980378</v>
-      </c>
-      <c r="E158" t="n">
-        <v>27.64956278225451</v>
-      </c>
-      <c r="F158" t="n">
-        <v>26.55747531821106</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-31.66020850096656</v>
-      </c>
-      <c r="H158" t="n">
-        <v>-70.98310383698367</v>
-      </c>
-      <c r="I158" t="n">
-        <v>6.969615631606407</v>
-      </c>
-      <c r="J158" t="n">
-        <v>28.26108497021511</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-52.34015565161467</v>
-      </c>
-      <c r="L158" t="n">
-        <v>-69.27949418497963</v>
-      </c>
-      <c r="M158" t="n">
-        <v>-0.4477646451716297</v>
-      </c>
-      <c r="N158" t="n">
-        <v>-116.9818057327236</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>18</v>
-      </c>
-      <c r="B159" t="n">
-        <v>9.068822652796852</v>
-      </c>
-      <c r="C159" t="n">
-        <v>9.861188449607457</v>
-      </c>
-      <c r="D159" t="n">
-        <v>4.397737989664864</v>
-      </c>
-      <c r="E159" t="n">
-        <v>27.10568952294837</v>
-      </c>
-      <c r="F159" t="n">
-        <v>22.84196968229831</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-36.06723520117182</v>
-      </c>
-      <c r="H159" t="n">
-        <v>-67.56797748786511</v>
-      </c>
-      <c r="I159" t="n">
-        <v>6.805082544757491</v>
-      </c>
-      <c r="J159" t="n">
-        <v>27.13706645851041</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-56.3678421793627</v>
-      </c>
-      <c r="L159" t="n">
-        <v>-63.272880711653</v>
-      </c>
-      <c r="M159" t="n">
-        <v>-10.8978968733922</v>
-      </c>
-      <c r="N159" t="n">
-        <v>-117.1320938997014</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>19</v>
-      </c>
-      <c r="B160" t="n">
-        <v>9.399516616332619</v>
-      </c>
-      <c r="C160" t="n">
-        <v>9.253110745245055</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.2462719138322</v>
-      </c>
-      <c r="E160" t="n">
-        <v>26.31194193651951</v>
-      </c>
-      <c r="F160" t="n">
-        <v>19.86236114835194</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-36.18080599191165</v>
-      </c>
-      <c r="H160" t="n">
-        <v>-68.19755462150795</v>
-      </c>
-      <c r="I160" t="n">
-        <v>6.564957224493295</v>
-      </c>
-      <c r="J160" t="n">
-        <v>26.2356722801737</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-55.92779070393787</v>
-      </c>
-      <c r="L160" t="n">
-        <v>-61.82424348968619</v>
-      </c>
-      <c r="M160" t="n">
-        <v>-16.27696982803617</v>
-      </c>
-      <c r="N160" t="n">
-        <v>-120.1006810543722</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>20</v>
-      </c>
-      <c r="B161" t="n">
-        <v>9.730210579868388</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9.701259730204789</v>
-      </c>
-      <c r="D161" t="n">
-        <v>-1.931881545166664</v>
-      </c>
-      <c r="E161" t="n">
-        <v>25.53534878581116</v>
-      </c>
-      <c r="F161" t="n">
-        <v>17.73647181191756</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-32.47072003175674</v>
-      </c>
-      <c r="H161" t="n">
-        <v>-72.05238358535806</v>
-      </c>
-      <c r="I161" t="n">
-        <v>6.330021481421864</v>
-      </c>
-      <c r="J161" t="n">
-        <v>25.59254609436162</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-51.67604733614604</v>
-      </c>
-      <c r="L161" t="n">
-        <v>-64.196309302914</v>
-      </c>
-      <c r="M161" t="n">
-        <v>-16.57026598178295</v>
-      </c>
-      <c r="N161" t="n">
-        <v>-125.3184402119656</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
